--- a/resources/Matrix.xlsx
+++ b/resources/Matrix.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metz\Dropbox\Studium\Master\Masterarbeit\Arbeitsdateien\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760" tabRatio="532" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17085" windowHeight="6945" tabRatio="532" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge Base" sheetId="10" r:id="rId1"/>
@@ -21,7 +16,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge Base'!$B$1:$H$73</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:T15"/>
 </workbook>
 </file>
 
@@ -31,7 +27,7 @@
     <author>Metz</author>
   </authors>
   <commentList>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN25" authorId="0" shapeId="0">
+    <comment ref="AN25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0" shapeId="0">
+    <comment ref="K37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P37" authorId="0" shapeId="0">
+    <comment ref="P37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ49" authorId="0" shapeId="0">
+    <comment ref="AJ49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX49" authorId="0" shapeId="0">
+    <comment ref="AX49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ51" authorId="0" shapeId="0">
+    <comment ref="AJ51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD54" authorId="0" shapeId="0">
+    <comment ref="AD54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX54" authorId="0" shapeId="0">
+    <comment ref="AX54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K57" authorId="0" shapeId="0">
+    <comment ref="K57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T57" authorId="0" shapeId="0">
+    <comment ref="T57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS76" authorId="0" shapeId="0">
+    <comment ref="AS76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2077,14 +2073,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2107,10 +2103,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2148,133 +2144,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Null" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2348,6 +2222,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2367,9 +2262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2407,9 +2302,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2444,7 +2339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2479,7 +2374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2705,7 +2600,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="190" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="189" t="s">
@@ -2728,7 +2623,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="188"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="189"/>
       <c r="C3" t="s">
         <v>7</v>
@@ -2741,7 +2636,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="189"/>
       <c r="C4" t="s">
         <v>115</v>
@@ -2751,35 +2646,35 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="189"/>
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="189"/>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="189"/>
       <c r="C7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="189"/>
       <c r="C8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="189" t="s">
         <v>124</v>
       </c>
@@ -2794,21 +2689,21 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="189"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
+      <c r="A11" s="190"/>
       <c r="B11" s="189"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="190"/>
       <c r="B12" s="189"/>
       <c r="C12" t="s">
         <v>120</v>
@@ -2818,7 +2713,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="189"/>
       <c r="C13" t="s">
         <v>121</v>
@@ -2828,21 +2723,21 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
+      <c r="A14" s="190"/>
       <c r="B14" s="189"/>
       <c r="C14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="189"/>
       <c r="C15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
+      <c r="A16" s="190"/>
       <c r="B16" s="189" t="s">
         <v>125</v>
       </c>
@@ -2860,7 +2755,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="188"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="189"/>
       <c r="C17" t="s">
         <v>4</v>
@@ -2870,7 +2765,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
+      <c r="A18" s="190"/>
       <c r="B18" s="189"/>
       <c r="C18" t="s">
         <v>90</v>
@@ -2880,7 +2775,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="189"/>
       <c r="C19" t="s">
         <v>105</v>
@@ -2893,35 +2788,35 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="189"/>
       <c r="C20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="189"/>
       <c r="C21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="189"/>
       <c r="C22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="189"/>
       <c r="C23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="188"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="189" t="s">
         <v>138</v>
       </c>
@@ -2942,7 +2837,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="188"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="189"/>
       <c r="C25" t="s">
         <v>127</v>
@@ -2958,7 +2853,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="188"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="189"/>
       <c r="C26" t="s">
         <v>128</v>
@@ -2974,7 +2869,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="188"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="189"/>
       <c r="C27" t="s">
         <v>129</v>
@@ -2990,7 +2885,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="190" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="189" t="s">
@@ -3010,7 +2905,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="188"/>
+      <c r="A29" s="190"/>
       <c r="B29" s="189"/>
       <c r="C29" t="s">
         <v>73</v>
@@ -3020,42 +2915,42 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="188"/>
+      <c r="A30" s="190"/>
       <c r="B30" s="189"/>
       <c r="C30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="188"/>
+      <c r="A31" s="190"/>
       <c r="B31" s="189"/>
       <c r="C31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="188"/>
+      <c r="A32" s="190"/>
       <c r="B32" s="189"/>
       <c r="C32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
+      <c r="A33" s="190"/>
       <c r="B33" s="189"/>
       <c r="C33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="188"/>
+      <c r="A34" s="190"/>
       <c r="B34" s="189"/>
       <c r="C34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="188"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="189"/>
       <c r="C35" t="s">
         <v>154</v>
@@ -3063,7 +2958,7 @@
       <c r="F35" s="82"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
+      <c r="A36" s="190"/>
       <c r="B36" s="189" t="s">
         <v>140</v>
       </c>
@@ -3078,7 +2973,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="188"/>
+      <c r="A37" s="190"/>
       <c r="B37" s="189"/>
       <c r="C37" t="s">
         <v>74</v>
@@ -3088,7 +2983,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="188"/>
+      <c r="A38" s="190"/>
       <c r="B38" s="189"/>
       <c r="C38" s="90" t="s">
         <v>15</v>
@@ -3098,7 +2993,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
+      <c r="A39" s="190"/>
       <c r="B39" s="189" t="s">
         <v>141</v>
       </c>
@@ -3113,28 +3008,28 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="188"/>
+      <c r="A40" s="190"/>
       <c r="B40" s="189"/>
       <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="188"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="189"/>
       <c r="C41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="188"/>
+      <c r="A42" s="190"/>
       <c r="B42" s="189"/>
       <c r="C42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="188"/>
+      <c r="A43" s="190"/>
       <c r="B43" s="189"/>
       <c r="C43" t="s">
         <v>134</v>
@@ -3144,7 +3039,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="188"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="189" t="s">
         <v>142</v>
       </c>
@@ -3159,7 +3054,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="188"/>
+      <c r="A45" s="190"/>
       <c r="B45" s="189"/>
       <c r="C45" t="s">
         <v>76</v>
@@ -3169,7 +3064,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
+      <c r="A46" s="190"/>
       <c r="B46" s="189"/>
       <c r="C46" s="90" t="s">
         <v>77</v>
@@ -3179,7 +3074,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="188" t="s">
+      <c r="A47" s="190" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="189" t="s">
@@ -3197,7 +3092,7 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="190" t="s">
+      <c r="G47" s="188" t="s">
         <v>82</v>
       </c>
       <c r="H47" t="s">
@@ -3205,7 +3100,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="188"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="189"/>
       <c r="C48" t="s">
         <v>156</v>
@@ -3213,13 +3108,13 @@
       <c r="F48" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="190"/>
+      <c r="G48" s="188"/>
       <c r="H48" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="188"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="189"/>
       <c r="C49" t="s">
         <v>157</v>
@@ -3227,13 +3122,13 @@
       <c r="F49" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="190"/>
+      <c r="G49" s="188"/>
       <c r="H49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="188"/>
+      <c r="A50" s="190"/>
       <c r="B50" s="189"/>
       <c r="C50" t="s">
         <v>158</v>
@@ -3241,13 +3136,13 @@
       <c r="F50" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="190"/>
+      <c r="G50" s="188"/>
       <c r="H50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="190" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="189" t="s">
@@ -3267,7 +3162,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="188"/>
+      <c r="A52" s="190"/>
       <c r="B52" s="189"/>
       <c r="C52" t="s">
         <v>21</v>
@@ -3277,7 +3172,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="188"/>
+      <c r="A53" s="190"/>
       <c r="B53" s="189"/>
       <c r="C53" t="s">
         <v>22</v>
@@ -3287,7 +3182,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="188"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="189"/>
       <c r="C54" s="90" t="s">
         <v>135</v>
@@ -3300,7 +3195,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="188"/>
+      <c r="A55" s="190"/>
       <c r="B55" s="189" t="s">
         <v>145</v>
       </c>
@@ -3315,7 +3210,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="188"/>
+      <c r="A56" s="190"/>
       <c r="B56" s="189"/>
       <c r="C56" t="s">
         <v>83</v>
@@ -3325,35 +3220,35 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="188"/>
+      <c r="A57" s="190"/>
       <c r="B57" s="189"/>
       <c r="C57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="188"/>
+      <c r="A58" s="190"/>
       <c r="B58" s="189"/>
       <c r="C58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="188"/>
+      <c r="A59" s="190"/>
       <c r="B59" s="189"/>
       <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="188"/>
+      <c r="A60" s="190"/>
       <c r="B60" s="189"/>
       <c r="C60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="188"/>
+      <c r="A61" s="190"/>
       <c r="B61" s="189"/>
       <c r="C61" t="s">
         <v>137</v>
@@ -3363,7 +3258,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="188"/>
+      <c r="A62" s="190"/>
       <c r="B62" s="189" t="s">
         <v>146</v>
       </c>
@@ -3378,7 +3273,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="188"/>
+      <c r="A63" s="190"/>
       <c r="B63" s="189"/>
       <c r="C63" t="s">
         <v>107</v>
@@ -3388,7 +3283,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="188"/>
+      <c r="A64" s="190"/>
       <c r="B64" s="189"/>
       <c r="C64" s="90" t="s">
         <v>26</v>
@@ -3398,7 +3293,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="188"/>
+      <c r="A65" s="190"/>
       <c r="B65" s="189" t="s">
         <v>147</v>
       </c>
@@ -3413,7 +3308,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="188"/>
+      <c r="A66" s="190"/>
       <c r="B66" s="189"/>
       <c r="C66" t="s">
         <v>28</v>
@@ -3425,7 +3320,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="188"/>
+      <c r="A67" s="190"/>
       <c r="B67" s="189"/>
       <c r="C67" t="s">
         <v>29</v>
@@ -3437,7 +3332,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="188"/>
+      <c r="A68" s="190"/>
       <c r="B68" s="189"/>
       <c r="C68" t="s">
         <v>161</v>
@@ -3447,7 +3342,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="188"/>
+      <c r="A69" s="190"/>
       <c r="B69" s="189"/>
       <c r="C69" t="s">
         <v>162</v>
@@ -3457,7 +3352,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="188"/>
+      <c r="A70" s="190"/>
       <c r="B70" s="189"/>
       <c r="C70" t="s">
         <v>164</v>
@@ -3467,7 +3362,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="188"/>
+      <c r="A71" s="190"/>
       <c r="B71" s="189"/>
       <c r="C71" t="s">
         <v>163</v>
@@ -3477,7 +3372,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="188"/>
+      <c r="A72" s="190"/>
       <c r="B72" s="86" t="s">
         <v>148</v>
       </c>
@@ -3492,7 +3387,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="188"/>
+      <c r="A73" s="190"/>
       <c r="B73" s="189" t="s">
         <v>150</v>
       </c>
@@ -3507,14 +3402,14 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="188"/>
+      <c r="A74" s="190"/>
       <c r="B74" s="189"/>
       <c r="C74" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="188"/>
+      <c r="A75" s="190"/>
       <c r="B75" s="189"/>
       <c r="C75" t="s">
         <v>99</v>
@@ -3524,7 +3419,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="188"/>
+      <c r="A76" s="190"/>
       <c r="B76" s="189"/>
       <c r="C76" t="s">
         <v>100</v>
@@ -3534,7 +3429,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="188"/>
+      <c r="A77" s="190"/>
       <c r="B77" s="189"/>
       <c r="C77" s="103" t="s">
         <v>101</v>
@@ -3546,7 +3441,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="188"/>
+      <c r="A78" s="190"/>
       <c r="B78" s="189" t="s">
         <v>149</v>
       </c>
@@ -3567,7 +3462,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="188"/>
+      <c r="A79" s="190"/>
       <c r="B79" s="189"/>
       <c r="C79" t="s">
         <v>169</v>
@@ -3585,13 +3480,6 @@
   </sheetData>
   <autoFilter ref="B1:H79"/>
   <mergeCells count="20">
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="B47:B50"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A46"/>
     <mergeCell ref="A47:A50"/>
@@ -3605,6 +3493,13 @@
     <mergeCell ref="B65:B71"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B78:B79"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B47:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4631,13 +4526,13 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Influencing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Affecting"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Binding"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4653,11 +4548,11 @@
   </sheetPr>
   <dimension ref="A1:BU159"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ33" sqref="BJ33"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4924,13 +4819,13 @@
         <v>Select Application Layer</v>
       </c>
       <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
+      <c r="F2" s="199"/>
       <c r="H2" s="197" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
       <c r="I2" s="197"/>
-      <c r="J2" s="198"/>
+      <c r="J2" s="199"/>
       <c r="K2" s="178"/>
       <c r="L2" s="197" t="str">
         <f>'Knowledge Base'!$B$16</f>
@@ -4938,27 +4833,27 @@
       </c>
       <c r="M2" s="197"/>
       <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
+      <c r="O2" s="199"/>
       <c r="Q2" s="197" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
       <c r="R2" s="197"/>
       <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
+      <c r="T2" s="199"/>
       <c r="V2" s="197" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
       <c r="W2" s="197"/>
       <c r="X2" s="197"/>
-      <c r="Y2" s="198"/>
+      <c r="Y2" s="199"/>
       <c r="AA2" s="197" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
       <c r="AB2" s="197"/>
-      <c r="AC2" s="198"/>
+      <c r="AC2" s="199"/>
       <c r="AE2" s="197" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
@@ -4966,33 +4861,33 @@
       <c r="AF2" s="197"/>
       <c r="AG2" s="197"/>
       <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AK2" s="197" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
       </c>
       <c r="AL2" s="197"/>
-      <c r="AM2" s="198"/>
+      <c r="AM2" s="199"/>
       <c r="AO2" s="197" t="str">
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
       <c r="AP2" s="197"/>
       <c r="AQ2" s="197"/>
-      <c r="AR2" s="198"/>
+      <c r="AR2" s="199"/>
       <c r="AT2" s="197" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
       <c r="AU2" s="197"/>
       <c r="AV2" s="197"/>
-      <c r="AW2" s="198"/>
+      <c r="AW2" s="199"/>
       <c r="AY2" s="197" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
       <c r="AZ2" s="197"/>
-      <c r="BA2" s="198"/>
+      <c r="BA2" s="199"/>
       <c r="BC2" s="197" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
@@ -5003,7 +4898,7 @@
         <v>Define Roles of Responsibility</v>
       </c>
       <c r="BG2" s="197"/>
-      <c r="BH2" s="198"/>
+      <c r="BH2" s="199"/>
       <c r="BJ2" s="101" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
@@ -5015,12 +4910,12 @@
       </c>
       <c r="BM2" s="197"/>
       <c r="BN2" s="197"/>
-      <c r="BO2" s="198"/>
+      <c r="BO2" s="199"/>
       <c r="BQ2" s="197" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
-      <c r="BR2" s="198"/>
+      <c r="BR2" s="199"/>
     </row>
     <row r="3" spans="1:73" s="88" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
@@ -5797,7 +5692,7 @@
       <c r="BU9" s="83"/>
     </row>
     <row r="10" spans="1:73" s="109" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="116" t="str">
         <f>'Knowledge Base'!$C$8</f>
         <v>Presentation + Business + Resource Layer</v>
@@ -6519,7 +6414,7 @@
       <c r="BU17" s="83"/>
     </row>
     <row r="18" spans="1:73" s="109" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="199"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="116" t="str">
         <f>'Knowledge Base'!$C$15</f>
         <v>Client + Application + Data Tier</v>
@@ -7581,7 +7476,7 @@
       <c r="BU26" s="83"/>
     </row>
     <row r="27" spans="1:73" s="110" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="199"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="112" t="str">
         <f>'Knowledge Base'!$C$23</f>
         <v>Application + Middleware Components</v>
@@ -8193,7 +8088,7 @@
       <c r="BU31" s="83"/>
     </row>
     <row r="32" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="199"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="112" t="str">
         <f>'Knowledge Base'!$C$27</f>
         <v>Migration Type IV</v>
@@ -9394,7 +9289,7 @@
       <c r="BU40" s="83"/>
     </row>
     <row r="41" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="199"/>
+      <c r="A41" s="198"/>
       <c r="B41" s="112" t="str">
         <f>'Knowledge Base'!$C$35</f>
         <v>OS/VM + Middleware + Application Level Scaling</v>
@@ -9844,7 +9739,7 @@
       <c r="BU44" s="83"/>
     </row>
     <row r="45" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="199"/>
+      <c r="A45" s="198"/>
       <c r="B45" s="112" t="str">
         <f>'Knowledge Base'!$C$38</f>
         <v>Hybrid Scaling</v>
@@ -10498,7 +10393,7 @@
       <c r="BU50" s="83"/>
     </row>
     <row r="51" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="199"/>
+      <c r="A51" s="198"/>
       <c r="B51" s="112" t="str">
         <f>'Knowledge Base'!$C$43</f>
         <v>Automatic Third-Party Scaling</v>
@@ -10951,7 +10846,7 @@
       <c r="BU54" s="83"/>
     </row>
     <row r="55" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="199"/>
+      <c r="A55" s="198"/>
       <c r="B55" s="112" t="str">
         <f>'Knowledge Base'!$C$46</f>
         <v>Proactive Trigger</v>
@@ -11550,7 +11445,7 @@
       <c r="BU59" s="83"/>
     </row>
     <row r="60" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="199"/>
+      <c r="A60" s="198"/>
       <c r="B60" s="112" t="str">
         <f>'Knowledge Base'!$C$50</f>
         <v>Multi-Tenancy Architecture 3</v>
@@ -12083,7 +11978,7 @@
       <c r="BU64" s="83"/>
     </row>
     <row r="65" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="199"/>
+      <c r="A65" s="198"/>
       <c r="B65" s="112" t="str">
         <f>'Knowledge Base'!$C$54</f>
         <v xml:space="preserve">Hybrid Cloud </v>
@@ -13120,7 +13015,7 @@
       <c r="BU72" s="83"/>
     </row>
     <row r="73" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="199"/>
+      <c r="A73" s="198"/>
       <c r="B73" s="112" t="str">
         <f>'Knowledge Base'!$C$61</f>
         <v>Iaas + PaaS + SaaS</v>
@@ -13575,7 +13470,7 @@
       <c r="BU76" s="83"/>
     </row>
     <row r="77" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="199"/>
+      <c r="A77" s="198"/>
       <c r="B77" s="112" t="str">
         <f>'Knowledge Base'!$C$64</f>
         <v>Hybrid Hosting</v>
@@ -14374,7 +14269,7 @@
       <c r="BU84" s="83"/>
     </row>
     <row r="85" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="199"/>
+      <c r="A85" s="198"/>
       <c r="B85" s="112" t="str">
         <f>'Knowledge Base'!$C$71</f>
         <v>Role Set 1 + 7 + 8</v>
@@ -15140,7 +15035,7 @@
       <c r="BU92" s="83"/>
     </row>
     <row r="93" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="199"/>
+      <c r="A93" s="198"/>
       <c r="B93" s="112" t="str">
         <f>'Knowledge Base'!$C$77</f>
         <v>Combined Pricing Model</v>
@@ -15441,7 +15336,7 @@
       <c r="BU95" s="83"/>
     </row>
     <row r="96" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="199"/>
+      <c r="A96" s="198"/>
       <c r="B96" s="112" t="str">
         <f>'Knowledge Base'!$C$79</f>
         <v>Data Location outside jurisdiction of company</v>
@@ -20128,6 +20023,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A4:A10"/>
@@ -20140,42 +20053,24 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="BL2:BO2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:BR41 C42:Y42 AA42:BR42 C43:BR47 C48:AW48 AY48:BR48 C49:BR93 C94:AT94 AV94:BC94 BE94:BR94 C95:BR96">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"eb"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="12" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" dxfId="7" priority="12" operator="beginsWith" text="!">
       <formula>LEFT(C3,LEN("!"))="!"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="14" operator="beginsWith" text="?">
+    <cfRule type="beginsWith" dxfId="6" priority="14" operator="beginsWith" text="?">
       <formula>LEFT(C3,LEN("?"))="?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"in"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>"a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20192,7 +20087,7 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -20757,10 +20652,10 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22139,7 +22034,7 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:U18">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/Matrix.xlsx
+++ b/resources/Matrix.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Studium\Master\Masterarbeit\Arbeitsdateien\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17085" windowHeight="6945" tabRatio="532" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760" tabRatio="532" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge Base" sheetId="10" r:id="rId1"/>
     <sheet name="Decision Level" sheetId="17" r:id="rId2"/>
     <sheet name="Outcome Level" sheetId="21" r:id="rId3"/>
     <sheet name="Required Level" sheetId="24" r:id="rId4"/>
-    <sheet name="Decision Level PreChange" sheetId="23" state="hidden" r:id="rId5"/>
+    <sheet name="Task Level" sheetId="25" r:id="rId5"/>
+    <sheet name="Decision Level PreChange" sheetId="23" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge Base'!$B$1:$H$73</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <oleSize ref="A1:T15"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>Metz</author>
   </authors>
   <commentList>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN25" authorId="0">
+    <comment ref="AN25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0">
+    <comment ref="K37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P37" authorId="0">
+    <comment ref="P37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ49" authorId="0">
+    <comment ref="AJ49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX49" authorId="0">
+    <comment ref="AX49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ51" authorId="0">
+    <comment ref="AJ51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD54" authorId="0">
+    <comment ref="AD54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX54" authorId="0">
+    <comment ref="AX54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K57" authorId="0">
+    <comment ref="K57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T57" authorId="0">
+    <comment ref="T57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS76" authorId="0">
+    <comment ref="AS76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="200">
   <si>
     <t>Decision Point</t>
   </si>
@@ -908,6 +913,42 @@
   </si>
   <si>
     <t>Affecting</t>
+  </si>
+  <si>
+    <t>Workload Profiling</t>
+  </si>
+  <si>
+    <t>Performance Prediction</t>
+  </si>
+  <si>
+    <t>Effort Estimation</t>
+  </si>
+  <si>
+    <t>Cost Analysis</t>
+  </si>
+  <si>
+    <t>Identification of acceptable QoS Levels</t>
+  </si>
+  <si>
+    <t>Compliance Assurance</t>
+  </si>
+  <si>
+    <t>Identification of Security Concerns</t>
+  </si>
+  <si>
+    <t>Workforce Capabilities Identification</t>
+  </si>
+  <si>
+    <t>Vendor Benchmark</t>
+  </si>
+  <si>
+    <t>Application Analysis</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Affected</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1613,7 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2073,6 +2114,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,13 +2189,53 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Null" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2160,6 +2247,48 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2225,7 +2354,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2239,7 +2368,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2262,9 +2391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2302,9 +2431,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2339,7 +2468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2374,7 +2503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2600,10 +2729,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -2623,8 +2752,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="190"/>
-      <c r="B3" s="189"/>
+      <c r="A3" s="192"/>
+      <c r="B3" s="191"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -2636,8 +2765,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
-      <c r="B4" s="189"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="191"/>
       <c r="C4" t="s">
         <v>115</v>
       </c>
@@ -2646,36 +2775,36 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
-      <c r="B5" s="189"/>
+      <c r="A5" s="192"/>
+      <c r="B5" s="191"/>
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="190"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="192"/>
+      <c r="B6" s="191"/>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="190"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="191"/>
       <c r="C7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
-      <c r="B8" s="189"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="191"/>
       <c r="C8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="190"/>
-      <c r="B9" s="189" t="s">
+      <c r="A9" s="192"/>
+      <c r="B9" s="191" t="s">
         <v>124</v>
       </c>
       <c r="C9" t="s">
@@ -2689,22 +2818,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="190"/>
-      <c r="B10" s="189"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="191"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="191"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="190"/>
-      <c r="B12" s="189"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="191"/>
       <c r="C12" t="s">
         <v>120</v>
       </c>
@@ -2713,8 +2842,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="190"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="191"/>
       <c r="C13" t="s">
         <v>121</v>
       </c>
@@ -2723,22 +2852,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="189"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="191"/>
       <c r="C14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="191"/>
       <c r="C15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="190"/>
-      <c r="B16" s="189" t="s">
+      <c r="A16" s="192"/>
+      <c r="B16" s="191" t="s">
         <v>125</v>
       </c>
       <c r="C16" t="s">
@@ -2755,8 +2884,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="191"/>
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -2765,8 +2894,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
-      <c r="B18" s="189"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="191"/>
       <c r="C18" t="s">
         <v>90</v>
       </c>
@@ -2775,8 +2904,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="190"/>
-      <c r="B19" s="189"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
       <c r="C19" t="s">
         <v>105</v>
       </c>
@@ -2788,36 +2917,36 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="190"/>
-      <c r="B20" s="189"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
       <c r="C20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="190"/>
-      <c r="B21" s="189"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
       <c r="C21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
-      <c r="B22" s="189"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
       <c r="C22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="190"/>
-      <c r="B23" s="189"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
       <c r="C23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="190"/>
-      <c r="B24" s="189" t="s">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191" t="s">
         <v>138</v>
       </c>
       <c r="C24" t="s">
@@ -2837,8 +2966,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="190"/>
-      <c r="B25" s="189"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -2853,8 +2982,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="190"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
       <c r="C26" t="s">
         <v>128</v>
       </c>
@@ -2869,8 +2998,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
-      <c r="B27" s="189"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
       <c r="C27" t="s">
         <v>129</v>
       </c>
@@ -2885,10 +3014,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="191" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -2905,8 +3034,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
       <c r="C29" t="s">
         <v>73</v>
       </c>
@@ -2915,51 +3044,51 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="190"/>
-      <c r="B30" s="189"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="191"/>
       <c r="C30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="190"/>
-      <c r="B31" s="189"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="191"/>
       <c r="C31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="190"/>
-      <c r="B32" s="189"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="191"/>
       <c r="C32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="190"/>
-      <c r="B33" s="189"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="191"/>
       <c r="C33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="190"/>
-      <c r="B34" s="189"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="191"/>
       <c r="C34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="190"/>
-      <c r="B35" s="189"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="191"/>
       <c r="C35" t="s">
         <v>154</v>
       </c>
       <c r="F35" s="82"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="190"/>
-      <c r="B36" s="189" t="s">
+      <c r="A36" s="192"/>
+      <c r="B36" s="191" t="s">
         <v>140</v>
       </c>
       <c r="C36" t="s">
@@ -2973,8 +3102,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="190"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="191"/>
       <c r="C37" t="s">
         <v>74</v>
       </c>
@@ -2983,8 +3112,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="190"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="192"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="90" t="s">
         <v>15</v>
       </c>
@@ -2993,8 +3122,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="190"/>
-      <c r="B39" s="189" t="s">
+      <c r="A39" s="192"/>
+      <c r="B39" s="191" t="s">
         <v>141</v>
       </c>
       <c r="C39" t="s">
@@ -3008,29 +3137,29 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="191"/>
       <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="190"/>
-      <c r="B41" s="189"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="191"/>
       <c r="C41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="190"/>
-      <c r="B42" s="189"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="191"/>
       <c r="C42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="190"/>
-      <c r="B43" s="189"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="191"/>
       <c r="C43" t="s">
         <v>134</v>
       </c>
@@ -3039,8 +3168,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="190"/>
-      <c r="B44" s="189" t="s">
+      <c r="A44" s="192"/>
+      <c r="B44" s="191" t="s">
         <v>142</v>
       </c>
       <c r="C44" t="s">
@@ -3054,8 +3183,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="190"/>
-      <c r="B45" s="189"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="191"/>
       <c r="C45" t="s">
         <v>76</v>
       </c>
@@ -3064,8 +3193,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="190"/>
-      <c r="B46" s="189"/>
+      <c r="A46" s="192"/>
+      <c r="B46" s="191"/>
       <c r="C46" s="90" t="s">
         <v>77</v>
       </c>
@@ -3074,10 +3203,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="190" t="s">
+      <c r="A47" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="191" t="s">
         <v>143</v>
       </c>
       <c r="C47" t="s">
@@ -3092,7 +3221,7 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="188" t="s">
+      <c r="G47" s="190" t="s">
         <v>82</v>
       </c>
       <c r="H47" t="s">
@@ -3100,52 +3229,52 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
-      <c r="B48" s="189"/>
+      <c r="A48" s="192"/>
+      <c r="B48" s="191"/>
       <c r="C48" t="s">
         <v>156</v>
       </c>
       <c r="F48" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="188"/>
+      <c r="G48" s="190"/>
       <c r="H48" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="190"/>
-      <c r="B49" s="189"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="191"/>
       <c r="C49" t="s">
         <v>157</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="188"/>
+      <c r="G49" s="190"/>
       <c r="H49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="190"/>
-      <c r="B50" s="189"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="191"/>
       <c r="C50" t="s">
         <v>158</v>
       </c>
       <c r="F50" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="188"/>
+      <c r="G50" s="190"/>
       <c r="H50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="190" t="s">
+      <c r="A51" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="189" t="s">
+      <c r="B51" s="191" t="s">
         <v>144</v>
       </c>
       <c r="C51" t="s">
@@ -3162,8 +3291,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="190"/>
-      <c r="B52" s="189"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="191"/>
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -3172,8 +3301,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="190"/>
-      <c r="B53" s="189"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="191"/>
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -3182,8 +3311,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="190"/>
-      <c r="B54" s="189"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="191"/>
       <c r="C54" s="90" t="s">
         <v>135</v>
       </c>
@@ -3195,8 +3324,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="190"/>
-      <c r="B55" s="189" t="s">
+      <c r="A55" s="192"/>
+      <c r="B55" s="191" t="s">
         <v>145</v>
       </c>
       <c r="C55" t="s">
@@ -3210,8 +3339,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="190"/>
-      <c r="B56" s="189"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="191"/>
       <c r="C56" t="s">
         <v>83</v>
       </c>
@@ -3220,36 +3349,36 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="190"/>
-      <c r="B57" s="189"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="191"/>
       <c r="C57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="190"/>
-      <c r="B58" s="189"/>
+      <c r="A58" s="192"/>
+      <c r="B58" s="191"/>
       <c r="C58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="190"/>
-      <c r="B59" s="189"/>
+      <c r="A59" s="192"/>
+      <c r="B59" s="191"/>
       <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="190"/>
-      <c r="B60" s="189"/>
+      <c r="A60" s="192"/>
+      <c r="B60" s="191"/>
       <c r="C60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="190"/>
-      <c r="B61" s="189"/>
+      <c r="A61" s="192"/>
+      <c r="B61" s="191"/>
       <c r="C61" t="s">
         <v>137</v>
       </c>
@@ -3258,8 +3387,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="190"/>
-      <c r="B62" s="189" t="s">
+      <c r="A62" s="192"/>
+      <c r="B62" s="191" t="s">
         <v>146</v>
       </c>
       <c r="C62" t="s">
@@ -3273,8 +3402,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="190"/>
-      <c r="B63" s="189"/>
+      <c r="A63" s="192"/>
+      <c r="B63" s="191"/>
       <c r="C63" t="s">
         <v>107</v>
       </c>
@@ -3283,8 +3412,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="190"/>
-      <c r="B64" s="189"/>
+      <c r="A64" s="192"/>
+      <c r="B64" s="191"/>
       <c r="C64" s="90" t="s">
         <v>26</v>
       </c>
@@ -3293,8 +3422,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="190"/>
-      <c r="B65" s="189" t="s">
+      <c r="A65" s="192"/>
+      <c r="B65" s="191" t="s">
         <v>147</v>
       </c>
       <c r="C65" t="s">
@@ -3308,8 +3437,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="190"/>
-      <c r="B66" s="189"/>
+      <c r="A66" s="192"/>
+      <c r="B66" s="191"/>
       <c r="C66" t="s">
         <v>28</v>
       </c>
@@ -3320,8 +3449,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="190"/>
-      <c r="B67" s="189"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="191"/>
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -3332,8 +3461,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="190"/>
-      <c r="B68" s="189"/>
+      <c r="A68" s="192"/>
+      <c r="B68" s="191"/>
       <c r="C68" t="s">
         <v>161</v>
       </c>
@@ -3342,8 +3471,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="190"/>
-      <c r="B69" s="189"/>
+      <c r="A69" s="192"/>
+      <c r="B69" s="191"/>
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -3352,8 +3481,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="190"/>
-      <c r="B70" s="189"/>
+      <c r="A70" s="192"/>
+      <c r="B70" s="191"/>
       <c r="C70" t="s">
         <v>164</v>
       </c>
@@ -3362,8 +3491,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="190"/>
-      <c r="B71" s="189"/>
+      <c r="A71" s="192"/>
+      <c r="B71" s="191"/>
       <c r="C71" t="s">
         <v>163</v>
       </c>
@@ -3372,7 +3501,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="190"/>
+      <c r="A72" s="192"/>
       <c r="B72" s="86" t="s">
         <v>148</v>
       </c>
@@ -3387,8 +3516,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="190"/>
-      <c r="B73" s="189" t="s">
+      <c r="A73" s="192"/>
+      <c r="B73" s="191" t="s">
         <v>150</v>
       </c>
       <c r="C73" t="s">
@@ -3402,15 +3531,15 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="190"/>
-      <c r="B74" s="189"/>
+      <c r="A74" s="192"/>
+      <c r="B74" s="191"/>
       <c r="C74" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="190"/>
-      <c r="B75" s="189"/>
+      <c r="A75" s="192"/>
+      <c r="B75" s="191"/>
       <c r="C75" t="s">
         <v>99</v>
       </c>
@@ -3419,8 +3548,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="190"/>
-      <c r="B76" s="189"/>
+      <c r="A76" s="192"/>
+      <c r="B76" s="191"/>
       <c r="C76" t="s">
         <v>100</v>
       </c>
@@ -3429,8 +3558,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="190"/>
-      <c r="B77" s="189"/>
+      <c r="A77" s="192"/>
+      <c r="B77" s="191"/>
       <c r="C77" s="103" t="s">
         <v>101</v>
       </c>
@@ -3441,8 +3570,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="190"/>
-      <c r="B78" s="189" t="s">
+      <c r="A78" s="192"/>
+      <c r="B78" s="191" t="s">
         <v>149</v>
       </c>
       <c r="C78" t="s">
@@ -3462,8 +3591,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="190"/>
-      <c r="B79" s="189"/>
+      <c r="A79" s="192"/>
+      <c r="B79" s="191"/>
       <c r="C79" t="s">
         <v>169</v>
       </c>
@@ -3533,34 +3662,34 @@
     <row r="1" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127"/>
       <c r="B1" s="128"/>
-      <c r="C1" s="193" t="str">
+      <c r="C1" s="195" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195" t="str">
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="194"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="196"/>
       <c r="K1" s="123" t="str">
         <f>'Knowledge Base'!$A$47</f>
         <v>Define Multi-Tenancy Requirements</v>
       </c>
-      <c r="L1" s="193" t="str">
+      <c r="L1" s="195" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="194"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="196"/>
     </row>
     <row r="2" spans="1:18" s="184" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127"/>
@@ -3633,7 +3762,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="str">
+      <c r="A3" s="193" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
@@ -3689,7 +3818,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="130" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
@@ -3742,7 +3871,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="130" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
@@ -3795,7 +3924,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="131" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
@@ -3848,7 +3977,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="str">
+      <c r="A7" s="198" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
@@ -3904,7 +4033,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="95" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
@@ -3957,7 +4086,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="95" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
@@ -4010,7 +4139,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="96" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
@@ -4119,7 +4248,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="191" t="str">
+      <c r="A12" s="193" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
@@ -4175,7 +4304,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="95" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
@@ -4228,7 +4357,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="95" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
@@ -4281,7 +4410,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="95" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
@@ -4334,7 +4463,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="95" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
@@ -4387,7 +4516,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="95" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
@@ -4440,7 +4569,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="174" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
@@ -4526,14 +4655,14 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Influencing"</formula>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"Binding"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Affecting"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Binding"</formula>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Influencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4548,11 +4677,11 @@
   </sheetPr>
   <dimension ref="A1:BU159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4814,108 +4943,108 @@
         <v>1</v>
       </c>
       <c r="B2" s="114"/>
-      <c r="D2" s="197" t="str">
+      <c r="D2" s="199" t="str">
         <f>'Knowledge Base'!$B$2</f>
         <v>Select Application Layer</v>
       </c>
-      <c r="E2" s="197"/>
-      <c r="F2" s="199"/>
-      <c r="H2" s="197" t="str">
+      <c r="E2" s="199"/>
+      <c r="F2" s="201"/>
+      <c r="H2" s="199" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="201"/>
       <c r="K2" s="178"/>
-      <c r="L2" s="197" t="str">
+      <c r="L2" s="199" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
       </c>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="199"/>
-      <c r="Q2" s="197" t="str">
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="201"/>
+      <c r="Q2" s="199" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="199"/>
-      <c r="V2" s="197" t="str">
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="201"/>
+      <c r="V2" s="199" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="199"/>
-      <c r="AA2" s="197" t="str">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="201"/>
+      <c r="AA2" s="199" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="199"/>
-      <c r="AE2" s="197" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="201"/>
+      <c r="AE2" s="199" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
       </c>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="199"/>
-      <c r="AK2" s="197" t="str">
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="201"/>
+      <c r="AK2" s="199" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
       </c>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="199"/>
-      <c r="AO2" s="197" t="str">
+      <c r="AL2" s="199"/>
+      <c r="AM2" s="201"/>
+      <c r="AO2" s="199" t="str">
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="199"/>
-      <c r="AT2" s="197" t="str">
+      <c r="AP2" s="199"/>
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="201"/>
+      <c r="AT2" s="199" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="199"/>
-      <c r="AY2" s="197" t="str">
+      <c r="AU2" s="199"/>
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="201"/>
+      <c r="AY2" s="199" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="199"/>
-      <c r="BC2" s="197" t="str">
+      <c r="AZ2" s="199"/>
+      <c r="BA2" s="201"/>
+      <c r="BC2" s="199" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
       </c>
-      <c r="BD2" s="197"/>
-      <c r="BF2" s="197" t="str">
+      <c r="BD2" s="199"/>
+      <c r="BF2" s="199" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
       </c>
-      <c r="BG2" s="197"/>
-      <c r="BH2" s="199"/>
+      <c r="BG2" s="199"/>
+      <c r="BH2" s="201"/>
       <c r="BJ2" s="101" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
       </c>
       <c r="BK2" s="134"/>
-      <c r="BL2" s="197" t="str">
+      <c r="BL2" s="199" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
       </c>
-      <c r="BM2" s="197"/>
-      <c r="BN2" s="197"/>
-      <c r="BO2" s="199"/>
-      <c r="BQ2" s="197" t="str">
+      <c r="BM2" s="199"/>
+      <c r="BN2" s="199"/>
+      <c r="BO2" s="201"/>
+      <c r="BQ2" s="199" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
-      <c r="BR2" s="199"/>
+      <c r="BR2" s="201"/>
     </row>
     <row r="3" spans="1:73" s="88" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
@@ -5037,7 +5166,7 @@
       <c r="BR3" s="98"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="197" t="str">
+      <c r="A4" s="199" t="str">
         <f>'Knowledge Base'!$B$2</f>
         <v>Select Application Layer</v>
       </c>
@@ -5148,7 +5277,7 @@
       <c r="BU4" s="83"/>
     </row>
     <row r="5" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="113" t="str">
         <f>'Knowledge Base'!$C$3</f>
         <v>Business Layer</v>
@@ -5258,7 +5387,7 @@
       <c r="BU5" s="83"/>
     </row>
     <row r="6" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="113" t="str">
         <f>'Knowledge Base'!$C$4</f>
         <v>Resource Layer</v>
@@ -5368,7 +5497,7 @@
       <c r="BU6" s="83"/>
     </row>
     <row r="7" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="113" t="str">
         <f>'Knowledge Base'!$C$5</f>
         <v>Presentation + Business Layer</v>
@@ -5476,7 +5605,7 @@
       <c r="BU7" s="83"/>
     </row>
     <row r="8" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="113" t="str">
         <f>'Knowledge Base'!$C$6</f>
         <v>Presentation + Resource Layer</v>
@@ -5584,7 +5713,7 @@
       <c r="BU8" s="83"/>
     </row>
     <row r="9" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="197"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="113" t="str">
         <f>'Knowledge Base'!$C$7</f>
         <v>Business + Resource Layer</v>
@@ -5692,7 +5821,7 @@
       <c r="BU9" s="83"/>
     </row>
     <row r="10" spans="1:73" s="109" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="116" t="str">
         <f>'Knowledge Base'!$C$8</f>
         <v>Presentation + Business + Resource Layer</v>
@@ -5919,7 +6048,7 @@
       <c r="BR11" s="98"/>
     </row>
     <row r="12" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="str">
+      <c r="A12" s="199" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
@@ -6003,7 +6132,7 @@
       <c r="BR12" s="98"/>
     </row>
     <row r="13" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="115" t="str">
         <f>'Knowledge Base'!$C$10</f>
         <v>Application Tier</v>
@@ -6084,7 +6213,7 @@
       <c r="BR13" s="98"/>
     </row>
     <row r="14" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="197"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="115" t="str">
         <f>'Knowledge Base'!$C$11</f>
         <v>Data Tier</v>
@@ -6165,7 +6294,7 @@
       <c r="BR14" s="98"/>
     </row>
     <row r="15" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="197"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="115" t="str">
         <f>'Knowledge Base'!$C$12</f>
         <v>Client + Application Tier</v>
@@ -6246,7 +6375,7 @@
       <c r="BR15" s="98"/>
     </row>
     <row r="16" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="197"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="113" t="str">
         <f>'Knowledge Base'!$C$13</f>
         <v>Client + Data Tier</v>
@@ -6330,7 +6459,7 @@
       <c r="BU16" s="83"/>
     </row>
     <row r="17" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="113" t="str">
         <f>'Knowledge Base'!$C$14</f>
         <v>Application + Data Tier</v>
@@ -6414,7 +6543,7 @@
       <c r="BU17" s="83"/>
     </row>
     <row r="18" spans="1:73" s="109" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="198"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="116" t="str">
         <f>'Knowledge Base'!$C$15</f>
         <v>Client + Application + Data Tier</v>
@@ -6617,7 +6746,7 @@
       <c r="BR19" s="98"/>
     </row>
     <row r="20" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="197" t="str">
+      <c r="A20" s="199" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
       </c>
@@ -6742,7 +6871,7 @@
       <c r="BU20" s="83"/>
     </row>
     <row r="21" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="197"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="113" t="str">
         <f>'Knowledge Base'!$C$17</f>
         <v>Application Components</v>
@@ -6864,7 +6993,7 @@
       <c r="BU21" s="83"/>
     </row>
     <row r="22" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="197"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="113" t="str">
         <f>'Knowledge Base'!$C$18</f>
         <v>Middleware Component</v>
@@ -6986,7 +7115,7 @@
       <c r="BU22" s="83"/>
     </row>
     <row r="23" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="197"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="113" t="str">
         <f>'Knowledge Base'!$C$19</f>
         <v>Middleware Components</v>
@@ -7108,7 +7237,7 @@
       <c r="BU23" s="83"/>
     </row>
     <row r="24" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="197"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="113" t="str">
         <f>'Knowledge Base'!$C$20</f>
         <v>Application + Middleware Component</v>
@@ -7230,7 +7359,7 @@
       <c r="BU24" s="83"/>
     </row>
     <row r="25" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="197"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="113" t="str">
         <f>'Knowledge Base'!$C$21</f>
         <v>Application Component + Middleware Components</v>
@@ -7354,7 +7483,7 @@
       <c r="BU25" s="83"/>
     </row>
     <row r="26" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="197"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="113" t="str">
         <f>'Knowledge Base'!$C$22</f>
         <v>Middleware Component + Application Components</v>
@@ -7476,7 +7605,7 @@
       <c r="BU26" s="83"/>
     </row>
     <row r="27" spans="1:73" s="110" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="112" t="str">
         <f>'Knowledge Base'!$C$23</f>
         <v>Application + Middleware Components</v>
@@ -7717,7 +7846,7 @@
       <c r="BR28" s="98"/>
     </row>
     <row r="29" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="197" t="str">
+      <c r="A29" s="199" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
@@ -7842,7 +7971,7 @@
       <c r="BU29" s="83"/>
     </row>
     <row r="30" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="197"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="113" t="str">
         <f>'Knowledge Base'!$C$25</f>
         <v>Migration Type II</v>
@@ -7964,7 +8093,7 @@
       <c r="BU30" s="83"/>
     </row>
     <row r="31" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="197"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="113" t="str">
         <f>'Knowledge Base'!$C$26</f>
         <v>Migration Type III</v>
@@ -8088,7 +8217,7 @@
       <c r="BU31" s="83"/>
     </row>
     <row r="32" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="198"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="112" t="str">
         <f>'Knowledge Base'!$C$27</f>
         <v>Migration Type IV</v>
@@ -8330,7 +8459,7 @@
       <c r="BU33" s="83"/>
     </row>
     <row r="34" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="197" t="str">
+      <c r="A34" s="199" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
@@ -8469,7 +8598,7 @@
       <c r="BU34" s="83"/>
     </row>
     <row r="35" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="197"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="113" t="str">
         <f>'Knowledge Base'!$C$29</f>
         <v>OS/VM Level Scaling</v>
@@ -8605,7 +8734,7 @@
       <c r="BU35" s="83"/>
     </row>
     <row r="36" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="197"/>
+      <c r="A36" s="199"/>
       <c r="B36" s="113" t="str">
         <f>'Knowledge Base'!$C$30</f>
         <v>Middleware Level Scaling</v>
@@ -8741,7 +8870,7 @@
       <c r="BU36" s="83"/>
     </row>
     <row r="37" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="197"/>
+      <c r="A37" s="199"/>
       <c r="B37" s="113" t="str">
         <f>'Knowledge Base'!$C$31</f>
         <v>Application Level Scaling</v>
@@ -8881,7 +9010,7 @@
       <c r="BU37" s="83"/>
     </row>
     <row r="38" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="197"/>
+      <c r="A38" s="199"/>
       <c r="B38" s="113" t="str">
         <f>'Knowledge Base'!$C$32</f>
         <v>OS/VM + Middleware Level Scaling</v>
@@ -9017,7 +9146,7 @@
       <c r="BU38" s="83"/>
     </row>
     <row r="39" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="197"/>
+      <c r="A39" s="199"/>
       <c r="B39" s="113" t="str">
         <f>'Knowledge Base'!$C$33</f>
         <v>OS/VM + Application Level Scaling</v>
@@ -9153,7 +9282,7 @@
       <c r="BU39" s="83"/>
     </row>
     <row r="40" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="197"/>
+      <c r="A40" s="199"/>
       <c r="B40" s="113" t="str">
         <f>'Knowledge Base'!$C$34</f>
         <v>Middleware + Application Level Scaling</v>
@@ -9289,7 +9418,7 @@
       <c r="BU40" s="83"/>
     </row>
     <row r="41" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="198"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="112" t="str">
         <f>'Knowledge Base'!$C$35</f>
         <v>OS/VM + Middleware + Application Level Scaling</v>
@@ -9544,7 +9673,7 @@
       <c r="BU42" s="83"/>
     </row>
     <row r="43" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="197" t="str">
+      <c r="A43" s="199" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
@@ -9643,7 +9772,7 @@
       <c r="BU43" s="83"/>
     </row>
     <row r="44" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="197"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="113" t="str">
         <f>'Knowledge Base'!$C$37</f>
         <v>Horizontal Scaling</v>
@@ -9739,7 +9868,7 @@
       <c r="BU44" s="83"/>
     </row>
     <row r="45" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="198"/>
+      <c r="A45" s="200"/>
       <c r="B45" s="112" t="str">
         <f>'Knowledge Base'!$C$38</f>
         <v>Hybrid Scaling</v>
@@ -9955,7 +10084,7 @@
       <c r="BU46" s="83"/>
     </row>
     <row r="47" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="197" t="str">
+      <c r="A47" s="199" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
       </c>
@@ -10066,7 +10195,7 @@
       <c r="BU47" s="83"/>
     </row>
     <row r="48" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="197"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="113" t="str">
         <f>'Knowledge Base'!$C$40</f>
         <v>Semi-Automatic Scaling</v>
@@ -10173,7 +10302,7 @@
       <c r="BU48" s="83"/>
     </row>
     <row r="49" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="197"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="113" t="str">
         <f>'Knowledge Base'!$C$41</f>
         <v>Semi-Automatic Third-Party Scaling</v>
@@ -10285,7 +10414,7 @@
       <c r="BU49" s="83"/>
     </row>
     <row r="50" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="197"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="113" t="str">
         <f>'Knowledge Base'!$C$42</f>
         <v>Automatic Scaling</v>
@@ -10393,7 +10522,7 @@
       <c r="BU50" s="83"/>
     </row>
     <row r="51" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="198"/>
+      <c r="A51" s="200"/>
       <c r="B51" s="112" t="str">
         <f>'Knowledge Base'!$C$43</f>
         <v>Automatic Third-Party Scaling</v>
@@ -10623,7 +10752,7 @@
       <c r="BU52" s="83"/>
     </row>
     <row r="53" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="197" t="str">
+      <c r="A53" s="199" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
       </c>
@@ -10734,7 +10863,7 @@
       <c r="BU53" s="83"/>
     </row>
     <row r="54" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="197"/>
+      <c r="A54" s="199"/>
       <c r="B54" s="113" t="str">
         <f>'Knowledge Base'!$C$45</f>
         <v>Event-Driven Trigger</v>
@@ -10846,7 +10975,7 @@
       <c r="BU54" s="83"/>
     </row>
     <row r="55" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="198"/>
+      <c r="A55" s="200"/>
       <c r="B55" s="112" t="str">
         <f>'Knowledge Base'!$C$46</f>
         <v>Proactive Trigger</v>
@@ -11074,7 +11203,7 @@
       <c r="BU56" s="83"/>
     </row>
     <row r="57" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="197" t="str">
+      <c r="A57" s="199" t="str">
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
@@ -11201,7 +11330,7 @@
       <c r="BU57" s="83"/>
     </row>
     <row r="58" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="197"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="113" t="str">
         <f>'Knowledge Base'!$C$48</f>
         <v>Multi-Tenancy Architecture 1</v>
@@ -11323,7 +11452,7 @@
       <c r="BU58" s="83"/>
     </row>
     <row r="59" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="197"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="113" t="str">
         <f>'Knowledge Base'!$C$49</f>
         <v>Multi-Tenancy Architecture 2</v>
@@ -11445,7 +11574,7 @@
       <c r="BU59" s="83"/>
     </row>
     <row r="60" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="198"/>
+      <c r="A60" s="200"/>
       <c r="B60" s="112" t="str">
         <f>'Knowledge Base'!$C$50</f>
         <v>Multi-Tenancy Architecture 3</v>
@@ -11687,7 +11816,7 @@
       <c r="BU61" s="83"/>
     </row>
     <row r="62" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="197" t="str">
+      <c r="A62" s="199" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
@@ -11786,7 +11915,7 @@
       <c r="BU62" s="83"/>
     </row>
     <row r="63" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="197"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="113" t="str">
         <f>'Knowledge Base'!$C$52</f>
         <v>Private Cloud</v>
@@ -11882,7 +12011,7 @@
       <c r="BU63" s="83"/>
     </row>
     <row r="64" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="197"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="113" t="str">
         <f>'Knowledge Base'!$C$53</f>
         <v>Community Cloud</v>
@@ -11978,7 +12107,7 @@
       <c r="BU64" s="83"/>
     </row>
     <row r="65" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="198"/>
+      <c r="A65" s="200"/>
       <c r="B65" s="112" t="str">
         <f>'Knowledge Base'!$C$54</f>
         <v xml:space="preserve">Hybrid Cloud </v>
@@ -12196,7 +12325,7 @@
       <c r="BU66" s="83"/>
     </row>
     <row r="67" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="197" t="str">
+      <c r="A67" s="199" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
@@ -12335,7 +12464,7 @@
       <c r="BU67" s="83"/>
     </row>
     <row r="68" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="197"/>
+      <c r="A68" s="199"/>
       <c r="B68" s="113" t="str">
         <f>'Knowledge Base'!$C$56</f>
         <v xml:space="preserve">PaaS </v>
@@ -12471,7 +12600,7 @@
       <c r="BU68" s="83"/>
     </row>
     <row r="69" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="197"/>
+      <c r="A69" s="199"/>
       <c r="B69" s="113" t="str">
         <f>'Knowledge Base'!$C$57</f>
         <v>SaaS</v>
@@ -12607,7 +12736,7 @@
       <c r="BU69" s="83"/>
     </row>
     <row r="70" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="197"/>
+      <c r="A70" s="199"/>
       <c r="B70" s="113" t="str">
         <f>'Knowledge Base'!$C$58</f>
         <v>IaaS + PaaS</v>
@@ -12743,7 +12872,7 @@
       <c r="BU70" s="83"/>
     </row>
     <row r="71" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="197"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="113" t="str">
         <f>'Knowledge Base'!$C$59</f>
         <v>IaaS + SaaS</v>
@@ -12879,7 +13008,7 @@
       <c r="BU71" s="83"/>
     </row>
     <row r="72" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="197"/>
+      <c r="A72" s="199"/>
       <c r="B72" s="113" t="str">
         <f>'Knowledge Base'!$C$60</f>
         <v>PaaS + SaaS</v>
@@ -13015,7 +13144,7 @@
       <c r="BU72" s="83"/>
     </row>
     <row r="73" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="198"/>
+      <c r="A73" s="200"/>
       <c r="B73" s="112" t="str">
         <f>'Knowledge Base'!$C$61</f>
         <v>Iaas + PaaS + SaaS</v>
@@ -13271,7 +13400,7 @@
       <c r="BU74" s="83"/>
     </row>
     <row r="75" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="197" t="str">
+      <c r="A75" s="199" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
       </c>
@@ -13372,7 +13501,7 @@
       <c r="BU75" s="83"/>
     </row>
     <row r="76" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="197"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="113" t="str">
         <f>'Knowledge Base'!$C$63</f>
         <v>Off-Premise Hosting</v>
@@ -13470,7 +13599,7 @@
       <c r="BU76" s="83"/>
     </row>
     <row r="77" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="198"/>
+      <c r="A77" s="200"/>
       <c r="B77" s="112" t="str">
         <f>'Knowledge Base'!$C$64</f>
         <v>Hybrid Hosting</v>
@@ -13688,7 +13817,7 @@
       <c r="BU78" s="83"/>
     </row>
     <row r="79" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="197" t="str">
+      <c r="A79" s="199" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
       </c>
@@ -13787,7 +13916,7 @@
       <c r="BU79" s="83"/>
     </row>
     <row r="80" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="197"/>
+      <c r="A80" s="199"/>
       <c r="B80" s="113" t="str">
         <f>'Knowledge Base'!$C$66</f>
         <v>Role Set 7</v>
@@ -13883,7 +14012,7 @@
       <c r="BU80" s="83"/>
     </row>
     <row r="81" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="197"/>
+      <c r="A81" s="199"/>
       <c r="B81" s="113" t="str">
         <f>'Knowledge Base'!$C$67</f>
         <v>Role Set 8</v>
@@ -13979,7 +14108,7 @@
       <c r="BU81" s="83"/>
     </row>
     <row r="82" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="197"/>
+      <c r="A82" s="199"/>
       <c r="B82" s="113" t="str">
         <f>'Knowledge Base'!$C$68</f>
         <v>Role Set 1 + 7</v>
@@ -14077,7 +14206,7 @@
       <c r="BU82" s="83"/>
     </row>
     <row r="83" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="197"/>
+      <c r="A83" s="199"/>
       <c r="B83" s="113" t="str">
         <f>'Knowledge Base'!$C$69</f>
         <v>Role Set 1 + 8</v>
@@ -14173,7 +14302,7 @@
       <c r="BU83" s="83"/>
     </row>
     <row r="84" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="197"/>
+      <c r="A84" s="199"/>
       <c r="B84" s="113" t="str">
         <f>'Knowledge Base'!$C$70</f>
         <v>Role Set 7 + 8</v>
@@ -14269,7 +14398,7 @@
       <c r="BU84" s="83"/>
     </row>
     <row r="85" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="198"/>
+      <c r="A85" s="200"/>
       <c r="B85" s="112" t="str">
         <f>'Knowledge Base'!$C$71</f>
         <v>Role Set 1 + 7 + 8</v>
@@ -14688,7 +14817,7 @@
       <c r="BU88" s="83"/>
     </row>
     <row r="89" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="197" t="str">
+      <c r="A89" s="199" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
       </c>
@@ -14777,7 +14906,7 @@
       <c r="BU89" s="83"/>
     </row>
     <row r="90" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="197"/>
+      <c r="A90" s="199"/>
       <c r="B90" s="113" t="str">
         <f>'Knowledge Base'!$C$74</f>
         <v>Pay-Per-Use</v>
@@ -14863,7 +14992,7 @@
       <c r="BU90" s="83"/>
     </row>
     <row r="91" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="197"/>
+      <c r="A91" s="199"/>
       <c r="B91" s="113" t="str">
         <f>'Knowledge Base'!$C$75</f>
         <v>Pay-Per-Unit</v>
@@ -14949,7 +15078,7 @@
       <c r="BU91" s="83"/>
     </row>
     <row r="92" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="197"/>
+      <c r="A92" s="199"/>
       <c r="B92" s="113" t="str">
         <f>'Knowledge Base'!$C$76</f>
         <v>Charge-Per-Use (Subscription)</v>
@@ -15035,7 +15164,7 @@
       <c r="BU92" s="83"/>
     </row>
     <row r="93" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="198"/>
+      <c r="A93" s="200"/>
       <c r="B93" s="112" t="str">
         <f>'Knowledge Base'!$C$77</f>
         <v>Combined Pricing Model</v>
@@ -15241,7 +15370,7 @@
       <c r="BU94" s="83"/>
     </row>
     <row r="95" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="197" t="str">
+      <c r="A95" s="199" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
@@ -15336,7 +15465,7 @@
       <c r="BU95" s="83"/>
     </row>
     <row r="96" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
+      <c r="A96" s="200"/>
       <c r="B96" s="112" t="str">
         <f>'Knowledge Base'!$C$79</f>
         <v>Data Location outside jurisdiction of company</v>
@@ -20055,22 +20184,22 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:BR41 C42:Y42 AA42:BR42 C43:BR47 C48:AW48 AY48:BR48 C49:BR93 C94:AT94 AV94:BC94 BE94:BR94 C95:BR96">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"eb"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="12" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" dxfId="13" priority="12" operator="beginsWith" text="!">
       <formula>LEFT(C3,LEN("!"))="!"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="14" operator="beginsWith" text="?">
+    <cfRule type="beginsWith" dxfId="12" priority="14" operator="beginsWith" text="?">
       <formula>LEFT(C3,LEN("?"))="?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"in"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20107,34 +20236,34 @@
     <row r="1" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127"/>
       <c r="B1" s="128"/>
-      <c r="C1" s="193" t="str">
+      <c r="C1" s="195" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195" t="str">
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="194"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="196"/>
       <c r="K1" s="123" t="str">
         <f>'Knowledge Base'!$A$47</f>
         <v>Define Multi-Tenancy Requirements</v>
       </c>
-      <c r="L1" s="193" t="str">
+      <c r="L1" s="195" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="194"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="196"/>
     </row>
     <row r="2" spans="1:18" s="184" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127"/>
@@ -20207,7 +20336,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="str">
+      <c r="A3" s="193" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
@@ -20235,7 +20364,7 @@
       <c r="R3" s="147"/>
     </row>
     <row r="4" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="130" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
@@ -20260,7 +20389,7 @@
       <c r="R4" s="152"/>
     </row>
     <row r="5" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="130" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
@@ -20287,7 +20416,7 @@
       <c r="R5" s="152"/>
     </row>
     <row r="6" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="131" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
@@ -20312,7 +20441,7 @@
       <c r="R6" s="157"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="str">
+      <c r="A7" s="198" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
@@ -20340,7 +20469,7 @@
       <c r="R7" s="147"/>
     </row>
     <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="175" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
@@ -20365,7 +20494,7 @@
       <c r="R8" s="152"/>
     </row>
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="175" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
@@ -20392,7 +20521,7 @@
       <c r="R9" s="152"/>
     </row>
     <row r="10" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="176" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
@@ -20445,7 +20574,7 @@
       <c r="R11" s="157"/>
     </row>
     <row r="12" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="191" t="str">
+      <c r="A12" s="193" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
@@ -20475,7 +20604,7 @@
       <c r="R12" s="147"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="175" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
@@ -20498,7 +20627,7 @@
       <c r="R13" s="152"/>
     </row>
     <row r="14" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="175" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
@@ -20523,7 +20652,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="175" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
@@ -20550,7 +20679,7 @@
       <c r="R15" s="152"/>
     </row>
     <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="175" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
@@ -20573,7 +20702,7 @@
       <c r="R16" s="152"/>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="175" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
@@ -20596,7 +20725,7 @@
       <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
+      <c r="A18" s="194"/>
       <c r="B18" s="176" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
@@ -20652,10 +20781,10 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20665,6 +20794,698 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="219" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" style="213" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="223" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="219" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="213" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="223" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="219" customWidth="1"/>
+    <col min="12" max="16" width="12.7109375" style="213" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="223" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="219"/>
+    <col min="19" max="16384" width="11.42578125" style="213"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="217" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="128"/>
+      <c r="B1" s="195" t="str">
+        <f>'Knowledge Base'!$A$2</f>
+        <v>Distribute Application</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="197" t="str">
+        <f>'Knowledge Base'!$A$28</f>
+        <v>Define Elasticity Strategy</v>
+      </c>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="123" t="str">
+        <f>'Knowledge Base'!$A$47</f>
+        <v>Define Multi-Tenancy Requirements</v>
+      </c>
+      <c r="K1" s="195" t="str">
+        <f>'Knowledge Base'!$A$51</f>
+        <v>Select Service Provider / Offering</v>
+      </c>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="220"/>
+    </row>
+    <row r="2" spans="1:18" s="232" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="226" t="str">
+        <f>'Knowledge Base'!$B$2</f>
+        <v>Select Application Layer</v>
+      </c>
+      <c r="C2" s="227" t="str">
+        <f>'Knowledge Base'!$B$9</f>
+        <v>Select Application Tier</v>
+      </c>
+      <c r="D2" s="227" t="str">
+        <f>'Knowledge Base'!$B$16</f>
+        <v>Select Application Components</v>
+      </c>
+      <c r="E2" s="228" t="str">
+        <f>'Knowledge Base'!$B$24</f>
+        <v>Select Migration Type</v>
+      </c>
+      <c r="F2" s="229" t="str">
+        <f>'Knowledge Base'!$B$28</f>
+        <v>Define Scalability Level</v>
+      </c>
+      <c r="G2" s="230" t="str">
+        <f>'Knowledge Base'!$B$36</f>
+        <v>Select Scaling Type</v>
+      </c>
+      <c r="H2" s="230" t="str">
+        <f>'Knowledge Base'!$B$39</f>
+        <v>Select Elasticity Automation Degree</v>
+      </c>
+      <c r="I2" s="186" t="str">
+        <f>'Knowledge Base'!$B$44</f>
+        <v>Select Scaling Trigger</v>
+      </c>
+      <c r="J2" s="186" t="str">
+        <f>'Knowledge Base'!$B$47</f>
+        <v>Select Multi-Tenancy Architecture</v>
+      </c>
+      <c r="K2" s="229" t="str">
+        <f>'Knowledge Base'!$B$51</f>
+        <v>Select Cloud Deployment Model</v>
+      </c>
+      <c r="L2" s="230" t="str">
+        <f>'Knowledge Base'!$B$55</f>
+        <v>Select Cloud Service Model</v>
+      </c>
+      <c r="M2" s="230" t="str">
+        <f>'Knowledge Base'!$B$62</f>
+        <v>Define Cloud Hosting</v>
+      </c>
+      <c r="N2" s="230" t="str">
+        <f>'Knowledge Base'!$B$65</f>
+        <v>Define Roles of Responsibility</v>
+      </c>
+      <c r="O2" s="230" t="str">
+        <f>'Knowledge Base'!$B$72</f>
+        <v>Select Cloud Vendor</v>
+      </c>
+      <c r="P2" s="230" t="str">
+        <f>'Knowledge Base'!$B$73</f>
+        <v>Select Pricing Model</v>
+      </c>
+      <c r="Q2" s="186" t="str">
+        <f>'Knowledge Base'!$B$78</f>
+        <v>Define Resource Location</v>
+      </c>
+      <c r="R2" s="231"/>
+    </row>
+    <row r="3" spans="1:18" s="225" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="224"/>
+    </row>
+    <row r="4" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="221"/>
+    </row>
+    <row r="5" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="221"/>
+    </row>
+    <row r="6" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="130" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="151" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="R6" s="221"/>
+    </row>
+    <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="215" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="218" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="217" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="189" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="220"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="216"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:Q1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:Q12">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Binding"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Affecting"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"Influencing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1">
     <tabColor theme="6" tint="-0.249977111117893"/>
@@ -20701,21 +21522,21 @@
     <row r="1" spans="1:23" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="55"/>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="210"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="212"/>
       <c r="G1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="210"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="212"/>
       <c r="L1" s="23" t="s">
         <v>44</v>
       </c>
@@ -20725,15 +21546,15 @@
       <c r="N1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="206" t="s">
+      <c r="O1" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="207"/>
-      <c r="T1" s="207"/>
-      <c r="U1" s="208"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="210"/>
       <c r="V1" s="23" t="s">
         <v>44</v>
       </c>
@@ -20798,7 +21619,7 @@
       <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="206" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="60" t="s">
@@ -20856,7 +21677,7 @@
       <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
@@ -20912,7 +21733,7 @@
       <c r="V4" s="26"/>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
@@ -20968,7 +21789,7 @@
       <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="205"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
@@ -21024,7 +21845,7 @@
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="202" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -21082,7 +21903,7 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
@@ -21138,7 +21959,7 @@
       <c r="V8" s="26"/>
     </row>
     <row r="9" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
@@ -21194,7 +22015,7 @@
       <c r="V9" s="26"/>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="93" t="s">
         <v>13</v>
       </c>
@@ -21308,7 +22129,7 @@
       <c r="V11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="202" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -21366,7 +22187,7 @@
       <c r="V12" s="26"/>
     </row>
     <row r="13" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="201"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
@@ -21422,7 +22243,7 @@
       <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
@@ -21478,7 +22299,7 @@
       <c r="V14" s="26"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
@@ -21534,7 +22355,7 @@
       <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="91" t="s">
         <v>38</v>
       </c>
@@ -21590,7 +22411,7 @@
       <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="202"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="92" t="s">
         <v>31</v>
       </c>
@@ -21646,7 +22467,7 @@
       <c r="V17" s="22"/>
     </row>
     <row r="18" spans="1:22" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="93" t="s">
         <v>39</v>
       </c>

--- a/resources/Matrix.xlsx
+++ b/resources/Matrix.xlsx
@@ -56,6 +56,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Metz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assumption that I have always multiple components per type if I choose more than one layer.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AN25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -104,6 +128,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="K35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Metz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Revise after matrix expansion. 
+a lot of excluding ones</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Metz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exclude or cascading via Automation Degree</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -125,30 +198,6 @@
           </rPr>
           <t xml:space="preserve">
 Single or Multiple component is not possible to determine but I need an app or mw component</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Metz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Type I only one level of scalin OS/VM ???</t>
         </r>
       </text>
     </comment>
@@ -248,30 +297,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Metz:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I have to allow everything otherwise I couldnt use third party scaling</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K57" authorId="0" shapeId="0">
       <text>
         <r>
@@ -292,7 +317,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Different to other way around. I could allow only a single component and multiple ones. Also need to express alternatvies between multiple outcomes</t>
+Different than other way around. I could allow only a single component and multiple ones. Also need to express alternatvies between multiple outcomes
+Multiple makes sense since type III / IV and all layers necessary</t>
         </r>
       </text>
     </comment>
@@ -340,7 +366,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Hybrid Outcome difficult to represent private or community cloud allowed but necessary maybe everywhere hybrid / multiple outcomes as well</t>
+Hybrid Outcome difficult to represent private or community cloud allowed but necessary. Same problem as everywhere.</t>
         </r>
       </text>
     </comment>
@@ -349,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="201">
   <si>
     <t>Decision Point</t>
   </si>
@@ -949,6 +975,9 @@
   </si>
   <si>
     <t>Affected</t>
+  </si>
+  <si>
+    <t>aff</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1642,7 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2120,6 +2149,45 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2189,53 +2257,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Null" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -2272,27 +2306,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
@@ -2304,8 +2317,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2729,10 +2742,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="210" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -2752,8 +2765,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="192"/>
-      <c r="B3" s="191"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="210"/>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -2765,8 +2778,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="192"/>
-      <c r="B4" s="191"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="210"/>
       <c r="C4" t="s">
         <v>115</v>
       </c>
@@ -2775,36 +2788,36 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="191"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="210"/>
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="191"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="210"/>
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="191"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="210"/>
       <c r="C7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="191"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="210"/>
       <c r="C8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
-      <c r="B9" s="191" t="s">
+      <c r="A9" s="211"/>
+      <c r="B9" s="210" t="s">
         <v>124</v>
       </c>
       <c r="C9" t="s">
@@ -2818,22 +2831,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="192"/>
-      <c r="B10" s="191"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="210"/>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="191"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="210"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="192"/>
-      <c r="B12" s="191"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="210"/>
       <c r="C12" t="s">
         <v>120</v>
       </c>
@@ -2842,8 +2855,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="192"/>
-      <c r="B13" s="191"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="210"/>
       <c r="C13" t="s">
         <v>121</v>
       </c>
@@ -2852,22 +2865,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="192"/>
-      <c r="B14" s="191"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="210"/>
       <c r="C14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
-      <c r="B15" s="191"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="210"/>
       <c r="C15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
-      <c r="B16" s="191" t="s">
+      <c r="A16" s="211"/>
+      <c r="B16" s="210" t="s">
         <v>125</v>
       </c>
       <c r="C16" t="s">
@@ -2884,8 +2897,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="192"/>
-      <c r="B17" s="191"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="210"/>
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -2894,8 +2907,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="192"/>
-      <c r="B18" s="191"/>
+      <c r="A18" s="211"/>
+      <c r="B18" s="210"/>
       <c r="C18" t="s">
         <v>90</v>
       </c>
@@ -2904,8 +2917,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="210"/>
       <c r="C19" t="s">
         <v>105</v>
       </c>
@@ -2917,36 +2930,36 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="210"/>
       <c r="C20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="210"/>
       <c r="C21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="210"/>
       <c r="C22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="210"/>
       <c r="C23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191" t="s">
+      <c r="A24" s="211"/>
+      <c r="B24" s="210" t="s">
         <v>138</v>
       </c>
       <c r="C24" t="s">
@@ -2966,8 +2979,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="210"/>
       <c r="C25" t="s">
         <v>127</v>
       </c>
@@ -2982,8 +2995,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="210"/>
       <c r="C26" t="s">
         <v>128</v>
       </c>
@@ -2998,8 +3011,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
+      <c r="A27" s="211"/>
+      <c r="B27" s="210"/>
       <c r="C27" t="s">
         <v>129</v>
       </c>
@@ -3014,10 +3027,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="210" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -3034,8 +3047,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="210"/>
       <c r="C29" t="s">
         <v>73</v>
       </c>
@@ -3044,51 +3057,51 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="192"/>
-      <c r="B30" s="191"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="210"/>
       <c r="C30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="192"/>
-      <c r="B31" s="191"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="210"/>
       <c r="C31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="192"/>
-      <c r="B32" s="191"/>
+      <c r="A32" s="211"/>
+      <c r="B32" s="210"/>
       <c r="C32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="192"/>
-      <c r="B33" s="191"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="210"/>
       <c r="C33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="192"/>
-      <c r="B34" s="191"/>
+      <c r="A34" s="211"/>
+      <c r="B34" s="210"/>
       <c r="C34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="192"/>
-      <c r="B35" s="191"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="210"/>
       <c r="C35" t="s">
         <v>154</v>
       </c>
       <c r="F35" s="82"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="192"/>
-      <c r="B36" s="191" t="s">
+      <c r="A36" s="211"/>
+      <c r="B36" s="210" t="s">
         <v>140</v>
       </c>
       <c r="C36" t="s">
@@ -3102,8 +3115,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="192"/>
-      <c r="B37" s="191"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="210"/>
       <c r="C37" t="s">
         <v>74</v>
       </c>
@@ -3112,8 +3125,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="192"/>
-      <c r="B38" s="191"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="90" t="s">
         <v>15</v>
       </c>
@@ -3122,8 +3135,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="192"/>
-      <c r="B39" s="191" t="s">
+      <c r="A39" s="211"/>
+      <c r="B39" s="210" t="s">
         <v>141</v>
       </c>
       <c r="C39" t="s">
@@ -3137,29 +3150,29 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="192"/>
-      <c r="B40" s="191"/>
+      <c r="A40" s="211"/>
+      <c r="B40" s="210"/>
       <c r="C40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="192"/>
-      <c r="B41" s="191"/>
+      <c r="A41" s="211"/>
+      <c r="B41" s="210"/>
       <c r="C41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="192"/>
-      <c r="B42" s="191"/>
+      <c r="A42" s="211"/>
+      <c r="B42" s="210"/>
       <c r="C42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="192"/>
-      <c r="B43" s="191"/>
+      <c r="A43" s="211"/>
+      <c r="B43" s="210"/>
       <c r="C43" t="s">
         <v>134</v>
       </c>
@@ -3168,8 +3181,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="192"/>
-      <c r="B44" s="191" t="s">
+      <c r="A44" s="211"/>
+      <c r="B44" s="210" t="s">
         <v>142</v>
       </c>
       <c r="C44" t="s">
@@ -3183,8 +3196,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="192"/>
-      <c r="B45" s="191"/>
+      <c r="A45" s="211"/>
+      <c r="B45" s="210"/>
       <c r="C45" t="s">
         <v>76</v>
       </c>
@@ -3193,8 +3206,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="192"/>
-      <c r="B46" s="191"/>
+      <c r="A46" s="211"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="90" t="s">
         <v>77</v>
       </c>
@@ -3203,10 +3216,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="191" t="s">
+      <c r="B47" s="210" t="s">
         <v>143</v>
       </c>
       <c r="C47" t="s">
@@ -3221,7 +3234,7 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="190" t="s">
+      <c r="G47" s="209" t="s">
         <v>82</v>
       </c>
       <c r="H47" t="s">
@@ -3229,52 +3242,52 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="192"/>
-      <c r="B48" s="191"/>
+      <c r="A48" s="211"/>
+      <c r="B48" s="210"/>
       <c r="C48" t="s">
         <v>156</v>
       </c>
       <c r="F48" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="190"/>
+      <c r="G48" s="209"/>
       <c r="H48" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="192"/>
-      <c r="B49" s="191"/>
+      <c r="A49" s="211"/>
+      <c r="B49" s="210"/>
       <c r="C49" t="s">
         <v>157</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="190"/>
+      <c r="G49" s="209"/>
       <c r="H49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="192"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="211"/>
+      <c r="B50" s="210"/>
       <c r="C50" t="s">
         <v>158</v>
       </c>
       <c r="F50" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="190"/>
+      <c r="G50" s="209"/>
       <c r="H50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="192" t="s">
+      <c r="A51" s="211" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="210" t="s">
         <v>144</v>
       </c>
       <c r="C51" t="s">
@@ -3291,8 +3304,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="192"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="211"/>
+      <c r="B52" s="210"/>
       <c r="C52" t="s">
         <v>21</v>
       </c>
@@ -3301,8 +3314,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="192"/>
-      <c r="B53" s="191"/>
+      <c r="A53" s="211"/>
+      <c r="B53" s="210"/>
       <c r="C53" t="s">
         <v>22</v>
       </c>
@@ -3311,8 +3324,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="192"/>
-      <c r="B54" s="191"/>
+      <c r="A54" s="211"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="90" t="s">
         <v>135</v>
       </c>
@@ -3324,8 +3337,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="192"/>
-      <c r="B55" s="191" t="s">
+      <c r="A55" s="211"/>
+      <c r="B55" s="210" t="s">
         <v>145</v>
       </c>
       <c r="C55" t="s">
@@ -3339,8 +3352,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
-      <c r="B56" s="191"/>
+      <c r="A56" s="211"/>
+      <c r="B56" s="210"/>
       <c r="C56" t="s">
         <v>83</v>
       </c>
@@ -3349,36 +3362,36 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="192"/>
-      <c r="B57" s="191"/>
+      <c r="A57" s="211"/>
+      <c r="B57" s="210"/>
       <c r="C57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="192"/>
-      <c r="B58" s="191"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="210"/>
       <c r="C58" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="192"/>
-      <c r="B59" s="191"/>
+      <c r="A59" s="211"/>
+      <c r="B59" s="210"/>
       <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="192"/>
-      <c r="B60" s="191"/>
+      <c r="A60" s="211"/>
+      <c r="B60" s="210"/>
       <c r="C60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="192"/>
-      <c r="B61" s="191"/>
+      <c r="A61" s="211"/>
+      <c r="B61" s="210"/>
       <c r="C61" t="s">
         <v>137</v>
       </c>
@@ -3387,8 +3400,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="192"/>
-      <c r="B62" s="191" t="s">
+      <c r="A62" s="211"/>
+      <c r="B62" s="210" t="s">
         <v>146</v>
       </c>
       <c r="C62" t="s">
@@ -3402,8 +3415,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="192"/>
-      <c r="B63" s="191"/>
+      <c r="A63" s="211"/>
+      <c r="B63" s="210"/>
       <c r="C63" t="s">
         <v>107</v>
       </c>
@@ -3412,8 +3425,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="192"/>
-      <c r="B64" s="191"/>
+      <c r="A64" s="211"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="90" t="s">
         <v>26</v>
       </c>
@@ -3422,8 +3435,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="192"/>
-      <c r="B65" s="191" t="s">
+      <c r="A65" s="211"/>
+      <c r="B65" s="210" t="s">
         <v>147</v>
       </c>
       <c r="C65" t="s">
@@ -3437,8 +3450,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="192"/>
-      <c r="B66" s="191"/>
+      <c r="A66" s="211"/>
+      <c r="B66" s="210"/>
       <c r="C66" t="s">
         <v>28</v>
       </c>
@@ -3449,8 +3462,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="192"/>
-      <c r="B67" s="191"/>
+      <c r="A67" s="211"/>
+      <c r="B67" s="210"/>
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -3461,8 +3474,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="192"/>
-      <c r="B68" s="191"/>
+      <c r="A68" s="211"/>
+      <c r="B68" s="210"/>
       <c r="C68" t="s">
         <v>161</v>
       </c>
@@ -3471,8 +3484,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="192"/>
-      <c r="B69" s="191"/>
+      <c r="A69" s="211"/>
+      <c r="B69" s="210"/>
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -3481,8 +3494,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="192"/>
-      <c r="B70" s="191"/>
+      <c r="A70" s="211"/>
+      <c r="B70" s="210"/>
       <c r="C70" t="s">
         <v>164</v>
       </c>
@@ -3491,8 +3504,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="192"/>
-      <c r="B71" s="191"/>
+      <c r="A71" s="211"/>
+      <c r="B71" s="210"/>
       <c r="C71" t="s">
         <v>163</v>
       </c>
@@ -3501,7 +3514,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="192"/>
+      <c r="A72" s="211"/>
       <c r="B72" s="86" t="s">
         <v>148</v>
       </c>
@@ -3516,8 +3529,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="192"/>
-      <c r="B73" s="191" t="s">
+      <c r="A73" s="211"/>
+      <c r="B73" s="210" t="s">
         <v>150</v>
       </c>
       <c r="C73" t="s">
@@ -3531,15 +3544,15 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="192"/>
-      <c r="B74" s="191"/>
+      <c r="A74" s="211"/>
+      <c r="B74" s="210"/>
       <c r="C74" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="192"/>
-      <c r="B75" s="191"/>
+      <c r="A75" s="211"/>
+      <c r="B75" s="210"/>
       <c r="C75" t="s">
         <v>99</v>
       </c>
@@ -3548,8 +3561,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="192"/>
-      <c r="B76" s="191"/>
+      <c r="A76" s="211"/>
+      <c r="B76" s="210"/>
       <c r="C76" t="s">
         <v>100</v>
       </c>
@@ -3558,8 +3571,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="192"/>
-      <c r="B77" s="191"/>
+      <c r="A77" s="211"/>
+      <c r="B77" s="210"/>
       <c r="C77" s="103" t="s">
         <v>101</v>
       </c>
@@ -3570,8 +3583,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="192"/>
-      <c r="B78" s="191" t="s">
+      <c r="A78" s="211"/>
+      <c r="B78" s="210" t="s">
         <v>149</v>
       </c>
       <c r="C78" t="s">
@@ -3591,8 +3604,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="192"/>
-      <c r="B79" s="191"/>
+      <c r="A79" s="211"/>
+      <c r="B79" s="210"/>
       <c r="C79" t="s">
         <v>169</v>
       </c>
@@ -3662,34 +3675,34 @@
     <row r="1" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127"/>
       <c r="B1" s="128"/>
-      <c r="C1" s="195" t="str">
+      <c r="C1" s="214" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197" t="str">
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="216" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="196"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="215"/>
       <c r="K1" s="123" t="str">
         <f>'Knowledge Base'!$A$47</f>
         <v>Define Multi-Tenancy Requirements</v>
       </c>
-      <c r="L1" s="195" t="str">
+      <c r="L1" s="214" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
     </row>
     <row r="2" spans="1:18" s="184" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127"/>
@@ -3762,7 +3775,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="str">
+      <c r="A3" s="212" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
@@ -3818,7 +3831,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="130" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
@@ -3871,7 +3884,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="130" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
@@ -3924,7 +3937,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="131" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
@@ -3977,7 +3990,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="198" t="str">
+      <c r="A7" s="217" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
@@ -4033,7 +4046,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="95" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
@@ -4086,7 +4099,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="95" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
@@ -4139,7 +4152,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="96" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
@@ -4248,7 +4261,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="193" t="str">
+      <c r="A12" s="212" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
@@ -4304,7 +4317,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="95" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
@@ -4357,7 +4370,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="95" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
@@ -4410,7 +4423,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="95" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
@@ -4463,7 +4476,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="95" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
@@ -4516,7 +4529,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="95" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
@@ -4569,7 +4582,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="194"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="174" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
@@ -4655,13 +4668,13 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Binding"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Affecting"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Influencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4678,10 +4691,10 @@
   <dimension ref="A1:BU159"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4943,108 +4956,108 @@
         <v>1</v>
       </c>
       <c r="B2" s="114"/>
-      <c r="D2" s="199" t="str">
+      <c r="D2" s="218" t="str">
         <f>'Knowledge Base'!$B$2</f>
         <v>Select Application Layer</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="201"/>
-      <c r="H2" s="199" t="str">
+      <c r="E2" s="218"/>
+      <c r="F2" s="220"/>
+      <c r="H2" s="218" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
-      <c r="I2" s="199"/>
-      <c r="J2" s="201"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="220"/>
       <c r="K2" s="178"/>
-      <c r="L2" s="199" t="str">
+      <c r="L2" s="218" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
       </c>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="201"/>
-      <c r="Q2" s="199" t="str">
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="220"/>
+      <c r="Q2" s="218" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="201"/>
-      <c r="V2" s="199" t="str">
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="220"/>
+      <c r="V2" s="218" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="201"/>
-      <c r="AA2" s="199" t="str">
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="220"/>
+      <c r="AA2" s="218" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="201"/>
-      <c r="AE2" s="199" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="220"/>
+      <c r="AE2" s="218" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
       </c>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="201"/>
-      <c r="AK2" s="199" t="str">
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="218"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="220"/>
+      <c r="AK2" s="218" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
       </c>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="201"/>
-      <c r="AO2" s="199" t="str">
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="220"/>
+      <c r="AO2" s="218" t="str">
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
-      <c r="AP2" s="199"/>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="201"/>
-      <c r="AT2" s="199" t="str">
+      <c r="AP2" s="218"/>
+      <c r="AQ2" s="218"/>
+      <c r="AR2" s="220"/>
+      <c r="AT2" s="218" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
-      <c r="AU2" s="199"/>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="201"/>
-      <c r="AY2" s="199" t="str">
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="220"/>
+      <c r="AY2" s="218" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
-      <c r="AZ2" s="199"/>
-      <c r="BA2" s="201"/>
-      <c r="BC2" s="199" t="str">
+      <c r="AZ2" s="218"/>
+      <c r="BA2" s="220"/>
+      <c r="BC2" s="218" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
       </c>
-      <c r="BD2" s="199"/>
-      <c r="BF2" s="199" t="str">
+      <c r="BD2" s="218"/>
+      <c r="BF2" s="218" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
       </c>
-      <c r="BG2" s="199"/>
-      <c r="BH2" s="201"/>
+      <c r="BG2" s="218"/>
+      <c r="BH2" s="220"/>
       <c r="BJ2" s="101" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
       </c>
       <c r="BK2" s="134"/>
-      <c r="BL2" s="199" t="str">
+      <c r="BL2" s="218" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
       </c>
-      <c r="BM2" s="199"/>
-      <c r="BN2" s="199"/>
-      <c r="BO2" s="201"/>
-      <c r="BQ2" s="199" t="str">
+      <c r="BM2" s="218"/>
+      <c r="BN2" s="218"/>
+      <c r="BO2" s="220"/>
+      <c r="BQ2" s="218" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
-      <c r="BR2" s="201"/>
+      <c r="BR2" s="220"/>
     </row>
     <row r="3" spans="1:73" s="88" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
@@ -5166,7 +5179,7 @@
       <c r="BR3" s="98"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="199" t="str">
+      <c r="A4" s="218" t="str">
         <f>'Knowledge Base'!$B$2</f>
         <v>Select Application Layer</v>
       </c>
@@ -5277,7 +5290,7 @@
       <c r="BU4" s="83"/>
     </row>
     <row r="5" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
+      <c r="A5" s="218"/>
       <c r="B5" s="113" t="str">
         <f>'Knowledge Base'!$C$3</f>
         <v>Business Layer</v>
@@ -5387,7 +5400,7 @@
       <c r="BU5" s="83"/>
     </row>
     <row r="6" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="113" t="str">
         <f>'Knowledge Base'!$C$4</f>
         <v>Resource Layer</v>
@@ -5497,7 +5510,7 @@
       <c r="BU6" s="83"/>
     </row>
     <row r="7" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="113" t="str">
         <f>'Knowledge Base'!$C$5</f>
         <v>Presentation + Business Layer</v>
@@ -5516,7 +5529,9 @@
       <c r="H7" s="97"/>
       <c r="I7" s="97"/>
       <c r="J7" s="98"/>
-      <c r="K7" s="97"/>
+      <c r="K7" s="97" t="s">
+        <v>178</v>
+      </c>
       <c r="L7" s="97" t="s">
         <v>175</v>
       </c>
@@ -5605,7 +5620,7 @@
       <c r="BU7" s="83"/>
     </row>
     <row r="8" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
+      <c r="A8" s="218"/>
       <c r="B8" s="113" t="str">
         <f>'Knowledge Base'!$C$6</f>
         <v>Presentation + Resource Layer</v>
@@ -5713,7 +5728,7 @@
       <c r="BU8" s="83"/>
     </row>
     <row r="9" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="113" t="str">
         <f>'Knowledge Base'!$C$7</f>
         <v>Business + Resource Layer</v>
@@ -5821,7 +5836,7 @@
       <c r="BU9" s="83"/>
     </row>
     <row r="10" spans="1:73" s="109" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="200"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="116" t="str">
         <f>'Knowledge Base'!$C$8</f>
         <v>Presentation + Business + Resource Layer</v>
@@ -6048,7 +6063,7 @@
       <c r="BR11" s="98"/>
     </row>
     <row r="12" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199" t="str">
+      <c r="A12" s="218" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
@@ -6132,7 +6147,7 @@
       <c r="BR12" s="98"/>
     </row>
     <row r="13" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="115" t="str">
         <f>'Knowledge Base'!$C$10</f>
         <v>Application Tier</v>
@@ -6213,7 +6228,7 @@
       <c r="BR13" s="98"/>
     </row>
     <row r="14" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
+      <c r="A14" s="218"/>
       <c r="B14" s="115" t="str">
         <f>'Knowledge Base'!$C$11</f>
         <v>Data Tier</v>
@@ -6294,7 +6309,7 @@
       <c r="BR14" s="98"/>
     </row>
     <row r="15" spans="1:73" s="83" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
+      <c r="A15" s="218"/>
       <c r="B15" s="115" t="str">
         <f>'Knowledge Base'!$C$12</f>
         <v>Client + Application Tier</v>
@@ -6375,7 +6390,7 @@
       <c r="BR15" s="98"/>
     </row>
     <row r="16" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
+      <c r="A16" s="218"/>
       <c r="B16" s="113" t="str">
         <f>'Knowledge Base'!$C$13</f>
         <v>Client + Data Tier</v>
@@ -6459,7 +6474,7 @@
       <c r="BU16" s="83"/>
     </row>
     <row r="17" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
+      <c r="A17" s="218"/>
       <c r="B17" s="113" t="str">
         <f>'Knowledge Base'!$C$14</f>
         <v>Application + Data Tier</v>
@@ -6543,7 +6558,7 @@
       <c r="BU17" s="83"/>
     </row>
     <row r="18" spans="1:73" s="109" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="116" t="str">
         <f>'Knowledge Base'!$C$15</f>
         <v>Client + Application + Data Tier</v>
@@ -6746,7 +6761,7 @@
       <c r="BR19" s="98"/>
     </row>
     <row r="20" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="str">
+      <c r="A20" s="218" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
       </c>
@@ -6871,7 +6886,7 @@
       <c r="BU20" s="83"/>
     </row>
     <row r="21" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="113" t="str">
         <f>'Knowledge Base'!$C$17</f>
         <v>Application Components</v>
@@ -6993,7 +7008,7 @@
       <c r="BU21" s="83"/>
     </row>
     <row r="22" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="113" t="str">
         <f>'Knowledge Base'!$C$18</f>
         <v>Middleware Component</v>
@@ -7115,7 +7130,7 @@
       <c r="BU22" s="83"/>
     </row>
     <row r="23" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="113" t="str">
         <f>'Knowledge Base'!$C$19</f>
         <v>Middleware Components</v>
@@ -7237,7 +7252,7 @@
       <c r="BU23" s="83"/>
     </row>
     <row r="24" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
+      <c r="A24" s="218"/>
       <c r="B24" s="113" t="str">
         <f>'Knowledge Base'!$C$20</f>
         <v>Application + Middleware Component</v>
@@ -7359,7 +7374,7 @@
       <c r="BU24" s="83"/>
     </row>
     <row r="25" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
+      <c r="A25" s="218"/>
       <c r="B25" s="113" t="str">
         <f>'Knowledge Base'!$C$21</f>
         <v>Application Component + Middleware Components</v>
@@ -7483,7 +7498,7 @@
       <c r="BU25" s="83"/>
     </row>
     <row r="26" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
+      <c r="A26" s="218"/>
       <c r="B26" s="113" t="str">
         <f>'Knowledge Base'!$C$22</f>
         <v>Middleware Component + Application Components</v>
@@ -7605,7 +7620,7 @@
       <c r="BU26" s="83"/>
     </row>
     <row r="27" spans="1:73" s="110" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
+      <c r="A27" s="219"/>
       <c r="B27" s="112" t="str">
         <f>'Knowledge Base'!$C$23</f>
         <v>Application + Middleware Components</v>
@@ -7846,7 +7861,7 @@
       <c r="BR28" s="98"/>
     </row>
     <row r="29" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="199" t="str">
+      <c r="A29" s="218" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
@@ -7971,7 +7986,7 @@
       <c r="BU29" s="83"/>
     </row>
     <row r="30" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
+      <c r="A30" s="218"/>
       <c r="B30" s="113" t="str">
         <f>'Knowledge Base'!$C$25</f>
         <v>Migration Type II</v>
@@ -8093,7 +8108,7 @@
       <c r="BU30" s="83"/>
     </row>
     <row r="31" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="113" t="str">
         <f>'Knowledge Base'!$C$26</f>
         <v>Migration Type III</v>
@@ -8116,16 +8131,16 @@
         <v>178</v>
       </c>
       <c r="L31" s="97" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M31" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N31" s="97" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O31" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P31" s="97"/>
       <c r="Q31" s="97" t="s">
@@ -8217,7 +8232,7 @@
       <c r="BU31" s="83"/>
     </row>
     <row r="32" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="200"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="112" t="str">
         <f>'Knowledge Base'!$C$27</f>
         <v>Migration Type IV</v>
@@ -8238,16 +8253,16 @@
       <c r="J32" s="138"/>
       <c r="K32" s="137"/>
       <c r="L32" s="137" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M32" s="137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N32" s="137" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O32" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P32" s="137"/>
       <c r="Q32" s="137" t="s">
@@ -8459,7 +8474,7 @@
       <c r="BU33" s="83"/>
     </row>
     <row r="34" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="199" t="str">
+      <c r="A34" s="218" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
@@ -8584,7 +8599,9 @@
       <c r="BG34" s="97"/>
       <c r="BH34" s="98"/>
       <c r="BI34" s="97"/>
-      <c r="BJ34" s="165"/>
+      <c r="BJ34" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK34" s="166"/>
       <c r="BL34" s="164"/>
       <c r="BM34" s="97"/>
@@ -8598,7 +8615,7 @@
       <c r="BU34" s="83"/>
     </row>
     <row r="35" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="199"/>
+      <c r="A35" s="218"/>
       <c r="B35" s="113" t="str">
         <f>'Knowledge Base'!$C$29</f>
         <v>OS/VM Level Scaling</v>
@@ -8611,7 +8628,9 @@
       <c r="H35" s="164"/>
       <c r="I35" s="97"/>
       <c r="J35" s="98"/>
-      <c r="K35" s="97"/>
+      <c r="K35" s="97" t="s">
+        <v>178</v>
+      </c>
       <c r="L35" s="97" t="s">
         <v>175</v>
       </c>
@@ -8626,7 +8645,7 @@
       </c>
       <c r="P35" s="97"/>
       <c r="Q35" s="97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R35" s="97" t="s">
         <v>175</v>
@@ -8720,7 +8739,9 @@
       <c r="BG35" s="97"/>
       <c r="BH35" s="98"/>
       <c r="BI35" s="97"/>
-      <c r="BJ35" s="165"/>
+      <c r="BJ35" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK35" s="166"/>
       <c r="BL35" s="164"/>
       <c r="BM35" s="97"/>
@@ -8734,7 +8755,7 @@
       <c r="BU35" s="83"/>
     </row>
     <row r="36" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="199"/>
+      <c r="A36" s="218"/>
       <c r="B36" s="113" t="str">
         <f>'Knowledge Base'!$C$30</f>
         <v>Middleware Level Scaling</v>
@@ -8749,10 +8770,10 @@
       <c r="J36" s="98"/>
       <c r="K36" s="97"/>
       <c r="L36" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N36" s="97" t="s">
         <v>175</v>
@@ -8805,10 +8826,10 @@
         <v>175</v>
       </c>
       <c r="AH36" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AI36" s="98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ36" s="97"/>
       <c r="AK36" s="97" t="s">
@@ -8818,7 +8839,7 @@
         <v>175</v>
       </c>
       <c r="AM36" s="98" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AN36" s="97"/>
       <c r="AO36" s="97" t="s">
@@ -8843,7 +8864,7 @@
         <v>175</v>
       </c>
       <c r="AZ36" s="97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BA36" s="98" t="s">
         <v>176</v>
@@ -8856,7 +8877,9 @@
       <c r="BG36" s="97"/>
       <c r="BH36" s="98"/>
       <c r="BI36" s="97"/>
-      <c r="BJ36" s="98"/>
+      <c r="BJ36" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK36" s="166"/>
       <c r="BL36" s="164"/>
       <c r="BM36" s="97"/>
@@ -8870,7 +8893,7 @@
       <c r="BU36" s="83"/>
     </row>
     <row r="37" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
+      <c r="A37" s="218"/>
       <c r="B37" s="113" t="str">
         <f>'Knowledge Base'!$C$31</f>
         <v>Application Level Scaling</v>
@@ -8893,14 +8916,12 @@
         <v>175</v>
       </c>
       <c r="N37" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O37" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="P37" s="97" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P37" s="97"/>
       <c r="Q37" s="97" t="s">
         <v>175</v>
       </c>
@@ -8945,10 +8966,10 @@
         <v>175</v>
       </c>
       <c r="AH37" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AI37" s="98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ37" s="97"/>
       <c r="AK37" s="97" t="s">
@@ -8958,7 +8979,7 @@
         <v>175</v>
       </c>
       <c r="AM37" s="98" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AN37" s="97"/>
       <c r="AO37" s="97" t="s">
@@ -8996,7 +9017,9 @@
       <c r="BG37" s="97"/>
       <c r="BH37" s="98"/>
       <c r="BI37" s="97"/>
-      <c r="BJ37" s="98"/>
+      <c r="BJ37" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK37" s="166"/>
       <c r="BL37" s="164"/>
       <c r="BM37" s="97"/>
@@ -9010,7 +9033,7 @@
       <c r="BU37" s="83"/>
     </row>
     <row r="38" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
+      <c r="A38" s="218"/>
       <c r="B38" s="113" t="str">
         <f>'Knowledge Base'!$C$32</f>
         <v>OS/VM + Middleware Level Scaling</v>
@@ -9132,7 +9155,9 @@
       <c r="BG38" s="97"/>
       <c r="BH38" s="98"/>
       <c r="BI38" s="97"/>
-      <c r="BJ38" s="98"/>
+      <c r="BJ38" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK38" s="166"/>
       <c r="BL38" s="164"/>
       <c r="BM38" s="97"/>
@@ -9146,7 +9171,7 @@
       <c r="BU38" s="83"/>
     </row>
     <row r="39" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="199"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="113" t="str">
         <f>'Knowledge Base'!$C$33</f>
         <v>OS/VM + Application Level Scaling</v>
@@ -9268,7 +9293,9 @@
       <c r="BG39" s="97"/>
       <c r="BH39" s="98"/>
       <c r="BI39" s="97"/>
-      <c r="BJ39" s="98"/>
+      <c r="BJ39" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK39" s="166"/>
       <c r="BL39" s="164"/>
       <c r="BM39" s="97"/>
@@ -9282,7 +9309,7 @@
       <c r="BU39" s="83"/>
     </row>
     <row r="40" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="199"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="113" t="str">
         <f>'Knowledge Base'!$C$34</f>
         <v>Middleware + Application Level Scaling</v>
@@ -9353,10 +9380,10 @@
         <v>175</v>
       </c>
       <c r="AH40" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AI40" s="98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ40" s="97"/>
       <c r="AK40" s="97" t="s">
@@ -9366,7 +9393,7 @@
         <v>175</v>
       </c>
       <c r="AM40" s="98" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AN40" s="97"/>
       <c r="AO40" s="97" t="s">
@@ -9404,7 +9431,9 @@
       <c r="BG40" s="97"/>
       <c r="BH40" s="98"/>
       <c r="BI40" s="97"/>
-      <c r="BJ40" s="98"/>
+      <c r="BJ40" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK40" s="166"/>
       <c r="BL40" s="164"/>
       <c r="BM40" s="97"/>
@@ -9418,7 +9447,7 @@
       <c r="BU40" s="83"/>
     </row>
     <row r="41" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="200"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="112" t="str">
         <f>'Knowledge Base'!$C$35</f>
         <v>OS/VM + Middleware + Application Level Scaling</v>
@@ -9540,7 +9569,9 @@
       <c r="BG41" s="137"/>
       <c r="BH41" s="138"/>
       <c r="BI41" s="137"/>
-      <c r="BJ41" s="138"/>
+      <c r="BJ41" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK41" s="168"/>
       <c r="BL41" s="137"/>
       <c r="BM41" s="137"/>
@@ -9673,7 +9704,7 @@
       <c r="BU42" s="83"/>
     </row>
     <row r="43" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="199" t="str">
+      <c r="A43" s="218" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
@@ -9758,7 +9789,9 @@
       <c r="BG43" s="97"/>
       <c r="BH43" s="98"/>
       <c r="BI43" s="97"/>
-      <c r="BJ43" s="165"/>
+      <c r="BJ43" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK43" s="166"/>
       <c r="BL43" s="164"/>
       <c r="BM43" s="97"/>
@@ -9772,7 +9805,7 @@
       <c r="BU43" s="83"/>
     </row>
     <row r="44" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="199"/>
+      <c r="A44" s="218"/>
       <c r="B44" s="113" t="str">
         <f>'Knowledge Base'!$C$37</f>
         <v>Horizontal Scaling</v>
@@ -9854,7 +9887,9 @@
       <c r="BG44" s="97"/>
       <c r="BH44" s="98"/>
       <c r="BI44" s="97"/>
-      <c r="BJ44" s="98"/>
+      <c r="BJ44" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK44" s="166"/>
       <c r="BL44" s="164"/>
       <c r="BM44" s="97"/>
@@ -9868,7 +9903,7 @@
       <c r="BU44" s="83"/>
     </row>
     <row r="45" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="200"/>
+      <c r="A45" s="219"/>
       <c r="B45" s="112" t="str">
         <f>'Knowledge Base'!$C$38</f>
         <v>Hybrid Scaling</v>
@@ -9950,7 +9985,9 @@
       <c r="BG45" s="137"/>
       <c r="BH45" s="138"/>
       <c r="BI45" s="137"/>
-      <c r="BJ45" s="138"/>
+      <c r="BJ45" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK45" s="168"/>
       <c r="BL45" s="167"/>
       <c r="BM45" s="137"/>
@@ -10084,7 +10121,7 @@
       <c r="BU46" s="83"/>
     </row>
     <row r="47" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="199" t="str">
+      <c r="A47" s="218" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
       </c>
@@ -10181,7 +10218,9 @@
       <c r="BG47" s="97"/>
       <c r="BH47" s="98"/>
       <c r="BI47" s="97"/>
-      <c r="BJ47" s="165"/>
+      <c r="BJ47" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK47" s="166"/>
       <c r="BL47" s="164"/>
       <c r="BM47" s="97"/>
@@ -10195,7 +10234,7 @@
       <c r="BU47" s="83"/>
     </row>
     <row r="48" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="199"/>
+      <c r="A48" s="218"/>
       <c r="B48" s="113" t="str">
         <f>'Knowledge Base'!$C$40</f>
         <v>Semi-Automatic Scaling</v>
@@ -10283,12 +10322,16 @@
       <c r="BB48" s="97"/>
       <c r="BC48" s="164"/>
       <c r="BD48" s="97"/>
-      <c r="BE48" s="97"/>
+      <c r="BE48" s="97" t="s">
+        <v>178</v>
+      </c>
       <c r="BF48" s="164"/>
       <c r="BG48" s="97"/>
       <c r="BH48" s="98"/>
       <c r="BI48" s="97"/>
-      <c r="BJ48" s="165"/>
+      <c r="BJ48" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK48" s="166"/>
       <c r="BL48" s="164"/>
       <c r="BM48" s="97"/>
@@ -10302,7 +10345,7 @@
       <c r="BU48" s="83"/>
     </row>
     <row r="49" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="199"/>
+      <c r="A49" s="218"/>
       <c r="B49" s="113" t="str">
         <f>'Knowledge Base'!$C$41</f>
         <v>Semi-Automatic Third-Party Scaling</v>
@@ -10400,7 +10443,9 @@
       <c r="BG49" s="97"/>
       <c r="BH49" s="98"/>
       <c r="BI49" s="97"/>
-      <c r="BJ49" s="165"/>
+      <c r="BJ49" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK49" s="166"/>
       <c r="BL49" s="164"/>
       <c r="BM49" s="97"/>
@@ -10414,7 +10459,7 @@
       <c r="BU49" s="83"/>
     </row>
     <row r="50" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
+      <c r="A50" s="218"/>
       <c r="B50" s="113" t="str">
         <f>'Knowledge Base'!$C$42</f>
         <v>Automatic Scaling</v>
@@ -10445,10 +10490,10 @@
         <v>175</v>
       </c>
       <c r="X50" s="97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y50" s="98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z50" s="97"/>
       <c r="AA50" s="97"/>
@@ -10508,7 +10553,9 @@
       <c r="BG50" s="97"/>
       <c r="BH50" s="98"/>
       <c r="BI50" s="97"/>
-      <c r="BJ50" s="165"/>
+      <c r="BJ50" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK50" s="166"/>
       <c r="BL50" s="164"/>
       <c r="BM50" s="97"/>
@@ -10522,7 +10569,7 @@
       <c r="BU50" s="83"/>
     </row>
     <row r="51" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="200"/>
+      <c r="A51" s="219"/>
       <c r="B51" s="112" t="str">
         <f>'Knowledge Base'!$C$43</f>
         <v>Automatic Third-Party Scaling</v>
@@ -10553,10 +10600,10 @@
         <v>175</v>
       </c>
       <c r="X51" s="137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y51" s="138" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z51" s="137"/>
       <c r="AA51" s="137"/>
@@ -10618,7 +10665,9 @@
       <c r="BG51" s="137"/>
       <c r="BH51" s="138"/>
       <c r="BI51" s="137"/>
-      <c r="BJ51" s="138"/>
+      <c r="BJ51" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK51" s="168"/>
       <c r="BL51" s="167"/>
       <c r="BM51" s="137"/>
@@ -10752,7 +10801,7 @@
       <c r="BU52" s="83"/>
     </row>
     <row r="53" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="199" t="str">
+      <c r="A53" s="218" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
       </c>
@@ -10849,7 +10898,9 @@
       <c r="BG53" s="97"/>
       <c r="BH53" s="98"/>
       <c r="BI53" s="97"/>
-      <c r="BJ53" s="165"/>
+      <c r="BJ53" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK53" s="166"/>
       <c r="BL53" s="164"/>
       <c r="BM53" s="97"/>
@@ -10863,7 +10914,7 @@
       <c r="BU53" s="83"/>
     </row>
     <row r="54" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="199"/>
+      <c r="A54" s="218"/>
       <c r="B54" s="113" t="str">
         <f>'Knowledge Base'!$C$45</f>
         <v>Event-Driven Trigger</v>
@@ -10941,9 +10992,7 @@
       <c r="AU54" s="97"/>
       <c r="AV54" s="97"/>
       <c r="AW54" s="98"/>
-      <c r="AX54" s="97" t="s">
-        <v>178</v>
-      </c>
+      <c r="AX54" s="97"/>
       <c r="AY54" s="97" t="s">
         <v>175</v>
       </c>
@@ -10961,7 +11010,9 @@
       <c r="BG54" s="97"/>
       <c r="BH54" s="98"/>
       <c r="BI54" s="97"/>
-      <c r="BJ54" s="165"/>
+      <c r="BJ54" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK54" s="166"/>
       <c r="BL54" s="164"/>
       <c r="BM54" s="97"/>
@@ -10975,7 +11026,7 @@
       <c r="BU54" s="83"/>
     </row>
     <row r="55" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="200"/>
+      <c r="A55" s="219"/>
       <c r="B55" s="112" t="str">
         <f>'Knowledge Base'!$C$46</f>
         <v>Proactive Trigger</v>
@@ -11069,7 +11120,9 @@
       <c r="BG55" s="137"/>
       <c r="BH55" s="138"/>
       <c r="BI55" s="137"/>
-      <c r="BJ55" s="167"/>
+      <c r="BJ55" s="167" t="s">
+        <v>200</v>
+      </c>
       <c r="BK55" s="168"/>
       <c r="BL55" s="167"/>
       <c r="BM55" s="137"/>
@@ -11203,7 +11256,7 @@
       <c r="BU56" s="83"/>
     </row>
     <row r="57" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="199" t="str">
+      <c r="A57" s="218" t="str">
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
@@ -11316,7 +11369,9 @@
       <c r="BG57" s="97"/>
       <c r="BH57" s="98"/>
       <c r="BI57" s="97"/>
-      <c r="BJ57" s="165"/>
+      <c r="BJ57" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK57" s="166"/>
       <c r="BL57" s="164"/>
       <c r="BM57" s="97"/>
@@ -11330,7 +11385,7 @@
       <c r="BU57" s="83"/>
     </row>
     <row r="58" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="199"/>
+      <c r="A58" s="218"/>
       <c r="B58" s="113" t="str">
         <f>'Knowledge Base'!$C$48</f>
         <v>Multi-Tenancy Architecture 1</v>
@@ -11438,7 +11493,9 @@
       <c r="BG58" s="97"/>
       <c r="BH58" s="98"/>
       <c r="BI58" s="97"/>
-      <c r="BJ58" s="165"/>
+      <c r="BJ58" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK58" s="166"/>
       <c r="BL58" s="164"/>
       <c r="BM58" s="97"/>
@@ -11452,7 +11509,7 @@
       <c r="BU58" s="83"/>
     </row>
     <row r="59" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="199"/>
+      <c r="A59" s="218"/>
       <c r="B59" s="113" t="str">
         <f>'Knowledge Base'!$C$49</f>
         <v>Multi-Tenancy Architecture 2</v>
@@ -11560,7 +11617,9 @@
       <c r="BG59" s="97"/>
       <c r="BH59" s="98"/>
       <c r="BI59" s="97"/>
-      <c r="BJ59" s="98"/>
+      <c r="BJ59" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK59" s="166"/>
       <c r="BL59" s="164"/>
       <c r="BM59" s="97"/>
@@ -11574,7 +11633,7 @@
       <c r="BU59" s="83"/>
     </row>
     <row r="60" spans="1:73" s="111" customFormat="1" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="200"/>
+      <c r="A60" s="219"/>
       <c r="B60" s="112" t="str">
         <f>'Knowledge Base'!$C$50</f>
         <v>Multi-Tenancy Architecture 3</v>
@@ -11682,7 +11741,9 @@
       <c r="BG60" s="137"/>
       <c r="BH60" s="138"/>
       <c r="BI60" s="137"/>
-      <c r="BJ60" s="138"/>
+      <c r="BJ60" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK60" s="168"/>
       <c r="BL60" s="137"/>
       <c r="BM60" s="137"/>
@@ -11816,7 +11877,7 @@
       <c r="BU61" s="83"/>
     </row>
     <row r="62" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="199" t="str">
+      <c r="A62" s="218" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
@@ -11901,7 +11962,9 @@
         <v>175</v>
       </c>
       <c r="BI62" s="97"/>
-      <c r="BJ62" s="165"/>
+      <c r="BJ62" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK62" s="166"/>
       <c r="BL62" s="164"/>
       <c r="BM62" s="97"/>
@@ -11915,7 +11978,7 @@
       <c r="BU62" s="83"/>
     </row>
     <row r="63" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
+      <c r="A63" s="218"/>
       <c r="B63" s="113" t="str">
         <f>'Knowledge Base'!$C$52</f>
         <v>Private Cloud</v>
@@ -11997,7 +12060,9 @@
         <v>176</v>
       </c>
       <c r="BI63" s="97"/>
-      <c r="BJ63" s="98"/>
+      <c r="BJ63" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK63" s="166"/>
       <c r="BL63" s="164"/>
       <c r="BM63" s="97"/>
@@ -12011,7 +12076,7 @@
       <c r="BU63" s="83"/>
     </row>
     <row r="64" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
+      <c r="A64" s="218"/>
       <c r="B64" s="113" t="str">
         <f>'Knowledge Base'!$C$53</f>
         <v>Community Cloud</v>
@@ -12093,7 +12158,9 @@
         <v>175</v>
       </c>
       <c r="BI64" s="97"/>
-      <c r="BJ64" s="98"/>
+      <c r="BJ64" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK64" s="166"/>
       <c r="BL64" s="97"/>
       <c r="BM64" s="97"/>
@@ -12107,7 +12174,7 @@
       <c r="BU64" s="83"/>
     </row>
     <row r="65" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="200"/>
+      <c r="A65" s="219"/>
       <c r="B65" s="112" t="str">
         <f>'Knowledge Base'!$C$54</f>
         <v xml:space="preserve">Hybrid Cloud </v>
@@ -12191,7 +12258,9 @@
         <v>175</v>
       </c>
       <c r="BI65" s="137"/>
-      <c r="BJ65" s="138"/>
+      <c r="BJ65" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK65" s="168"/>
       <c r="BL65" s="137"/>
       <c r="BM65" s="137"/>
@@ -12325,7 +12394,7 @@
       <c r="BU66" s="83"/>
     </row>
     <row r="67" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="199" t="str">
+      <c r="A67" s="218" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
@@ -12450,7 +12519,9 @@
       <c r="BG67" s="97"/>
       <c r="BH67" s="98"/>
       <c r="BI67" s="97"/>
-      <c r="BJ67" s="165"/>
+      <c r="BJ67" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK67" s="166"/>
       <c r="BL67" s="164"/>
       <c r="BM67" s="97"/>
@@ -12464,7 +12535,7 @@
       <c r="BU67" s="83"/>
     </row>
     <row r="68" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="199"/>
+      <c r="A68" s="218"/>
       <c r="B68" s="113" t="str">
         <f>'Knowledge Base'!$C$56</f>
         <v xml:space="preserve">PaaS </v>
@@ -12586,7 +12657,9 @@
       <c r="BG68" s="97"/>
       <c r="BH68" s="98"/>
       <c r="BI68" s="97"/>
-      <c r="BJ68" s="165"/>
+      <c r="BJ68" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK68" s="166"/>
       <c r="BL68" s="97"/>
       <c r="BM68" s="97"/>
@@ -12600,7 +12673,7 @@
       <c r="BU68" s="83"/>
     </row>
     <row r="69" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="199"/>
+      <c r="A69" s="218"/>
       <c r="B69" s="113" t="str">
         <f>'Knowledge Base'!$C$57</f>
         <v>SaaS</v>
@@ -12722,7 +12795,9 @@
       <c r="BG69" s="97"/>
       <c r="BH69" s="98"/>
       <c r="BI69" s="97"/>
-      <c r="BJ69" s="165"/>
+      <c r="BJ69" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK69" s="166"/>
       <c r="BL69" s="97"/>
       <c r="BM69" s="97"/>
@@ -12736,7 +12811,7 @@
       <c r="BU69" s="83"/>
     </row>
     <row r="70" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="199"/>
+      <c r="A70" s="218"/>
       <c r="B70" s="113" t="str">
         <f>'Knowledge Base'!$C$58</f>
         <v>IaaS + PaaS</v>
@@ -12858,7 +12933,9 @@
       <c r="BG70" s="97"/>
       <c r="BH70" s="98"/>
       <c r="BI70" s="97"/>
-      <c r="BJ70" s="165"/>
+      <c r="BJ70" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK70" s="166"/>
       <c r="BL70" s="97"/>
       <c r="BM70" s="97"/>
@@ -12872,7 +12949,7 @@
       <c r="BU70" s="83"/>
     </row>
     <row r="71" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="199"/>
+      <c r="A71" s="218"/>
       <c r="B71" s="113" t="str">
         <f>'Knowledge Base'!$C$59</f>
         <v>IaaS + SaaS</v>
@@ -12994,7 +13071,9 @@
       <c r="BG71" s="97"/>
       <c r="BH71" s="98"/>
       <c r="BI71" s="97"/>
-      <c r="BJ71" s="165"/>
+      <c r="BJ71" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK71" s="166"/>
       <c r="BL71" s="97"/>
       <c r="BM71" s="97"/>
@@ -13008,7 +13087,7 @@
       <c r="BU71" s="83"/>
     </row>
     <row r="72" spans="1:73" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="199"/>
+      <c r="A72" s="218"/>
       <c r="B72" s="113" t="str">
         <f>'Knowledge Base'!$C$60</f>
         <v>PaaS + SaaS</v>
@@ -13130,7 +13209,9 @@
       <c r="BG72" s="97"/>
       <c r="BH72" s="98"/>
       <c r="BI72" s="97"/>
-      <c r="BJ72" s="165"/>
+      <c r="BJ72" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK72" s="166"/>
       <c r="BL72" s="97"/>
       <c r="BM72" s="97"/>
@@ -13144,7 +13225,7 @@
       <c r="BU72" s="83"/>
     </row>
     <row r="73" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="200"/>
+      <c r="A73" s="219"/>
       <c r="B73" s="112" t="str">
         <f>'Knowledge Base'!$C$61</f>
         <v>Iaas + PaaS + SaaS</v>
@@ -13266,7 +13347,9 @@
       <c r="BG73" s="137"/>
       <c r="BH73" s="138"/>
       <c r="BI73" s="137"/>
-      <c r="BJ73" s="138"/>
+      <c r="BJ73" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK73" s="168"/>
       <c r="BL73" s="137"/>
       <c r="BM73" s="137"/>
@@ -13400,7 +13483,7 @@
       <c r="BU74" s="83"/>
     </row>
     <row r="75" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="199" t="str">
+      <c r="A75" s="218" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
       </c>
@@ -13460,7 +13543,9 @@
       <c r="AV75" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="AW75" s="98"/>
+      <c r="AW75" s="98" t="s">
+        <v>176</v>
+      </c>
       <c r="AX75" s="97"/>
       <c r="AY75" s="164"/>
       <c r="AZ75" s="97"/>
@@ -13483,7 +13568,9 @@
         <v>176</v>
       </c>
       <c r="BI75" s="97"/>
-      <c r="BJ75" s="165"/>
+      <c r="BJ75" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK75" s="166"/>
       <c r="BL75" s="164"/>
       <c r="BM75" s="97"/>
@@ -13501,7 +13588,7 @@
       <c r="BU75" s="83"/>
     </row>
     <row r="76" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="199"/>
+      <c r="A76" s="218"/>
       <c r="B76" s="113" t="str">
         <f>'Knowledge Base'!$C$63</f>
         <v>Off-Premise Hosting</v>
@@ -13548,7 +13635,9 @@
       <c r="AP76" s="97"/>
       <c r="AQ76" s="97"/>
       <c r="AR76" s="98"/>
-      <c r="AS76" s="97"/>
+      <c r="AS76" s="97" t="s">
+        <v>178</v>
+      </c>
       <c r="AT76" s="97" t="s">
         <v>175</v>
       </c>
@@ -13558,7 +13647,9 @@
       <c r="AV76" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="AW76" s="98"/>
+      <c r="AW76" s="98" t="s">
+        <v>176</v>
+      </c>
       <c r="AX76" s="97"/>
       <c r="AY76" s="164"/>
       <c r="AZ76" s="97"/>
@@ -13581,7 +13672,9 @@
         <v>175</v>
       </c>
       <c r="BI76" s="97"/>
-      <c r="BJ76" s="165"/>
+      <c r="BJ76" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK76" s="166"/>
       <c r="BL76" s="164"/>
       <c r="BM76" s="97"/>
@@ -13599,7 +13692,7 @@
       <c r="BU76" s="83"/>
     </row>
     <row r="77" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="200"/>
+      <c r="A77" s="219"/>
       <c r="B77" s="112" t="str">
         <f>'Knowledge Base'!$C$64</f>
         <v>Hybrid Hosting</v>
@@ -13648,7 +13741,7 @@
       <c r="AR77" s="138"/>
       <c r="AS77" s="137"/>
       <c r="AT77" s="137" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AU77" s="137" t="s">
         <v>175</v>
@@ -13656,7 +13749,9 @@
       <c r="AV77" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="AW77" s="138"/>
+      <c r="AW77" s="138" t="s">
+        <v>175</v>
+      </c>
       <c r="AX77" s="137"/>
       <c r="AY77" s="167"/>
       <c r="AZ77" s="137"/>
@@ -13679,7 +13774,9 @@
         <v>175</v>
       </c>
       <c r="BI77" s="137"/>
-      <c r="BJ77" s="167"/>
+      <c r="BJ77" s="167" t="s">
+        <v>200</v>
+      </c>
       <c r="BK77" s="168"/>
       <c r="BL77" s="137"/>
       <c r="BM77" s="137"/>
@@ -13817,7 +13914,7 @@
       <c r="BU78" s="83"/>
     </row>
     <row r="79" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="199" t="str">
+      <c r="A79" s="218" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
       </c>
@@ -13902,7 +13999,9 @@
         <v>175</v>
       </c>
       <c r="BI79" s="97"/>
-      <c r="BJ79" s="165"/>
+      <c r="BJ79" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK79" s="166"/>
       <c r="BL79" s="97"/>
       <c r="BM79" s="97"/>
@@ -13916,7 +14015,7 @@
       <c r="BU79" s="83"/>
     </row>
     <row r="80" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="199"/>
+      <c r="A80" s="218"/>
       <c r="B80" s="113" t="str">
         <f>'Knowledge Base'!$C$66</f>
         <v>Role Set 7</v>
@@ -13998,7 +14097,9 @@
         <v>175</v>
       </c>
       <c r="BI80" s="97"/>
-      <c r="BJ80" s="165"/>
+      <c r="BJ80" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK80" s="166"/>
       <c r="BL80" s="97"/>
       <c r="BM80" s="97"/>
@@ -14012,7 +14113,7 @@
       <c r="BU80" s="83"/>
     </row>
     <row r="81" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="199"/>
+      <c r="A81" s="218"/>
       <c r="B81" s="113" t="str">
         <f>'Knowledge Base'!$C$67</f>
         <v>Role Set 8</v>
@@ -14094,7 +14195,9 @@
         <v>174</v>
       </c>
       <c r="BI81" s="97"/>
-      <c r="BJ81" s="165"/>
+      <c r="BJ81" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK81" s="166"/>
       <c r="BL81" s="97"/>
       <c r="BM81" s="97"/>
@@ -14108,7 +14211,7 @@
       <c r="BU81" s="83"/>
     </row>
     <row r="82" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="199"/>
+      <c r="A82" s="218"/>
       <c r="B82" s="113" t="str">
         <f>'Knowledge Base'!$C$68</f>
         <v>Role Set 1 + 7</v>
@@ -14192,7 +14295,9 @@
         <v>175</v>
       </c>
       <c r="BI82" s="97"/>
-      <c r="BJ82" s="98"/>
+      <c r="BJ82" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK82" s="166"/>
       <c r="BL82" s="97"/>
       <c r="BM82" s="97"/>
@@ -14206,7 +14311,7 @@
       <c r="BU82" s="83"/>
     </row>
     <row r="83" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="199"/>
+      <c r="A83" s="218"/>
       <c r="B83" s="113" t="str">
         <f>'Knowledge Base'!$C$69</f>
         <v>Role Set 1 + 8</v>
@@ -14288,7 +14393,9 @@
         <v>174</v>
       </c>
       <c r="BI83" s="97"/>
-      <c r="BJ83" s="98"/>
+      <c r="BJ83" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK83" s="166"/>
       <c r="BL83" s="97"/>
       <c r="BM83" s="97"/>
@@ -14302,7 +14409,7 @@
       <c r="BU83" s="83"/>
     </row>
     <row r="84" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="199"/>
+      <c r="A84" s="218"/>
       <c r="B84" s="113" t="str">
         <f>'Knowledge Base'!$C$70</f>
         <v>Role Set 7 + 8</v>
@@ -14384,7 +14491,9 @@
         <v>174</v>
       </c>
       <c r="BI84" s="97"/>
-      <c r="BJ84" s="98"/>
+      <c r="BJ84" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK84" s="166"/>
       <c r="BL84" s="97"/>
       <c r="BM84" s="97"/>
@@ -14398,7 +14507,7 @@
       <c r="BU84" s="83"/>
     </row>
     <row r="85" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="200"/>
+      <c r="A85" s="219"/>
       <c r="B85" s="112" t="str">
         <f>'Knowledge Base'!$C$71</f>
         <v>Role Set 1 + 7 + 8</v>
@@ -14480,7 +14589,9 @@
         <v>174</v>
       </c>
       <c r="BI85" s="137"/>
-      <c r="BJ85" s="138"/>
+      <c r="BJ85" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK85" s="168"/>
       <c r="BL85" s="137"/>
       <c r="BM85" s="137"/>
@@ -14643,55 +14754,129 @@
       <c r="S87" s="137"/>
       <c r="T87" s="138"/>
       <c r="U87" s="167"/>
-      <c r="V87" s="137"/>
-      <c r="W87" s="137"/>
-      <c r="X87" s="137"/>
-      <c r="Y87" s="138"/>
+      <c r="V87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="W87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="X87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="Z87" s="137"/>
-      <c r="AA87" s="137"/>
-      <c r="AB87" s="137"/>
-      <c r="AC87" s="138"/>
+      <c r="AA87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="AD87" s="137"/>
-      <c r="AE87" s="137"/>
-      <c r="AF87" s="137"/>
-      <c r="AG87" s="137"/>
-      <c r="AH87" s="137"/>
-      <c r="AI87" s="138"/>
+      <c r="AE87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="AJ87" s="137"/>
-      <c r="AK87" s="137"/>
-      <c r="AL87" s="137"/>
-      <c r="AM87" s="138"/>
+      <c r="AK87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="AN87" s="137"/>
-      <c r="AO87" s="137"/>
-      <c r="AP87" s="137"/>
-      <c r="AQ87" s="137"/>
-      <c r="AR87" s="138"/>
+      <c r="AO87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="AS87" s="137"/>
-      <c r="AT87" s="167"/>
-      <c r="AU87" s="137"/>
-      <c r="AV87" s="137"/>
-      <c r="AW87" s="138"/>
+      <c r="AT87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="AX87" s="137"/>
-      <c r="AY87" s="167"/>
-      <c r="AZ87" s="137"/>
-      <c r="BA87" s="138"/>
+      <c r="AY87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="BB87" s="137"/>
-      <c r="BC87" s="167"/>
-      <c r="BD87" s="137"/>
+      <c r="BC87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD87" s="137" t="s">
+        <v>179</v>
+      </c>
       <c r="BE87" s="137"/>
-      <c r="BF87" s="167"/>
-      <c r="BG87" s="137"/>
-      <c r="BH87" s="138"/>
+      <c r="BF87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="BI87" s="137"/>
       <c r="BJ87" s="167"/>
       <c r="BK87" s="168"/>
-      <c r="BL87" s="167"/>
-      <c r="BM87" s="137"/>
-      <c r="BN87" s="137"/>
-      <c r="BO87" s="138"/>
+      <c r="BL87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN87" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="BP87" s="137"/>
-      <c r="BQ87" s="167"/>
-      <c r="BR87" s="138"/>
+      <c r="BQ87" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR87" s="138" t="s">
+        <v>179</v>
+      </c>
       <c r="BS87" s="142"/>
       <c r="BT87" s="142"/>
       <c r="BU87" s="142"/>
@@ -14817,7 +15002,7 @@
       <c r="BU88" s="83"/>
     </row>
     <row r="89" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="199" t="str">
+      <c r="A89" s="218" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
       </c>
@@ -14884,7 +15069,9 @@
       <c r="BG89" s="97"/>
       <c r="BH89" s="98"/>
       <c r="BI89" s="97"/>
-      <c r="BJ89" s="165"/>
+      <c r="BJ89" s="165" t="s">
+        <v>200</v>
+      </c>
       <c r="BK89" s="166"/>
       <c r="BL89" s="164" t="s">
         <v>174</v>
@@ -14906,7 +15093,7 @@
       <c r="BU89" s="83"/>
     </row>
     <row r="90" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="199"/>
+      <c r="A90" s="218"/>
       <c r="B90" s="113" t="str">
         <f>'Knowledge Base'!$C$74</f>
         <v>Pay-Per-Use</v>
@@ -14970,7 +15157,9 @@
       <c r="BG90" s="97"/>
       <c r="BH90" s="98"/>
       <c r="BI90" s="97"/>
-      <c r="BJ90" s="98"/>
+      <c r="BJ90" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK90" s="166"/>
       <c r="BL90" s="97" t="s">
         <v>175</v>
@@ -14992,7 +15181,7 @@
       <c r="BU90" s="83"/>
     </row>
     <row r="91" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="199"/>
+      <c r="A91" s="218"/>
       <c r="B91" s="113" t="str">
         <f>'Knowledge Base'!$C$75</f>
         <v>Pay-Per-Unit</v>
@@ -15056,7 +15245,9 @@
       <c r="BG91" s="97"/>
       <c r="BH91" s="98"/>
       <c r="BI91" s="97"/>
-      <c r="BJ91" s="98"/>
+      <c r="BJ91" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK91" s="166"/>
       <c r="BL91" s="97" t="s">
         <v>175</v>
@@ -15078,7 +15269,7 @@
       <c r="BU91" s="83"/>
     </row>
     <row r="92" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="199"/>
+      <c r="A92" s="218"/>
       <c r="B92" s="113" t="str">
         <f>'Knowledge Base'!$C$76</f>
         <v>Charge-Per-Use (Subscription)</v>
@@ -15142,7 +15333,9 @@
       <c r="BG92" s="97"/>
       <c r="BH92" s="98"/>
       <c r="BI92" s="97"/>
-      <c r="BJ92" s="98"/>
+      <c r="BJ92" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK92" s="166"/>
       <c r="BL92" s="97" t="s">
         <v>175</v>
@@ -15164,7 +15357,7 @@
       <c r="BU92" s="83"/>
     </row>
     <row r="93" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="200"/>
+      <c r="A93" s="219"/>
       <c r="B93" s="112" t="str">
         <f>'Knowledge Base'!$C$77</f>
         <v>Combined Pricing Model</v>
@@ -15228,7 +15421,9 @@
       <c r="BG93" s="137"/>
       <c r="BH93" s="138"/>
       <c r="BI93" s="137"/>
-      <c r="BJ93" s="138"/>
+      <c r="BJ93" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK93" s="168"/>
       <c r="BL93" s="137" t="s">
         <v>175</v>
@@ -15370,7 +15565,7 @@
       <c r="BU94" s="83"/>
     </row>
     <row r="95" spans="1:73" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="199" t="str">
+      <c r="A95" s="218" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
@@ -15447,7 +15642,9 @@
         <v>176</v>
       </c>
       <c r="BI95" s="97"/>
-      <c r="BJ95" s="98"/>
+      <c r="BJ95" s="98" t="s">
+        <v>200</v>
+      </c>
       <c r="BK95" s="166"/>
       <c r="BL95" s="97"/>
       <c r="BM95" s="97"/>
@@ -15465,7 +15662,7 @@
       <c r="BU95" s="83"/>
     </row>
     <row r="96" spans="1:73" s="111" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="200"/>
+      <c r="A96" s="219"/>
       <c r="B96" s="112" t="str">
         <f>'Knowledge Base'!$C$79</f>
         <v>Data Location outside jurisdiction of company</v>
@@ -15535,7 +15732,9 @@
         <v>175</v>
       </c>
       <c r="BI96" s="137"/>
-      <c r="BJ96" s="138"/>
+      <c r="BJ96" s="138" t="s">
+        <v>200</v>
+      </c>
       <c r="BK96" s="168"/>
       <c r="BL96" s="137"/>
       <c r="BM96" s="137"/>
@@ -20184,22 +20383,22 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:BR41 C42:Y42 AA42:BR42 C43:BR47 C48:AW48 AY48:BR48 C49:BR93 C94:AT94 AV94:BC94 BE94:BR94 C95:BR96">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"eb"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="12" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="!">
       <formula>LEFT(C3,LEN("!"))="!"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="14" operator="beginsWith" text="?">
+    <cfRule type="beginsWith" dxfId="9" priority="14" operator="beginsWith" text="?">
       <formula>LEFT(C3,LEN("?"))="?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"in"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>"a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20217,10 +20416,10 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20236,34 +20435,34 @@
     <row r="1" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127"/>
       <c r="B1" s="128"/>
-      <c r="C1" s="195" t="str">
+      <c r="C1" s="214" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197" t="str">
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="216" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="196"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="215"/>
       <c r="K1" s="123" t="str">
         <f>'Knowledge Base'!$A$47</f>
         <v>Define Multi-Tenancy Requirements</v>
       </c>
-      <c r="L1" s="195" t="str">
+      <c r="L1" s="214" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
     </row>
     <row r="2" spans="1:18" s="184" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="127"/>
@@ -20336,7 +20535,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="str">
+      <c r="A3" s="212" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
@@ -20364,7 +20563,7 @@
       <c r="R3" s="147"/>
     </row>
     <row r="4" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="130" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
@@ -20389,7 +20588,7 @@
       <c r="R4" s="152"/>
     </row>
     <row r="5" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="130" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
@@ -20416,7 +20615,7 @@
       <c r="R5" s="152"/>
     </row>
     <row r="6" spans="1:18" s="185" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="131" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
@@ -20441,7 +20640,7 @@
       <c r="R6" s="157"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="198" t="str">
+      <c r="A7" s="217" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
@@ -20451,7 +20650,9 @@
       </c>
       <c r="C7" s="148"/>
       <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
+      <c r="E7" s="146" t="s">
+        <v>178</v>
+      </c>
       <c r="F7" s="147"/>
       <c r="G7" s="158"/>
       <c r="H7" s="146"/>
@@ -20469,7 +20670,7 @@
       <c r="R7" s="147"/>
     </row>
     <row r="8" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="175" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
@@ -20494,7 +20695,7 @@
       <c r="R8" s="152"/>
     </row>
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="175" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
@@ -20521,7 +20722,7 @@
       <c r="R9" s="152"/>
     </row>
     <row r="10" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="176" t="str">
         <f>'Knowledge Base'!$B$44</f>
         <v>Select Scaling Trigger</v>
@@ -20574,7 +20775,7 @@
       <c r="R11" s="157"/>
     </row>
     <row r="12" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="193" t="str">
+      <c r="A12" s="212" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
@@ -20604,7 +20805,7 @@
       <c r="R12" s="147"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="175" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
@@ -20627,7 +20828,7 @@
       <c r="R13" s="152"/>
     </row>
     <row r="14" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="175" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
@@ -20652,7 +20853,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="175" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
@@ -20666,20 +20867,16 @@
       <c r="I15" s="151"/>
       <c r="J15" s="152"/>
       <c r="K15" s="152"/>
-      <c r="L15" s="149" t="s">
-        <v>45</v>
-      </c>
+      <c r="L15" s="149"/>
       <c r="M15" s="151"/>
-      <c r="N15" s="151" t="s">
-        <v>41</v>
-      </c>
+      <c r="N15" s="151"/>
       <c r="O15" s="150"/>
       <c r="P15" s="151"/>
       <c r="Q15" s="151"/>
       <c r="R15" s="152"/>
     </row>
     <row r="16" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="175" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
@@ -20702,7 +20899,7 @@
       <c r="R16" s="152"/>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="175" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
@@ -20725,7 +20922,7 @@
       <c r="R17" s="152"/>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="194"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="176" t="str">
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
@@ -20781,10 +20978,10 @@
     <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:R18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"N/A"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Requiring"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20796,94 +20993,94 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6" tint="-0.249977111117893"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="219" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" style="213" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="223" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="219" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="213" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="223" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="219" customWidth="1"/>
-    <col min="12" max="16" width="12.7109375" style="213" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="223" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="219"/>
-    <col min="19" max="16384" width="11.42578125" style="213"/>
+    <col min="1" max="1" width="19.5703125" style="198" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="195" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" style="190" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="199" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="195" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="190" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="199" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="195" customWidth="1"/>
+    <col min="12" max="16" width="12.7109375" style="190" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="199" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="195"/>
+    <col min="19" max="16384" width="11.42578125" style="190"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="217" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="193" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="128"/>
-      <c r="B1" s="195" t="str">
+      <c r="B1" s="214" t="str">
         <f>'Knowledge Base'!$A$2</f>
         <v>Distribute Application</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="str">
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="216" t="str">
         <f>'Knowledge Base'!$A$28</f>
         <v>Define Elasticity Strategy</v>
       </c>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="196"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="215"/>
       <c r="J1" s="123" t="str">
         <f>'Knowledge Base'!$A$47</f>
         <v>Define Multi-Tenancy Requirements</v>
       </c>
-      <c r="K1" s="195" t="str">
+      <c r="K1" s="214" t="str">
         <f>'Knowledge Base'!$A$51</f>
         <v>Select Service Provider / Offering</v>
       </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="220"/>
-    </row>
-    <row r="2" spans="1:18" s="232" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="196"/>
+    </row>
+    <row r="2" spans="1:18" s="208" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="226" t="str">
+      <c r="B2" s="202" t="str">
         <f>'Knowledge Base'!$B$2</f>
         <v>Select Application Layer</v>
       </c>
-      <c r="C2" s="227" t="str">
+      <c r="C2" s="203" t="str">
         <f>'Knowledge Base'!$B$9</f>
         <v>Select Application Tier</v>
       </c>
-      <c r="D2" s="227" t="str">
+      <c r="D2" s="203" t="str">
         <f>'Knowledge Base'!$B$16</f>
         <v>Select Application Components</v>
       </c>
-      <c r="E2" s="228" t="str">
+      <c r="E2" s="204" t="str">
         <f>'Knowledge Base'!$B$24</f>
         <v>Select Migration Type</v>
       </c>
-      <c r="F2" s="229" t="str">
+      <c r="F2" s="205" t="str">
         <f>'Knowledge Base'!$B$28</f>
         <v>Define Scalability Level</v>
       </c>
-      <c r="G2" s="230" t="str">
+      <c r="G2" s="206" t="str">
         <f>'Knowledge Base'!$B$36</f>
         <v>Select Scaling Type</v>
       </c>
-      <c r="H2" s="230" t="str">
+      <c r="H2" s="206" t="str">
         <f>'Knowledge Base'!$B$39</f>
         <v>Select Elasticity Automation Degree</v>
       </c>
@@ -20895,27 +21092,27 @@
         <f>'Knowledge Base'!$B$47</f>
         <v>Select Multi-Tenancy Architecture</v>
       </c>
-      <c r="K2" s="229" t="str">
+      <c r="K2" s="205" t="str">
         <f>'Knowledge Base'!$B$51</f>
         <v>Select Cloud Deployment Model</v>
       </c>
-      <c r="L2" s="230" t="str">
+      <c r="L2" s="206" t="str">
         <f>'Knowledge Base'!$B$55</f>
         <v>Select Cloud Service Model</v>
       </c>
-      <c r="M2" s="230" t="str">
+      <c r="M2" s="206" t="str">
         <f>'Knowledge Base'!$B$62</f>
         <v>Define Cloud Hosting</v>
       </c>
-      <c r="N2" s="230" t="str">
+      <c r="N2" s="206" t="str">
         <f>'Knowledge Base'!$B$65</f>
         <v>Define Roles of Responsibility</v>
       </c>
-      <c r="O2" s="230" t="str">
+      <c r="O2" s="206" t="str">
         <f>'Knowledge Base'!$B$72</f>
         <v>Select Cloud Vendor</v>
       </c>
-      <c r="P2" s="230" t="str">
+      <c r="P2" s="206" t="str">
         <f>'Knowledge Base'!$B$73</f>
         <v>Select Pricing Model</v>
       </c>
@@ -20923,9 +21120,9 @@
         <f>'Knowledge Base'!$B$78</f>
         <v>Define Resource Location</v>
       </c>
-      <c r="R2" s="231"/>
-    </row>
-    <row r="3" spans="1:18" s="225" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="207"/>
+    </row>
+    <row r="3" spans="1:18" s="201" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
         <v>188</v>
       </c>
@@ -20977,9 +21174,9 @@
       <c r="Q3" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="224"/>
-    </row>
-    <row r="4" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="200"/>
+    </row>
+    <row r="4" spans="1:18" s="191" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
         <v>189</v>
       </c>
@@ -21031,9 +21228,9 @@
       <c r="Q4" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="R4" s="221"/>
-    </row>
-    <row r="5" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="197"/>
+    </row>
+    <row r="5" spans="1:18" s="191" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>190</v>
       </c>
@@ -21085,9 +21282,9 @@
       <c r="Q5" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="221"/>
-    </row>
-    <row r="6" spans="1:18" s="214" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="197"/>
+    </row>
+    <row r="6" spans="1:18" s="191" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130" t="s">
         <v>191</v>
       </c>
@@ -21139,7 +21336,7 @@
       <c r="Q6" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="R6" s="221"/>
+      <c r="R6" s="197"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="188" t="s">
@@ -21322,7 +21519,7 @@
       <c r="G10" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="215" t="s">
+      <c r="H10" s="192" t="s">
         <v>198</v>
       </c>
       <c r="I10" s="152" t="s">
@@ -21357,7 +21554,7 @@
       <c r="A11" s="188" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="194" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="151" t="s">
@@ -21406,7 +21603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="217" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="193" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="189" t="s">
         <v>197</v>
       </c>
@@ -21458,10 +21655,2361 @@
       <c r="Q12" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="220"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="216"/>
+      <c r="R12" s="196"/>
+    </row>
+    <row r="13" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="232"/>
+      <c r="B13" s="233"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="233"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="233"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="233"/>
+    </row>
+    <row r="14" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="232"/>
+      <c r="B14" s="233"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="233"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="233"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="233"/>
+    </row>
+    <row r="15" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="232"/>
+      <c r="B15" s="233"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="233"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="233"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="233"/>
+    </row>
+    <row r="16" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="232"/>
+      <c r="B16" s="233"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="233"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="233"/>
+      <c r="Q16" s="235"/>
+      <c r="R16" s="233"/>
+    </row>
+    <row r="17" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="232"/>
+      <c r="B17" s="233"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="233"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="233"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="233"/>
+    </row>
+    <row r="18" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="232"/>
+      <c r="B18" s="233"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="233"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="233"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="233"/>
+    </row>
+    <row r="19" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="232"/>
+      <c r="B19" s="233"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="233"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="233"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="233"/>
+    </row>
+    <row r="20" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="232"/>
+      <c r="B20" s="233"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="233"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="233"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="233"/>
+    </row>
+    <row r="21" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="232"/>
+      <c r="B21" s="233"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="233"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="233"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="233"/>
+    </row>
+    <row r="22" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="232"/>
+      <c r="B22" s="233"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="233"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="233"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="233"/>
+    </row>
+    <row r="23" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="233"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="233"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="233"/>
+    </row>
+    <row r="24" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="232"/>
+      <c r="B24" s="233"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="233"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="233"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="233"/>
+    </row>
+    <row r="25" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="232"/>
+      <c r="B25" s="233"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="233"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="233"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="233"/>
+    </row>
+    <row r="26" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="232"/>
+      <c r="B26" s="233"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="233"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="233"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="233"/>
+    </row>
+    <row r="27" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="232"/>
+      <c r="B27" s="233"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="233"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="233"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="233"/>
+    </row>
+    <row r="28" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="232"/>
+      <c r="B28" s="233"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="233"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="233"/>
+      <c r="Q28" s="235"/>
+      <c r="R28" s="233"/>
+    </row>
+    <row r="29" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="233"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="233"/>
+      <c r="Q29" s="235"/>
+      <c r="R29" s="233"/>
+    </row>
+    <row r="30" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="232"/>
+      <c r="B30" s="233"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="233"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="233"/>
+      <c r="Q30" s="235"/>
+      <c r="R30" s="233"/>
+    </row>
+    <row r="31" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="232"/>
+      <c r="B31" s="233"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="233"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="233"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="233"/>
+    </row>
+    <row r="32" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="232"/>
+      <c r="B32" s="233"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="233"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="233"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="233"/>
+    </row>
+    <row r="33" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="232"/>
+      <c r="B33" s="233"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="233"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="233"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="233"/>
+    </row>
+    <row r="34" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="233"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="233"/>
+      <c r="Q34" s="235"/>
+      <c r="R34" s="233"/>
+    </row>
+    <row r="35" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="232"/>
+      <c r="B35" s="233"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="233"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="233"/>
+      <c r="Q35" s="235"/>
+      <c r="R35" s="233"/>
+    </row>
+    <row r="36" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="232"/>
+      <c r="B36" s="233"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="233"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="233"/>
+      <c r="Q36" s="235"/>
+      <c r="R36" s="233"/>
+    </row>
+    <row r="37" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="232"/>
+      <c r="B37" s="233"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="233"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="233"/>
+      <c r="Q37" s="235"/>
+      <c r="R37" s="233"/>
+    </row>
+    <row r="38" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="232"/>
+      <c r="B38" s="233"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="233"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="233"/>
+      <c r="Q38" s="235"/>
+      <c r="R38" s="233"/>
+    </row>
+    <row r="39" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="232"/>
+      <c r="B39" s="233"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="233"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="233"/>
+      <c r="Q39" s="235"/>
+      <c r="R39" s="233"/>
+    </row>
+    <row r="40" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="232"/>
+      <c r="B40" s="233"/>
+      <c r="E40" s="235"/>
+      <c r="F40" s="233"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="233"/>
+      <c r="Q40" s="235"/>
+      <c r="R40" s="233"/>
+    </row>
+    <row r="41" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="232"/>
+      <c r="B41" s="233"/>
+      <c r="E41" s="235"/>
+      <c r="F41" s="233"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="233"/>
+      <c r="Q41" s="235"/>
+      <c r="R41" s="233"/>
+    </row>
+    <row r="42" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="232"/>
+      <c r="B42" s="233"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="233"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
+      <c r="K42" s="233"/>
+      <c r="Q42" s="235"/>
+      <c r="R42" s="233"/>
+    </row>
+    <row r="43" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="232"/>
+      <c r="B43" s="233"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="233"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="235"/>
+      <c r="K43" s="233"/>
+      <c r="Q43" s="235"/>
+      <c r="R43" s="233"/>
+    </row>
+    <row r="44" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="232"/>
+      <c r="B44" s="233"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="233"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="233"/>
+      <c r="Q44" s="235"/>
+      <c r="R44" s="233"/>
+    </row>
+    <row r="45" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="232"/>
+      <c r="B45" s="233"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="233"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="233"/>
+      <c r="Q45" s="235"/>
+      <c r="R45" s="233"/>
+    </row>
+    <row r="46" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="232"/>
+      <c r="B46" s="233"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="233"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="235"/>
+      <c r="K46" s="233"/>
+      <c r="Q46" s="235"/>
+      <c r="R46" s="233"/>
+    </row>
+    <row r="47" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="232"/>
+      <c r="B47" s="233"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="233"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="233"/>
+      <c r="Q47" s="235"/>
+      <c r="R47" s="233"/>
+    </row>
+    <row r="48" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="232"/>
+      <c r="B48" s="233"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="233"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="233"/>
+      <c r="Q48" s="235"/>
+      <c r="R48" s="233"/>
+    </row>
+    <row r="49" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="232"/>
+      <c r="B49" s="233"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="233"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="235"/>
+      <c r="K49" s="233"/>
+      <c r="Q49" s="235"/>
+      <c r="R49" s="233"/>
+    </row>
+    <row r="50" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="232"/>
+      <c r="B50" s="233"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="233"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="235"/>
+      <c r="K50" s="233"/>
+      <c r="Q50" s="235"/>
+      <c r="R50" s="233"/>
+    </row>
+    <row r="51" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="232"/>
+      <c r="B51" s="233"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="233"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="235"/>
+      <c r="K51" s="233"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="233"/>
+    </row>
+    <row r="52" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="232"/>
+      <c r="B52" s="233"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="233"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="233"/>
+      <c r="Q52" s="235"/>
+      <c r="R52" s="233"/>
+    </row>
+    <row r="53" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="232"/>
+      <c r="B53" s="233"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="233"/>
+      <c r="I53" s="235"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="233"/>
+      <c r="Q53" s="235"/>
+      <c r="R53" s="233"/>
+    </row>
+    <row r="54" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="232"/>
+      <c r="B54" s="233"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="233"/>
+      <c r="I54" s="235"/>
+      <c r="J54" s="235"/>
+      <c r="K54" s="233"/>
+      <c r="Q54" s="235"/>
+      <c r="R54" s="233"/>
+    </row>
+    <row r="55" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="232"/>
+      <c r="B55" s="233"/>
+      <c r="E55" s="235"/>
+      <c r="F55" s="233"/>
+      <c r="I55" s="235"/>
+      <c r="J55" s="235"/>
+      <c r="K55" s="233"/>
+      <c r="Q55" s="235"/>
+      <c r="R55" s="233"/>
+    </row>
+    <row r="56" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="232"/>
+      <c r="B56" s="233"/>
+      <c r="E56" s="235"/>
+      <c r="F56" s="233"/>
+      <c r="I56" s="235"/>
+      <c r="J56" s="235"/>
+      <c r="K56" s="233"/>
+      <c r="Q56" s="235"/>
+      <c r="R56" s="233"/>
+    </row>
+    <row r="57" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="232"/>
+      <c r="B57" s="233"/>
+      <c r="E57" s="235"/>
+      <c r="F57" s="233"/>
+      <c r="I57" s="235"/>
+      <c r="J57" s="235"/>
+      <c r="K57" s="233"/>
+      <c r="Q57" s="235"/>
+      <c r="R57" s="233"/>
+    </row>
+    <row r="58" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="232"/>
+      <c r="B58" s="233"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="233"/>
+      <c r="I58" s="235"/>
+      <c r="J58" s="235"/>
+      <c r="K58" s="233"/>
+      <c r="Q58" s="235"/>
+      <c r="R58" s="233"/>
+    </row>
+    <row r="59" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="232"/>
+      <c r="B59" s="233"/>
+      <c r="E59" s="235"/>
+      <c r="F59" s="233"/>
+      <c r="I59" s="235"/>
+      <c r="J59" s="235"/>
+      <c r="K59" s="233"/>
+      <c r="Q59" s="235"/>
+      <c r="R59" s="233"/>
+    </row>
+    <row r="60" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="232"/>
+      <c r="B60" s="233"/>
+      <c r="E60" s="235"/>
+      <c r="F60" s="233"/>
+      <c r="I60" s="235"/>
+      <c r="J60" s="235"/>
+      <c r="K60" s="233"/>
+      <c r="Q60" s="235"/>
+      <c r="R60" s="233"/>
+    </row>
+    <row r="61" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="232"/>
+      <c r="B61" s="233"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="233"/>
+      <c r="I61" s="235"/>
+      <c r="J61" s="235"/>
+      <c r="K61" s="233"/>
+      <c r="Q61" s="235"/>
+      <c r="R61" s="233"/>
+    </row>
+    <row r="62" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="232"/>
+      <c r="B62" s="233"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="233"/>
+      <c r="I62" s="235"/>
+      <c r="J62" s="235"/>
+      <c r="K62" s="233"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="233"/>
+    </row>
+    <row r="63" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="232"/>
+      <c r="B63" s="233"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="233"/>
+      <c r="I63" s="235"/>
+      <c r="J63" s="235"/>
+      <c r="K63" s="233"/>
+      <c r="Q63" s="235"/>
+      <c r="R63" s="233"/>
+    </row>
+    <row r="64" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="232"/>
+      <c r="B64" s="233"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="233"/>
+      <c r="I64" s="235"/>
+      <c r="J64" s="235"/>
+      <c r="K64" s="233"/>
+      <c r="Q64" s="235"/>
+      <c r="R64" s="233"/>
+    </row>
+    <row r="65" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="232"/>
+      <c r="B65" s="233"/>
+      <c r="E65" s="235"/>
+      <c r="F65" s="233"/>
+      <c r="I65" s="235"/>
+      <c r="J65" s="235"/>
+      <c r="K65" s="233"/>
+      <c r="Q65" s="235"/>
+      <c r="R65" s="233"/>
+    </row>
+    <row r="66" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="232"/>
+      <c r="B66" s="233"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="233"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="235"/>
+      <c r="K66" s="233"/>
+      <c r="Q66" s="235"/>
+      <c r="R66" s="233"/>
+    </row>
+    <row r="67" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="232"/>
+      <c r="B67" s="233"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="233"/>
+      <c r="I67" s="235"/>
+      <c r="J67" s="235"/>
+      <c r="K67" s="233"/>
+      <c r="Q67" s="235"/>
+      <c r="R67" s="233"/>
+    </row>
+    <row r="68" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="232"/>
+      <c r="B68" s="233"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="233"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="233"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="233"/>
+    </row>
+    <row r="69" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="232"/>
+      <c r="B69" s="233"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="233"/>
+      <c r="I69" s="235"/>
+      <c r="J69" s="235"/>
+      <c r="K69" s="233"/>
+      <c r="Q69" s="235"/>
+      <c r="R69" s="233"/>
+    </row>
+    <row r="70" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="232"/>
+      <c r="B70" s="233"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="233"/>
+      <c r="I70" s="235"/>
+      <c r="J70" s="235"/>
+      <c r="K70" s="233"/>
+      <c r="Q70" s="235"/>
+      <c r="R70" s="233"/>
+    </row>
+    <row r="71" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="232"/>
+      <c r="B71" s="233"/>
+      <c r="E71" s="235"/>
+      <c r="F71" s="233"/>
+      <c r="I71" s="235"/>
+      <c r="J71" s="235"/>
+      <c r="K71" s="233"/>
+      <c r="Q71" s="235"/>
+      <c r="R71" s="233"/>
+    </row>
+    <row r="72" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="232"/>
+      <c r="B72" s="233"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="233"/>
+      <c r="I72" s="235"/>
+      <c r="J72" s="235"/>
+      <c r="K72" s="233"/>
+      <c r="Q72" s="235"/>
+      <c r="R72" s="233"/>
+    </row>
+    <row r="73" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="232"/>
+      <c r="B73" s="233"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="233"/>
+      <c r="I73" s="235"/>
+      <c r="J73" s="235"/>
+      <c r="K73" s="233"/>
+      <c r="Q73" s="235"/>
+      <c r="R73" s="233"/>
+    </row>
+    <row r="74" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="232"/>
+      <c r="B74" s="233"/>
+      <c r="E74" s="235"/>
+      <c r="F74" s="233"/>
+      <c r="I74" s="235"/>
+      <c r="J74" s="235"/>
+      <c r="K74" s="233"/>
+      <c r="Q74" s="235"/>
+      <c r="R74" s="233"/>
+    </row>
+    <row r="75" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="232"/>
+      <c r="B75" s="233"/>
+      <c r="E75" s="235"/>
+      <c r="F75" s="233"/>
+      <c r="I75" s="235"/>
+      <c r="J75" s="235"/>
+      <c r="K75" s="233"/>
+      <c r="Q75" s="235"/>
+      <c r="R75" s="233"/>
+    </row>
+    <row r="76" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="232"/>
+      <c r="B76" s="233"/>
+      <c r="E76" s="235"/>
+      <c r="F76" s="233"/>
+      <c r="I76" s="235"/>
+      <c r="J76" s="235"/>
+      <c r="K76" s="233"/>
+      <c r="Q76" s="235"/>
+      <c r="R76" s="233"/>
+    </row>
+    <row r="77" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="232"/>
+      <c r="B77" s="233"/>
+      <c r="E77" s="235"/>
+      <c r="F77" s="233"/>
+      <c r="I77" s="235"/>
+      <c r="J77" s="235"/>
+      <c r="K77" s="233"/>
+      <c r="Q77" s="235"/>
+      <c r="R77" s="233"/>
+    </row>
+    <row r="78" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="232"/>
+      <c r="B78" s="233"/>
+      <c r="E78" s="235"/>
+      <c r="F78" s="233"/>
+      <c r="I78" s="235"/>
+      <c r="J78" s="235"/>
+      <c r="K78" s="233"/>
+      <c r="Q78" s="235"/>
+      <c r="R78" s="233"/>
+    </row>
+    <row r="79" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="232"/>
+      <c r="B79" s="233"/>
+      <c r="E79" s="235"/>
+      <c r="F79" s="233"/>
+      <c r="I79" s="235"/>
+      <c r="J79" s="235"/>
+      <c r="K79" s="233"/>
+      <c r="Q79" s="235"/>
+      <c r="R79" s="233"/>
+    </row>
+    <row r="80" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="232"/>
+      <c r="B80" s="233"/>
+      <c r="E80" s="235"/>
+      <c r="F80" s="233"/>
+      <c r="I80" s="235"/>
+      <c r="J80" s="235"/>
+      <c r="K80" s="233"/>
+      <c r="Q80" s="235"/>
+      <c r="R80" s="233"/>
+    </row>
+    <row r="81" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="232"/>
+      <c r="B81" s="233"/>
+      <c r="E81" s="235"/>
+      <c r="F81" s="233"/>
+      <c r="I81" s="235"/>
+      <c r="J81" s="235"/>
+      <c r="K81" s="233"/>
+      <c r="Q81" s="235"/>
+      <c r="R81" s="233"/>
+    </row>
+    <row r="82" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="232"/>
+      <c r="B82" s="233"/>
+      <c r="E82" s="235"/>
+      <c r="F82" s="233"/>
+      <c r="I82" s="235"/>
+      <c r="J82" s="235"/>
+      <c r="K82" s="233"/>
+      <c r="Q82" s="235"/>
+      <c r="R82" s="233"/>
+    </row>
+    <row r="83" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="232"/>
+      <c r="B83" s="233"/>
+      <c r="E83" s="235"/>
+      <c r="F83" s="233"/>
+      <c r="I83" s="235"/>
+      <c r="J83" s="235"/>
+      <c r="K83" s="233"/>
+      <c r="Q83" s="235"/>
+      <c r="R83" s="233"/>
+    </row>
+    <row r="84" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="232"/>
+      <c r="B84" s="233"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="233"/>
+      <c r="I84" s="235"/>
+      <c r="J84" s="235"/>
+      <c r="K84" s="233"/>
+      <c r="Q84" s="235"/>
+      <c r="R84" s="233"/>
+    </row>
+    <row r="85" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="232"/>
+      <c r="B85" s="233"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="233"/>
+      <c r="I85" s="235"/>
+      <c r="J85" s="235"/>
+      <c r="K85" s="233"/>
+      <c r="Q85" s="235"/>
+      <c r="R85" s="233"/>
+    </row>
+    <row r="86" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="232"/>
+      <c r="B86" s="233"/>
+      <c r="E86" s="235"/>
+      <c r="F86" s="233"/>
+      <c r="I86" s="235"/>
+      <c r="J86" s="235"/>
+      <c r="K86" s="233"/>
+      <c r="Q86" s="235"/>
+      <c r="R86" s="233"/>
+    </row>
+    <row r="87" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="232"/>
+      <c r="B87" s="233"/>
+      <c r="E87" s="235"/>
+      <c r="F87" s="233"/>
+      <c r="I87" s="235"/>
+      <c r="J87" s="235"/>
+      <c r="K87" s="233"/>
+      <c r="Q87" s="235"/>
+      <c r="R87" s="233"/>
+    </row>
+    <row r="88" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="232"/>
+      <c r="B88" s="233"/>
+      <c r="E88" s="235"/>
+      <c r="F88" s="233"/>
+      <c r="I88" s="235"/>
+      <c r="J88" s="235"/>
+      <c r="K88" s="233"/>
+      <c r="Q88" s="235"/>
+      <c r="R88" s="233"/>
+    </row>
+    <row r="89" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="232"/>
+      <c r="B89" s="233"/>
+      <c r="E89" s="235"/>
+      <c r="F89" s="233"/>
+      <c r="I89" s="235"/>
+      <c r="J89" s="235"/>
+      <c r="K89" s="233"/>
+      <c r="Q89" s="235"/>
+      <c r="R89" s="233"/>
+    </row>
+    <row r="90" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="232"/>
+      <c r="B90" s="233"/>
+      <c r="E90" s="235"/>
+      <c r="F90" s="233"/>
+      <c r="I90" s="235"/>
+      <c r="J90" s="235"/>
+      <c r="K90" s="233"/>
+      <c r="Q90" s="235"/>
+      <c r="R90" s="233"/>
+    </row>
+    <row r="91" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="232"/>
+      <c r="B91" s="233"/>
+      <c r="E91" s="235"/>
+      <c r="F91" s="233"/>
+      <c r="I91" s="235"/>
+      <c r="J91" s="235"/>
+      <c r="K91" s="233"/>
+      <c r="Q91" s="235"/>
+      <c r="R91" s="233"/>
+    </row>
+    <row r="92" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="232"/>
+      <c r="B92" s="233"/>
+      <c r="E92" s="235"/>
+      <c r="F92" s="233"/>
+      <c r="I92" s="235"/>
+      <c r="J92" s="235"/>
+      <c r="K92" s="233"/>
+      <c r="Q92" s="235"/>
+      <c r="R92" s="233"/>
+    </row>
+    <row r="93" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="232"/>
+      <c r="B93" s="233"/>
+      <c r="E93" s="235"/>
+      <c r="F93" s="233"/>
+      <c r="I93" s="235"/>
+      <c r="J93" s="235"/>
+      <c r="K93" s="233"/>
+      <c r="Q93" s="235"/>
+      <c r="R93" s="233"/>
+    </row>
+    <row r="94" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="232"/>
+      <c r="B94" s="233"/>
+      <c r="E94" s="235"/>
+      <c r="F94" s="233"/>
+      <c r="I94" s="235"/>
+      <c r="J94" s="235"/>
+      <c r="K94" s="233"/>
+      <c r="Q94" s="235"/>
+      <c r="R94" s="233"/>
+    </row>
+    <row r="95" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="232"/>
+      <c r="B95" s="233"/>
+      <c r="E95" s="235"/>
+      <c r="F95" s="233"/>
+      <c r="I95" s="235"/>
+      <c r="J95" s="235"/>
+      <c r="K95" s="233"/>
+      <c r="Q95" s="235"/>
+      <c r="R95" s="233"/>
+    </row>
+    <row r="96" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="232"/>
+      <c r="B96" s="233"/>
+      <c r="E96" s="235"/>
+      <c r="F96" s="233"/>
+      <c r="I96" s="235"/>
+      <c r="J96" s="235"/>
+      <c r="K96" s="233"/>
+      <c r="Q96" s="235"/>
+      <c r="R96" s="233"/>
+    </row>
+    <row r="97" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="232"/>
+      <c r="B97" s="233"/>
+      <c r="E97" s="235"/>
+      <c r="F97" s="233"/>
+      <c r="I97" s="235"/>
+      <c r="J97" s="235"/>
+      <c r="K97" s="233"/>
+      <c r="Q97" s="235"/>
+      <c r="R97" s="233"/>
+    </row>
+    <row r="98" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="232"/>
+      <c r="B98" s="233"/>
+      <c r="E98" s="235"/>
+      <c r="F98" s="233"/>
+      <c r="I98" s="235"/>
+      <c r="J98" s="235"/>
+      <c r="K98" s="233"/>
+      <c r="Q98" s="235"/>
+      <c r="R98" s="233"/>
+    </row>
+    <row r="99" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="232"/>
+      <c r="B99" s="233"/>
+      <c r="E99" s="235"/>
+      <c r="F99" s="233"/>
+      <c r="I99" s="235"/>
+      <c r="J99" s="235"/>
+      <c r="K99" s="233"/>
+      <c r="Q99" s="235"/>
+      <c r="R99" s="233"/>
+    </row>
+    <row r="100" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="232"/>
+      <c r="B100" s="233"/>
+      <c r="E100" s="235"/>
+      <c r="F100" s="233"/>
+      <c r="I100" s="235"/>
+      <c r="J100" s="235"/>
+      <c r="K100" s="233"/>
+      <c r="Q100" s="235"/>
+      <c r="R100" s="233"/>
+    </row>
+    <row r="101" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="232"/>
+      <c r="B101" s="233"/>
+      <c r="E101" s="235"/>
+      <c r="F101" s="233"/>
+      <c r="I101" s="235"/>
+      <c r="J101" s="235"/>
+      <c r="K101" s="233"/>
+      <c r="Q101" s="235"/>
+      <c r="R101" s="233"/>
+    </row>
+    <row r="102" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="232"/>
+      <c r="B102" s="233"/>
+      <c r="E102" s="235"/>
+      <c r="F102" s="233"/>
+      <c r="I102" s="235"/>
+      <c r="J102" s="235"/>
+      <c r="K102" s="233"/>
+      <c r="Q102" s="235"/>
+      <c r="R102" s="233"/>
+    </row>
+    <row r="103" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="232"/>
+      <c r="B103" s="233"/>
+      <c r="E103" s="235"/>
+      <c r="F103" s="233"/>
+      <c r="I103" s="235"/>
+      <c r="J103" s="235"/>
+      <c r="K103" s="233"/>
+      <c r="Q103" s="235"/>
+      <c r="R103" s="233"/>
+    </row>
+    <row r="104" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="232"/>
+      <c r="B104" s="233"/>
+      <c r="E104" s="235"/>
+      <c r="F104" s="233"/>
+      <c r="I104" s="235"/>
+      <c r="J104" s="235"/>
+      <c r="K104" s="233"/>
+      <c r="Q104" s="235"/>
+      <c r="R104" s="233"/>
+    </row>
+    <row r="105" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="232"/>
+      <c r="B105" s="233"/>
+      <c r="E105" s="235"/>
+      <c r="F105" s="233"/>
+      <c r="I105" s="235"/>
+      <c r="J105" s="235"/>
+      <c r="K105" s="233"/>
+      <c r="Q105" s="235"/>
+      <c r="R105" s="233"/>
+    </row>
+    <row r="106" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="232"/>
+      <c r="B106" s="233"/>
+      <c r="E106" s="235"/>
+      <c r="F106" s="233"/>
+      <c r="I106" s="235"/>
+      <c r="J106" s="235"/>
+      <c r="K106" s="233"/>
+      <c r="Q106" s="235"/>
+      <c r="R106" s="233"/>
+    </row>
+    <row r="107" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="232"/>
+      <c r="B107" s="233"/>
+      <c r="E107" s="235"/>
+      <c r="F107" s="233"/>
+      <c r="I107" s="235"/>
+      <c r="J107" s="235"/>
+      <c r="K107" s="233"/>
+      <c r="Q107" s="235"/>
+      <c r="R107" s="233"/>
+    </row>
+    <row r="108" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="232"/>
+      <c r="B108" s="233"/>
+      <c r="E108" s="235"/>
+      <c r="F108" s="233"/>
+      <c r="I108" s="235"/>
+      <c r="J108" s="235"/>
+      <c r="K108" s="233"/>
+      <c r="Q108" s="235"/>
+      <c r="R108" s="233"/>
+    </row>
+    <row r="109" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="232"/>
+      <c r="B109" s="233"/>
+      <c r="E109" s="235"/>
+      <c r="F109" s="233"/>
+      <c r="I109" s="235"/>
+      <c r="J109" s="235"/>
+      <c r="K109" s="233"/>
+      <c r="Q109" s="235"/>
+      <c r="R109" s="233"/>
+    </row>
+    <row r="110" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="232"/>
+      <c r="B110" s="233"/>
+      <c r="E110" s="235"/>
+      <c r="F110" s="233"/>
+      <c r="I110" s="235"/>
+      <c r="J110" s="235"/>
+      <c r="K110" s="233"/>
+      <c r="Q110" s="235"/>
+      <c r="R110" s="233"/>
+    </row>
+    <row r="111" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="232"/>
+      <c r="B111" s="233"/>
+      <c r="E111" s="235"/>
+      <c r="F111" s="233"/>
+      <c r="I111" s="235"/>
+      <c r="J111" s="235"/>
+      <c r="K111" s="233"/>
+      <c r="Q111" s="235"/>
+      <c r="R111" s="233"/>
+    </row>
+    <row r="112" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="232"/>
+      <c r="B112" s="233"/>
+      <c r="E112" s="235"/>
+      <c r="F112" s="233"/>
+      <c r="I112" s="235"/>
+      <c r="J112" s="235"/>
+      <c r="K112" s="233"/>
+      <c r="Q112" s="235"/>
+      <c r="R112" s="233"/>
+    </row>
+    <row r="113" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="232"/>
+      <c r="B113" s="233"/>
+      <c r="E113" s="235"/>
+      <c r="F113" s="233"/>
+      <c r="I113" s="235"/>
+      <c r="J113" s="235"/>
+      <c r="K113" s="233"/>
+      <c r="Q113" s="235"/>
+      <c r="R113" s="233"/>
+    </row>
+    <row r="114" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="232"/>
+      <c r="B114" s="233"/>
+      <c r="E114" s="235"/>
+      <c r="F114" s="233"/>
+      <c r="I114" s="235"/>
+      <c r="J114" s="235"/>
+      <c r="K114" s="233"/>
+      <c r="Q114" s="235"/>
+      <c r="R114" s="233"/>
+    </row>
+    <row r="115" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="232"/>
+      <c r="B115" s="233"/>
+      <c r="E115" s="235"/>
+      <c r="F115" s="233"/>
+      <c r="I115" s="235"/>
+      <c r="J115" s="235"/>
+      <c r="K115" s="233"/>
+      <c r="Q115" s="235"/>
+      <c r="R115" s="233"/>
+    </row>
+    <row r="116" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="232"/>
+      <c r="B116" s="233"/>
+      <c r="E116" s="235"/>
+      <c r="F116" s="233"/>
+      <c r="I116" s="235"/>
+      <c r="J116" s="235"/>
+      <c r="K116" s="233"/>
+      <c r="Q116" s="235"/>
+      <c r="R116" s="233"/>
+    </row>
+    <row r="117" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="232"/>
+      <c r="B117" s="233"/>
+      <c r="E117" s="235"/>
+      <c r="F117" s="233"/>
+      <c r="I117" s="235"/>
+      <c r="J117" s="235"/>
+      <c r="K117" s="233"/>
+      <c r="Q117" s="235"/>
+      <c r="R117" s="233"/>
+    </row>
+    <row r="118" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="232"/>
+      <c r="B118" s="233"/>
+      <c r="E118" s="235"/>
+      <c r="F118" s="233"/>
+      <c r="I118" s="235"/>
+      <c r="J118" s="235"/>
+      <c r="K118" s="233"/>
+      <c r="Q118" s="235"/>
+      <c r="R118" s="233"/>
+    </row>
+    <row r="119" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="232"/>
+      <c r="B119" s="233"/>
+      <c r="E119" s="235"/>
+      <c r="F119" s="233"/>
+      <c r="I119" s="235"/>
+      <c r="J119" s="235"/>
+      <c r="K119" s="233"/>
+      <c r="Q119" s="235"/>
+      <c r="R119" s="233"/>
+    </row>
+    <row r="120" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="232"/>
+      <c r="B120" s="233"/>
+      <c r="E120" s="235"/>
+      <c r="F120" s="233"/>
+      <c r="I120" s="235"/>
+      <c r="J120" s="235"/>
+      <c r="K120" s="233"/>
+      <c r="Q120" s="235"/>
+      <c r="R120" s="233"/>
+    </row>
+    <row r="121" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="232"/>
+      <c r="B121" s="233"/>
+      <c r="E121" s="235"/>
+      <c r="F121" s="233"/>
+      <c r="I121" s="235"/>
+      <c r="J121" s="235"/>
+      <c r="K121" s="233"/>
+      <c r="Q121" s="235"/>
+      <c r="R121" s="233"/>
+    </row>
+    <row r="122" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="232"/>
+      <c r="B122" s="233"/>
+      <c r="E122" s="235"/>
+      <c r="F122" s="233"/>
+      <c r="I122" s="235"/>
+      <c r="J122" s="235"/>
+      <c r="K122" s="233"/>
+      <c r="Q122" s="235"/>
+      <c r="R122" s="233"/>
+    </row>
+    <row r="123" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="232"/>
+      <c r="B123" s="233"/>
+      <c r="E123" s="235"/>
+      <c r="F123" s="233"/>
+      <c r="I123" s="235"/>
+      <c r="J123" s="235"/>
+      <c r="K123" s="233"/>
+      <c r="Q123" s="235"/>
+      <c r="R123" s="233"/>
+    </row>
+    <row r="124" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="232"/>
+      <c r="B124" s="233"/>
+      <c r="E124" s="235"/>
+      <c r="F124" s="233"/>
+      <c r="I124" s="235"/>
+      <c r="J124" s="235"/>
+      <c r="K124" s="233"/>
+      <c r="Q124" s="235"/>
+      <c r="R124" s="233"/>
+    </row>
+    <row r="125" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="232"/>
+      <c r="B125" s="233"/>
+      <c r="E125" s="235"/>
+      <c r="F125" s="233"/>
+      <c r="I125" s="235"/>
+      <c r="J125" s="235"/>
+      <c r="K125" s="233"/>
+      <c r="Q125" s="235"/>
+      <c r="R125" s="233"/>
+    </row>
+    <row r="126" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="232"/>
+      <c r="B126" s="233"/>
+      <c r="E126" s="235"/>
+      <c r="F126" s="233"/>
+      <c r="I126" s="235"/>
+      <c r="J126" s="235"/>
+      <c r="K126" s="233"/>
+      <c r="Q126" s="235"/>
+      <c r="R126" s="233"/>
+    </row>
+    <row r="127" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="232"/>
+      <c r="B127" s="233"/>
+      <c r="E127" s="235"/>
+      <c r="F127" s="233"/>
+      <c r="I127" s="235"/>
+      <c r="J127" s="235"/>
+      <c r="K127" s="233"/>
+      <c r="Q127" s="235"/>
+      <c r="R127" s="233"/>
+    </row>
+    <row r="128" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="232"/>
+      <c r="B128" s="233"/>
+      <c r="E128" s="235"/>
+      <c r="F128" s="233"/>
+      <c r="I128" s="235"/>
+      <c r="J128" s="235"/>
+      <c r="K128" s="233"/>
+      <c r="Q128" s="235"/>
+      <c r="R128" s="233"/>
+    </row>
+    <row r="129" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="232"/>
+      <c r="B129" s="233"/>
+      <c r="E129" s="235"/>
+      <c r="F129" s="233"/>
+      <c r="I129" s="235"/>
+      <c r="J129" s="235"/>
+      <c r="K129" s="233"/>
+      <c r="Q129" s="235"/>
+      <c r="R129" s="233"/>
+    </row>
+    <row r="130" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="232"/>
+      <c r="B130" s="233"/>
+      <c r="E130" s="235"/>
+      <c r="F130" s="233"/>
+      <c r="I130" s="235"/>
+      <c r="J130" s="235"/>
+      <c r="K130" s="233"/>
+      <c r="Q130" s="235"/>
+      <c r="R130" s="233"/>
+    </row>
+    <row r="131" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="232"/>
+      <c r="B131" s="233"/>
+      <c r="E131" s="235"/>
+      <c r="F131" s="233"/>
+      <c r="I131" s="235"/>
+      <c r="J131" s="235"/>
+      <c r="K131" s="233"/>
+      <c r="Q131" s="235"/>
+      <c r="R131" s="233"/>
+    </row>
+    <row r="132" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="232"/>
+      <c r="B132" s="233"/>
+      <c r="E132" s="235"/>
+      <c r="F132" s="233"/>
+      <c r="I132" s="235"/>
+      <c r="J132" s="235"/>
+      <c r="K132" s="233"/>
+      <c r="Q132" s="235"/>
+      <c r="R132" s="233"/>
+    </row>
+    <row r="133" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="232"/>
+      <c r="B133" s="233"/>
+      <c r="E133" s="235"/>
+      <c r="F133" s="233"/>
+      <c r="I133" s="235"/>
+      <c r="J133" s="235"/>
+      <c r="K133" s="233"/>
+      <c r="Q133" s="235"/>
+      <c r="R133" s="233"/>
+    </row>
+    <row r="134" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="232"/>
+      <c r="B134" s="233"/>
+      <c r="E134" s="235"/>
+      <c r="F134" s="233"/>
+      <c r="I134" s="235"/>
+      <c r="J134" s="235"/>
+      <c r="K134" s="233"/>
+      <c r="Q134" s="235"/>
+      <c r="R134" s="233"/>
+    </row>
+    <row r="135" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="232"/>
+      <c r="B135" s="233"/>
+      <c r="E135" s="235"/>
+      <c r="F135" s="233"/>
+      <c r="I135" s="235"/>
+      <c r="J135" s="235"/>
+      <c r="K135" s="233"/>
+      <c r="Q135" s="235"/>
+      <c r="R135" s="233"/>
+    </row>
+    <row r="136" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="232"/>
+      <c r="B136" s="233"/>
+      <c r="E136" s="235"/>
+      <c r="F136" s="233"/>
+      <c r="I136" s="235"/>
+      <c r="J136" s="235"/>
+      <c r="K136" s="233"/>
+      <c r="Q136" s="235"/>
+      <c r="R136" s="233"/>
+    </row>
+    <row r="137" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="232"/>
+      <c r="B137" s="233"/>
+      <c r="E137" s="235"/>
+      <c r="F137" s="233"/>
+      <c r="I137" s="235"/>
+      <c r="J137" s="235"/>
+      <c r="K137" s="233"/>
+      <c r="Q137" s="235"/>
+      <c r="R137" s="233"/>
+    </row>
+    <row r="138" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="232"/>
+      <c r="B138" s="233"/>
+      <c r="E138" s="235"/>
+      <c r="F138" s="233"/>
+      <c r="I138" s="235"/>
+      <c r="J138" s="235"/>
+      <c r="K138" s="233"/>
+      <c r="Q138" s="235"/>
+      <c r="R138" s="233"/>
+    </row>
+    <row r="139" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="232"/>
+      <c r="B139" s="233"/>
+      <c r="E139" s="235"/>
+      <c r="F139" s="233"/>
+      <c r="I139" s="235"/>
+      <c r="J139" s="235"/>
+      <c r="K139" s="233"/>
+      <c r="Q139" s="235"/>
+      <c r="R139" s="233"/>
+    </row>
+    <row r="140" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="232"/>
+      <c r="B140" s="233"/>
+      <c r="E140" s="235"/>
+      <c r="F140" s="233"/>
+      <c r="I140" s="235"/>
+      <c r="J140" s="235"/>
+      <c r="K140" s="233"/>
+      <c r="Q140" s="235"/>
+      <c r="R140" s="233"/>
+    </row>
+    <row r="141" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="232"/>
+      <c r="B141" s="233"/>
+      <c r="E141" s="235"/>
+      <c r="F141" s="233"/>
+      <c r="I141" s="235"/>
+      <c r="J141" s="235"/>
+      <c r="K141" s="233"/>
+      <c r="Q141" s="235"/>
+      <c r="R141" s="233"/>
+    </row>
+    <row r="142" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="232"/>
+      <c r="B142" s="233"/>
+      <c r="E142" s="235"/>
+      <c r="F142" s="233"/>
+      <c r="I142" s="235"/>
+      <c r="J142" s="235"/>
+      <c r="K142" s="233"/>
+      <c r="Q142" s="235"/>
+      <c r="R142" s="233"/>
+    </row>
+    <row r="143" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="232"/>
+      <c r="B143" s="233"/>
+      <c r="E143" s="235"/>
+      <c r="F143" s="233"/>
+      <c r="I143" s="235"/>
+      <c r="J143" s="235"/>
+      <c r="K143" s="233"/>
+      <c r="Q143" s="235"/>
+      <c r="R143" s="233"/>
+    </row>
+    <row r="144" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="232"/>
+      <c r="B144" s="233"/>
+      <c r="E144" s="235"/>
+      <c r="F144" s="233"/>
+      <c r="I144" s="235"/>
+      <c r="J144" s="235"/>
+      <c r="K144" s="233"/>
+      <c r="Q144" s="235"/>
+      <c r="R144" s="233"/>
+    </row>
+    <row r="145" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="232"/>
+      <c r="B145" s="233"/>
+      <c r="E145" s="235"/>
+      <c r="F145" s="233"/>
+      <c r="I145" s="235"/>
+      <c r="J145" s="235"/>
+      <c r="K145" s="233"/>
+      <c r="Q145" s="235"/>
+      <c r="R145" s="233"/>
+    </row>
+    <row r="146" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="232"/>
+      <c r="B146" s="233"/>
+      <c r="E146" s="235"/>
+      <c r="F146" s="233"/>
+      <c r="I146" s="235"/>
+      <c r="J146" s="235"/>
+      <c r="K146" s="233"/>
+      <c r="Q146" s="235"/>
+      <c r="R146" s="233"/>
+    </row>
+    <row r="147" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="232"/>
+      <c r="B147" s="233"/>
+      <c r="E147" s="235"/>
+      <c r="F147" s="233"/>
+      <c r="I147" s="235"/>
+      <c r="J147" s="235"/>
+      <c r="K147" s="233"/>
+      <c r="Q147" s="235"/>
+      <c r="R147" s="233"/>
+    </row>
+    <row r="148" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="232"/>
+      <c r="B148" s="233"/>
+      <c r="E148" s="235"/>
+      <c r="F148" s="233"/>
+      <c r="I148" s="235"/>
+      <c r="J148" s="235"/>
+      <c r="K148" s="233"/>
+      <c r="Q148" s="235"/>
+      <c r="R148" s="233"/>
+    </row>
+    <row r="149" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="232"/>
+      <c r="B149" s="233"/>
+      <c r="E149" s="235"/>
+      <c r="F149" s="233"/>
+      <c r="I149" s="235"/>
+      <c r="J149" s="235"/>
+      <c r="K149" s="233"/>
+      <c r="Q149" s="235"/>
+      <c r="R149" s="233"/>
+    </row>
+    <row r="150" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="232"/>
+      <c r="B150" s="233"/>
+      <c r="E150" s="235"/>
+      <c r="F150" s="233"/>
+      <c r="I150" s="235"/>
+      <c r="J150" s="235"/>
+      <c r="K150" s="233"/>
+      <c r="Q150" s="235"/>
+      <c r="R150" s="233"/>
+    </row>
+    <row r="151" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="232"/>
+      <c r="B151" s="233"/>
+      <c r="E151" s="235"/>
+      <c r="F151" s="233"/>
+      <c r="I151" s="235"/>
+      <c r="J151" s="235"/>
+      <c r="K151" s="233"/>
+      <c r="Q151" s="235"/>
+      <c r="R151" s="233"/>
+    </row>
+    <row r="152" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="232"/>
+      <c r="B152" s="233"/>
+      <c r="E152" s="235"/>
+      <c r="F152" s="233"/>
+      <c r="I152" s="235"/>
+      <c r="J152" s="235"/>
+      <c r="K152" s="233"/>
+      <c r="Q152" s="235"/>
+      <c r="R152" s="233"/>
+    </row>
+    <row r="153" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="232"/>
+      <c r="B153" s="233"/>
+      <c r="E153" s="235"/>
+      <c r="F153" s="233"/>
+      <c r="I153" s="235"/>
+      <c r="J153" s="235"/>
+      <c r="K153" s="233"/>
+      <c r="Q153" s="235"/>
+      <c r="R153" s="233"/>
+    </row>
+    <row r="154" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="232"/>
+      <c r="B154" s="233"/>
+      <c r="E154" s="235"/>
+      <c r="F154" s="233"/>
+      <c r="I154" s="235"/>
+      <c r="J154" s="235"/>
+      <c r="K154" s="233"/>
+      <c r="Q154" s="235"/>
+      <c r="R154" s="233"/>
+    </row>
+    <row r="155" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="232"/>
+      <c r="B155" s="233"/>
+      <c r="E155" s="235"/>
+      <c r="F155" s="233"/>
+      <c r="I155" s="235"/>
+      <c r="J155" s="235"/>
+      <c r="K155" s="233"/>
+      <c r="Q155" s="235"/>
+      <c r="R155" s="233"/>
+    </row>
+    <row r="156" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="232"/>
+      <c r="B156" s="233"/>
+      <c r="E156" s="235"/>
+      <c r="F156" s="233"/>
+      <c r="I156" s="235"/>
+      <c r="J156" s="235"/>
+      <c r="K156" s="233"/>
+      <c r="Q156" s="235"/>
+      <c r="R156" s="233"/>
+    </row>
+    <row r="157" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="232"/>
+      <c r="B157" s="233"/>
+      <c r="E157" s="235"/>
+      <c r="F157" s="233"/>
+      <c r="I157" s="235"/>
+      <c r="J157" s="235"/>
+      <c r="K157" s="233"/>
+      <c r="Q157" s="235"/>
+      <c r="R157" s="233"/>
+    </row>
+    <row r="158" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="232"/>
+      <c r="B158" s="233"/>
+      <c r="E158" s="235"/>
+      <c r="F158" s="233"/>
+      <c r="I158" s="235"/>
+      <c r="J158" s="235"/>
+      <c r="K158" s="233"/>
+      <c r="Q158" s="235"/>
+      <c r="R158" s="233"/>
+    </row>
+    <row r="159" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="232"/>
+      <c r="B159" s="233"/>
+      <c r="E159" s="235"/>
+      <c r="F159" s="233"/>
+      <c r="I159" s="235"/>
+      <c r="J159" s="235"/>
+      <c r="K159" s="233"/>
+      <c r="Q159" s="235"/>
+      <c r="R159" s="233"/>
+    </row>
+    <row r="160" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="232"/>
+      <c r="B160" s="233"/>
+      <c r="E160" s="235"/>
+      <c r="F160" s="233"/>
+      <c r="I160" s="235"/>
+      <c r="J160" s="235"/>
+      <c r="K160" s="233"/>
+      <c r="Q160" s="235"/>
+      <c r="R160" s="233"/>
+    </row>
+    <row r="161" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="232"/>
+      <c r="B161" s="233"/>
+      <c r="E161" s="235"/>
+      <c r="F161" s="233"/>
+      <c r="I161" s="235"/>
+      <c r="J161" s="235"/>
+      <c r="K161" s="233"/>
+      <c r="Q161" s="235"/>
+      <c r="R161" s="233"/>
+    </row>
+    <row r="162" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="232"/>
+      <c r="B162" s="233"/>
+      <c r="E162" s="235"/>
+      <c r="F162" s="233"/>
+      <c r="I162" s="235"/>
+      <c r="J162" s="235"/>
+      <c r="K162" s="233"/>
+      <c r="Q162" s="235"/>
+      <c r="R162" s="233"/>
+    </row>
+    <row r="163" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="232"/>
+      <c r="B163" s="233"/>
+      <c r="E163" s="235"/>
+      <c r="F163" s="233"/>
+      <c r="I163" s="235"/>
+      <c r="J163" s="235"/>
+      <c r="K163" s="233"/>
+      <c r="Q163" s="235"/>
+      <c r="R163" s="233"/>
+    </row>
+    <row r="164" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="232"/>
+      <c r="B164" s="233"/>
+      <c r="E164" s="235"/>
+      <c r="F164" s="233"/>
+      <c r="I164" s="235"/>
+      <c r="J164" s="235"/>
+      <c r="K164" s="233"/>
+      <c r="Q164" s="235"/>
+      <c r="R164" s="233"/>
+    </row>
+    <row r="165" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="232"/>
+      <c r="B165" s="233"/>
+      <c r="E165" s="235"/>
+      <c r="F165" s="233"/>
+      <c r="I165" s="235"/>
+      <c r="J165" s="235"/>
+      <c r="K165" s="233"/>
+      <c r="Q165" s="235"/>
+      <c r="R165" s="233"/>
+    </row>
+    <row r="166" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="232"/>
+      <c r="B166" s="233"/>
+      <c r="E166" s="235"/>
+      <c r="F166" s="233"/>
+      <c r="I166" s="235"/>
+      <c r="J166" s="235"/>
+      <c r="K166" s="233"/>
+      <c r="Q166" s="235"/>
+      <c r="R166" s="233"/>
+    </row>
+    <row r="167" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="232"/>
+      <c r="B167" s="233"/>
+      <c r="E167" s="235"/>
+      <c r="F167" s="233"/>
+      <c r="I167" s="235"/>
+      <c r="J167" s="235"/>
+      <c r="K167" s="233"/>
+      <c r="Q167" s="235"/>
+      <c r="R167" s="233"/>
+    </row>
+    <row r="168" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="232"/>
+      <c r="B168" s="233"/>
+      <c r="E168" s="235"/>
+      <c r="F168" s="233"/>
+      <c r="I168" s="235"/>
+      <c r="J168" s="235"/>
+      <c r="K168" s="233"/>
+      <c r="Q168" s="235"/>
+      <c r="R168" s="233"/>
+    </row>
+    <row r="169" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="232"/>
+      <c r="B169" s="233"/>
+      <c r="E169" s="235"/>
+      <c r="F169" s="233"/>
+      <c r="I169" s="235"/>
+      <c r="J169" s="235"/>
+      <c r="K169" s="233"/>
+      <c r="Q169" s="235"/>
+      <c r="R169" s="233"/>
+    </row>
+    <row r="170" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="232"/>
+      <c r="B170" s="233"/>
+      <c r="E170" s="235"/>
+      <c r="F170" s="233"/>
+      <c r="I170" s="235"/>
+      <c r="J170" s="235"/>
+      <c r="K170" s="233"/>
+      <c r="Q170" s="235"/>
+      <c r="R170" s="233"/>
+    </row>
+    <row r="171" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="232"/>
+      <c r="B171" s="233"/>
+      <c r="E171" s="235"/>
+      <c r="F171" s="233"/>
+      <c r="I171" s="235"/>
+      <c r="J171" s="235"/>
+      <c r="K171" s="233"/>
+      <c r="Q171" s="235"/>
+      <c r="R171" s="233"/>
+    </row>
+    <row r="172" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="232"/>
+      <c r="B172" s="233"/>
+      <c r="E172" s="235"/>
+      <c r="F172" s="233"/>
+      <c r="I172" s="235"/>
+      <c r="J172" s="235"/>
+      <c r="K172" s="233"/>
+      <c r="Q172" s="235"/>
+      <c r="R172" s="233"/>
+    </row>
+    <row r="173" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="232"/>
+      <c r="B173" s="233"/>
+      <c r="E173" s="235"/>
+      <c r="F173" s="233"/>
+      <c r="I173" s="235"/>
+      <c r="J173" s="235"/>
+      <c r="K173" s="233"/>
+      <c r="Q173" s="235"/>
+      <c r="R173" s="233"/>
+    </row>
+    <row r="174" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="232"/>
+      <c r="B174" s="233"/>
+      <c r="E174" s="235"/>
+      <c r="F174" s="233"/>
+      <c r="I174" s="235"/>
+      <c r="J174" s="235"/>
+      <c r="K174" s="233"/>
+      <c r="Q174" s="235"/>
+      <c r="R174" s="233"/>
+    </row>
+    <row r="175" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="232"/>
+      <c r="B175" s="233"/>
+      <c r="E175" s="235"/>
+      <c r="F175" s="233"/>
+      <c r="I175" s="235"/>
+      <c r="J175" s="235"/>
+      <c r="K175" s="233"/>
+      <c r="Q175" s="235"/>
+      <c r="R175" s="233"/>
+    </row>
+    <row r="176" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="232"/>
+      <c r="B176" s="233"/>
+      <c r="E176" s="235"/>
+      <c r="F176" s="233"/>
+      <c r="I176" s="235"/>
+      <c r="J176" s="235"/>
+      <c r="K176" s="233"/>
+      <c r="Q176" s="235"/>
+      <c r="R176" s="233"/>
+    </row>
+    <row r="177" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="232"/>
+      <c r="B177" s="233"/>
+      <c r="E177" s="235"/>
+      <c r="F177" s="233"/>
+      <c r="I177" s="235"/>
+      <c r="J177" s="235"/>
+      <c r="K177" s="233"/>
+      <c r="Q177" s="235"/>
+      <c r="R177" s="233"/>
+    </row>
+    <row r="178" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="232"/>
+      <c r="B178" s="233"/>
+      <c r="E178" s="235"/>
+      <c r="F178" s="233"/>
+      <c r="I178" s="235"/>
+      <c r="J178" s="235"/>
+      <c r="K178" s="233"/>
+      <c r="Q178" s="235"/>
+      <c r="R178" s="233"/>
+    </row>
+    <row r="179" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="232"/>
+      <c r="B179" s="233"/>
+      <c r="E179" s="235"/>
+      <c r="F179" s="233"/>
+      <c r="I179" s="235"/>
+      <c r="J179" s="235"/>
+      <c r="K179" s="233"/>
+      <c r="Q179" s="235"/>
+      <c r="R179" s="233"/>
+    </row>
+    <row r="180" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="232"/>
+      <c r="B180" s="233"/>
+      <c r="E180" s="235"/>
+      <c r="F180" s="233"/>
+      <c r="I180" s="235"/>
+      <c r="J180" s="235"/>
+      <c r="K180" s="233"/>
+      <c r="Q180" s="235"/>
+      <c r="R180" s="233"/>
+    </row>
+    <row r="181" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="232"/>
+      <c r="B181" s="233"/>
+      <c r="E181" s="235"/>
+      <c r="F181" s="233"/>
+      <c r="I181" s="235"/>
+      <c r="J181" s="235"/>
+      <c r="K181" s="233"/>
+      <c r="Q181" s="235"/>
+      <c r="R181" s="233"/>
+    </row>
+    <row r="182" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="232"/>
+      <c r="B182" s="233"/>
+      <c r="E182" s="235"/>
+      <c r="F182" s="233"/>
+      <c r="I182" s="235"/>
+      <c r="J182" s="235"/>
+      <c r="K182" s="233"/>
+      <c r="Q182" s="235"/>
+      <c r="R182" s="233"/>
+    </row>
+    <row r="183" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="232"/>
+      <c r="B183" s="233"/>
+      <c r="E183" s="235"/>
+      <c r="F183" s="233"/>
+      <c r="I183" s="235"/>
+      <c r="J183" s="235"/>
+      <c r="K183" s="233"/>
+      <c r="Q183" s="235"/>
+      <c r="R183" s="233"/>
+    </row>
+    <row r="184" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="232"/>
+      <c r="B184" s="233"/>
+      <c r="E184" s="235"/>
+      <c r="F184" s="233"/>
+      <c r="I184" s="235"/>
+      <c r="J184" s="235"/>
+      <c r="K184" s="233"/>
+      <c r="Q184" s="235"/>
+      <c r="R184" s="233"/>
+    </row>
+    <row r="185" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="232"/>
+      <c r="B185" s="233"/>
+      <c r="E185" s="235"/>
+      <c r="F185" s="233"/>
+      <c r="I185" s="235"/>
+      <c r="J185" s="235"/>
+      <c r="K185" s="233"/>
+      <c r="Q185" s="235"/>
+      <c r="R185" s="233"/>
+    </row>
+    <row r="186" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="232"/>
+      <c r="B186" s="233"/>
+      <c r="E186" s="235"/>
+      <c r="F186" s="233"/>
+      <c r="I186" s="235"/>
+      <c r="J186" s="235"/>
+      <c r="K186" s="233"/>
+      <c r="Q186" s="235"/>
+      <c r="R186" s="233"/>
+    </row>
+    <row r="187" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="232"/>
+      <c r="B187" s="233"/>
+      <c r="E187" s="235"/>
+      <c r="F187" s="233"/>
+      <c r="I187" s="235"/>
+      <c r="J187" s="235"/>
+      <c r="K187" s="233"/>
+      <c r="Q187" s="235"/>
+      <c r="R187" s="233"/>
+    </row>
+    <row r="188" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="232"/>
+      <c r="B188" s="233"/>
+      <c r="E188" s="235"/>
+      <c r="F188" s="233"/>
+      <c r="I188" s="235"/>
+      <c r="J188" s="235"/>
+      <c r="K188" s="233"/>
+      <c r="Q188" s="235"/>
+      <c r="R188" s="233"/>
+    </row>
+    <row r="189" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="232"/>
+      <c r="B189" s="233"/>
+      <c r="E189" s="235"/>
+      <c r="F189" s="233"/>
+      <c r="I189" s="235"/>
+      <c r="J189" s="235"/>
+      <c r="K189" s="233"/>
+      <c r="Q189" s="235"/>
+      <c r="R189" s="233"/>
+    </row>
+    <row r="190" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="232"/>
+      <c r="B190" s="233"/>
+      <c r="E190" s="235"/>
+      <c r="F190" s="233"/>
+      <c r="I190" s="235"/>
+      <c r="J190" s="235"/>
+      <c r="K190" s="233"/>
+      <c r="Q190" s="235"/>
+      <c r="R190" s="233"/>
+    </row>
+    <row r="191" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="232"/>
+      <c r="B191" s="233"/>
+      <c r="E191" s="235"/>
+      <c r="F191" s="233"/>
+      <c r="I191" s="235"/>
+      <c r="J191" s="235"/>
+      <c r="K191" s="233"/>
+      <c r="Q191" s="235"/>
+      <c r="R191" s="233"/>
+    </row>
+    <row r="192" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="232"/>
+      <c r="B192" s="233"/>
+      <c r="E192" s="235"/>
+      <c r="F192" s="233"/>
+      <c r="I192" s="235"/>
+      <c r="J192" s="235"/>
+      <c r="K192" s="233"/>
+      <c r="Q192" s="235"/>
+      <c r="R192" s="233"/>
+    </row>
+    <row r="193" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="232"/>
+      <c r="B193" s="233"/>
+      <c r="E193" s="235"/>
+      <c r="F193" s="233"/>
+      <c r="I193" s="235"/>
+      <c r="J193" s="235"/>
+      <c r="K193" s="233"/>
+      <c r="Q193" s="235"/>
+      <c r="R193" s="233"/>
+    </row>
+    <row r="194" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="232"/>
+      <c r="B194" s="233"/>
+      <c r="E194" s="235"/>
+      <c r="F194" s="233"/>
+      <c r="I194" s="235"/>
+      <c r="J194" s="235"/>
+      <c r="K194" s="233"/>
+      <c r="Q194" s="235"/>
+      <c r="R194" s="233"/>
+    </row>
+    <row r="195" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="232"/>
+      <c r="B195" s="233"/>
+      <c r="E195" s="235"/>
+      <c r="F195" s="233"/>
+      <c r="I195" s="235"/>
+      <c r="J195" s="235"/>
+      <c r="K195" s="233"/>
+      <c r="Q195" s="235"/>
+      <c r="R195" s="233"/>
+    </row>
+    <row r="196" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="232"/>
+      <c r="B196" s="233"/>
+      <c r="E196" s="235"/>
+      <c r="F196" s="233"/>
+      <c r="I196" s="235"/>
+      <c r="J196" s="235"/>
+      <c r="K196" s="233"/>
+      <c r="Q196" s="235"/>
+      <c r="R196" s="233"/>
+    </row>
+    <row r="197" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="232"/>
+      <c r="B197" s="233"/>
+      <c r="E197" s="235"/>
+      <c r="F197" s="233"/>
+      <c r="I197" s="235"/>
+      <c r="J197" s="235"/>
+      <c r="K197" s="233"/>
+      <c r="Q197" s="235"/>
+      <c r="R197" s="233"/>
+    </row>
+    <row r="198" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="232"/>
+      <c r="B198" s="233"/>
+      <c r="E198" s="235"/>
+      <c r="F198" s="233"/>
+      <c r="I198" s="235"/>
+      <c r="J198" s="235"/>
+      <c r="K198" s="233"/>
+      <c r="Q198" s="235"/>
+      <c r="R198" s="233"/>
+    </row>
+    <row r="199" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="232"/>
+      <c r="B199" s="233"/>
+      <c r="E199" s="235"/>
+      <c r="F199" s="233"/>
+      <c r="I199" s="235"/>
+      <c r="J199" s="235"/>
+      <c r="K199" s="233"/>
+      <c r="Q199" s="235"/>
+      <c r="R199" s="233"/>
+    </row>
+    <row r="200" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="232"/>
+      <c r="B200" s="233"/>
+      <c r="E200" s="235"/>
+      <c r="F200" s="233"/>
+      <c r="I200" s="235"/>
+      <c r="J200" s="235"/>
+      <c r="K200" s="233"/>
+      <c r="Q200" s="235"/>
+      <c r="R200" s="233"/>
+    </row>
+    <row r="201" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="232"/>
+      <c r="B201" s="233"/>
+      <c r="E201" s="235"/>
+      <c r="F201" s="233"/>
+      <c r="I201" s="235"/>
+      <c r="J201" s="235"/>
+      <c r="K201" s="233"/>
+      <c r="Q201" s="235"/>
+      <c r="R201" s="233"/>
+    </row>
+    <row r="202" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="232"/>
+      <c r="B202" s="233"/>
+      <c r="E202" s="235"/>
+      <c r="F202" s="233"/>
+      <c r="I202" s="235"/>
+      <c r="J202" s="235"/>
+      <c r="K202" s="233"/>
+      <c r="Q202" s="235"/>
+      <c r="R202" s="233"/>
+    </row>
+    <row r="203" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="232"/>
+      <c r="B203" s="233"/>
+      <c r="E203" s="235"/>
+      <c r="F203" s="233"/>
+      <c r="I203" s="235"/>
+      <c r="J203" s="235"/>
+      <c r="K203" s="233"/>
+      <c r="Q203" s="235"/>
+      <c r="R203" s="233"/>
+    </row>
+    <row r="204" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="232"/>
+      <c r="B204" s="233"/>
+      <c r="E204" s="235"/>
+      <c r="F204" s="233"/>
+      <c r="I204" s="235"/>
+      <c r="J204" s="235"/>
+      <c r="K204" s="233"/>
+      <c r="Q204" s="235"/>
+      <c r="R204" s="233"/>
+    </row>
+    <row r="205" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="232"/>
+      <c r="B205" s="233"/>
+      <c r="E205" s="235"/>
+      <c r="F205" s="233"/>
+      <c r="I205" s="235"/>
+      <c r="J205" s="235"/>
+      <c r="K205" s="233"/>
+      <c r="Q205" s="235"/>
+      <c r="R205" s="233"/>
+    </row>
+    <row r="206" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="232"/>
+      <c r="B206" s="233"/>
+      <c r="E206" s="235"/>
+      <c r="F206" s="233"/>
+      <c r="I206" s="235"/>
+      <c r="J206" s="235"/>
+      <c r="K206" s="233"/>
+      <c r="Q206" s="235"/>
+      <c r="R206" s="233"/>
+    </row>
+    <row r="207" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="232"/>
+      <c r="B207" s="233"/>
+      <c r="E207" s="235"/>
+      <c r="F207" s="233"/>
+      <c r="I207" s="235"/>
+      <c r="J207" s="235"/>
+      <c r="K207" s="233"/>
+      <c r="Q207" s="235"/>
+      <c r="R207" s="233"/>
+    </row>
+    <row r="208" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="232"/>
+      <c r="B208" s="233"/>
+      <c r="E208" s="235"/>
+      <c r="F208" s="233"/>
+      <c r="I208" s="235"/>
+      <c r="J208" s="235"/>
+      <c r="K208" s="233"/>
+      <c r="Q208" s="235"/>
+      <c r="R208" s="233"/>
+    </row>
+    <row r="209" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="232"/>
+      <c r="B209" s="233"/>
+      <c r="E209" s="235"/>
+      <c r="F209" s="233"/>
+      <c r="I209" s="235"/>
+      <c r="J209" s="235"/>
+      <c r="K209" s="233"/>
+      <c r="Q209" s="235"/>
+      <c r="R209" s="233"/>
+    </row>
+    <row r="210" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="232"/>
+      <c r="B210" s="233"/>
+      <c r="E210" s="235"/>
+      <c r="F210" s="233"/>
+      <c r="I210" s="235"/>
+      <c r="J210" s="235"/>
+      <c r="K210" s="233"/>
+      <c r="Q210" s="235"/>
+      <c r="R210" s="233"/>
+    </row>
+    <row r="211" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="232"/>
+      <c r="B211" s="233"/>
+      <c r="E211" s="235"/>
+      <c r="F211" s="233"/>
+      <c r="I211" s="235"/>
+      <c r="J211" s="235"/>
+      <c r="K211" s="233"/>
+      <c r="Q211" s="235"/>
+      <c r="R211" s="233"/>
+    </row>
+    <row r="212" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="232"/>
+      <c r="B212" s="233"/>
+      <c r="E212" s="235"/>
+      <c r="F212" s="233"/>
+      <c r="I212" s="235"/>
+      <c r="J212" s="235"/>
+      <c r="K212" s="233"/>
+      <c r="Q212" s="235"/>
+      <c r="R212" s="233"/>
+    </row>
+    <row r="213" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="232"/>
+      <c r="B213" s="233"/>
+      <c r="E213" s="235"/>
+      <c r="F213" s="233"/>
+      <c r="I213" s="235"/>
+      <c r="J213" s="235"/>
+      <c r="K213" s="233"/>
+      <c r="Q213" s="235"/>
+      <c r="R213" s="233"/>
+    </row>
+    <row r="214" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="232"/>
+      <c r="B214" s="233"/>
+      <c r="E214" s="235"/>
+      <c r="F214" s="233"/>
+      <c r="I214" s="235"/>
+      <c r="J214" s="235"/>
+      <c r="K214" s="233"/>
+      <c r="Q214" s="235"/>
+      <c r="R214" s="233"/>
+    </row>
+    <row r="215" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="232"/>
+      <c r="B215" s="233"/>
+      <c r="E215" s="235"/>
+      <c r="F215" s="233"/>
+      <c r="I215" s="235"/>
+      <c r="J215" s="235"/>
+      <c r="K215" s="233"/>
+      <c r="Q215" s="235"/>
+      <c r="R215" s="233"/>
+    </row>
+    <row r="216" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="232"/>
+      <c r="B216" s="233"/>
+      <c r="E216" s="235"/>
+      <c r="F216" s="233"/>
+      <c r="I216" s="235"/>
+      <c r="J216" s="235"/>
+      <c r="K216" s="233"/>
+      <c r="Q216" s="235"/>
+      <c r="R216" s="233"/>
+    </row>
+    <row r="217" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="232"/>
+      <c r="B217" s="233"/>
+      <c r="E217" s="235"/>
+      <c r="F217" s="233"/>
+      <c r="I217" s="235"/>
+      <c r="J217" s="235"/>
+      <c r="K217" s="233"/>
+      <c r="Q217" s="235"/>
+      <c r="R217" s="233"/>
+    </row>
+    <row r="218" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="232"/>
+      <c r="B218" s="233"/>
+      <c r="E218" s="235"/>
+      <c r="F218" s="233"/>
+      <c r="I218" s="235"/>
+      <c r="J218" s="235"/>
+      <c r="K218" s="233"/>
+      <c r="Q218" s="235"/>
+      <c r="R218" s="233"/>
+    </row>
+    <row r="219" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="232"/>
+      <c r="B219" s="233"/>
+      <c r="E219" s="235"/>
+      <c r="F219" s="233"/>
+      <c r="I219" s="235"/>
+      <c r="J219" s="235"/>
+      <c r="K219" s="233"/>
+      <c r="Q219" s="235"/>
+      <c r="R219" s="233"/>
+    </row>
+    <row r="220" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="232"/>
+      <c r="B220" s="233"/>
+      <c r="E220" s="235"/>
+      <c r="F220" s="233"/>
+      <c r="I220" s="235"/>
+      <c r="J220" s="235"/>
+      <c r="K220" s="233"/>
+      <c r="Q220" s="235"/>
+      <c r="R220" s="233"/>
+    </row>
+    <row r="221" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="232"/>
+      <c r="B221" s="233"/>
+      <c r="E221" s="235"/>
+      <c r="F221" s="233"/>
+      <c r="I221" s="235"/>
+      <c r="J221" s="235"/>
+      <c r="K221" s="233"/>
+      <c r="Q221" s="235"/>
+      <c r="R221" s="233"/>
+    </row>
+    <row r="222" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="232"/>
+      <c r="B222" s="233"/>
+      <c r="E222" s="235"/>
+      <c r="F222" s="233"/>
+      <c r="I222" s="235"/>
+      <c r="J222" s="235"/>
+      <c r="K222" s="233"/>
+      <c r="Q222" s="235"/>
+      <c r="R222" s="233"/>
+    </row>
+    <row r="223" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="232"/>
+      <c r="B223" s="233"/>
+      <c r="E223" s="235"/>
+      <c r="F223" s="233"/>
+      <c r="I223" s="235"/>
+      <c r="J223" s="235"/>
+      <c r="K223" s="233"/>
+      <c r="Q223" s="235"/>
+      <c r="R223" s="233"/>
+    </row>
+    <row r="224" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="232"/>
+      <c r="B224" s="233"/>
+      <c r="E224" s="235"/>
+      <c r="F224" s="233"/>
+      <c r="I224" s="235"/>
+      <c r="J224" s="235"/>
+      <c r="K224" s="233"/>
+      <c r="Q224" s="235"/>
+      <c r="R224" s="233"/>
+    </row>
+    <row r="225" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="232"/>
+      <c r="B225" s="233"/>
+      <c r="E225" s="235"/>
+      <c r="F225" s="233"/>
+      <c r="I225" s="235"/>
+      <c r="J225" s="235"/>
+      <c r="K225" s="233"/>
+      <c r="Q225" s="235"/>
+      <c r="R225" s="233"/>
+    </row>
+    <row r="226" spans="1:18" s="234" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="232"/>
+      <c r="B226" s="233"/>
+      <c r="E226" s="235"/>
+      <c r="F226" s="233"/>
+      <c r="I226" s="235"/>
+      <c r="J226" s="235"/>
+      <c r="K226" s="233"/>
+      <c r="Q226" s="235"/>
+      <c r="R226" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21470,13 +24018,13 @@
     <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:Q12">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Binding"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Affecting"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Influencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21522,21 +24070,21 @@
     <row r="1" spans="1:23" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="55"/>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="212"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="231"/>
       <c r="G1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="211" t="s">
+      <c r="H1" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="212"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="231"/>
       <c r="L1" s="23" t="s">
         <v>44</v>
       </c>
@@ -21546,15 +24094,15 @@
       <c r="N1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="208" t="s">
+      <c r="O1" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="210"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="229"/>
       <c r="V1" s="23" t="s">
         <v>44</v>
       </c>
@@ -21619,7 +24167,7 @@
       <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="225" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="60" t="s">
@@ -21677,7 +24225,7 @@
       <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206"/>
+      <c r="A4" s="225"/>
       <c r="B4" s="61" t="s">
         <v>3</v>
       </c>
@@ -21733,7 +24281,7 @@
       <c r="V4" s="26"/>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
+      <c r="A5" s="225"/>
       <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
@@ -21789,7 +24337,7 @@
       <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="207"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
@@ -21845,7 +24393,7 @@
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="221" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -21903,7 +24451,7 @@
       <c r="V7" s="26"/>
     </row>
     <row r="8" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
@@ -21959,7 +24507,7 @@
       <c r="V8" s="26"/>
     </row>
     <row r="9" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
@@ -22015,7 +24563,7 @@
       <c r="V9" s="26"/>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="93" t="s">
         <v>13</v>
       </c>
@@ -22129,7 +24677,7 @@
       <c r="V11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="221" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -22187,7 +24735,7 @@
       <c r="V12" s="26"/>
     </row>
     <row r="13" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
@@ -22243,7 +24791,7 @@
       <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
@@ -22299,7 +24847,7 @@
       <c r="V14" s="26"/>
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="203"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
@@ -22355,7 +24903,7 @@
       <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="91" t="s">
         <v>38</v>
       </c>
@@ -22411,7 +24959,7 @@
       <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
+      <c r="A17" s="223"/>
       <c r="B17" s="92" t="s">
         <v>31</v>
       </c>
@@ -22467,7 +25015,7 @@
       <c r="V17" s="22"/>
     </row>
     <row r="18" spans="1:22" s="10" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205"/>
+      <c r="A18" s="224"/>
       <c r="B18" s="93" t="s">
         <v>39</v>
       </c>
